--- a/VerbConjugation/XLSX/Arm.xlsx
+++ b/VerbConjugation/XLSX/Arm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/.shortcut-targets-by-id/1Wid6qZFUIaNGhhY-jObhH0MzMkW03Wt7/Teheran or general Persian Armenian/2021 kickstart /Archive/iranian_armenian/VerbConjugation/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319F6063-0F61-9546-B7CC-2ABADC61D990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE35DEDD-26E9-2445-B9E0-B02A238B5632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="480" windowWidth="28040" windowHeight="15760" xr2:uid="{B2297C89-19AD-CE43-8C13-F47C72A1FD76}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15460" xr2:uid="{B2297C89-19AD-CE43-8C13-F47C72A1FD76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8587,60 +8587,33 @@
     <t>կը երգեմ</t>
   </si>
   <si>
-    <t>կ՚ուղարկեմ</t>
-  </si>
-  <si>
     <t>կը կարդամ</t>
   </si>
   <si>
     <t>կը ցանկանամ</t>
   </si>
   <si>
-    <t>կ՚ուրախանամ</t>
-  </si>
-  <si>
     <t>կը վերցնեմ</t>
   </si>
   <si>
-    <t>կ՚ուրախացնեմ</t>
-  </si>
-  <si>
     <t>կը մեռնեմ</t>
   </si>
   <si>
-    <t>կ՚իջնեմ</t>
-  </si>
-  <si>
     <t>կը փախնեմ</t>
   </si>
   <si>
-    <t>կ՚առնեմ</t>
-  </si>
-  <si>
     <t>կը տեսնեմ</t>
   </si>
   <si>
-    <t>կ՚էլնեմ</t>
-  </si>
-  <si>
     <t>կը թողնեմ</t>
   </si>
   <si>
-    <t>կ՚ուտեմ</t>
-  </si>
-  <si>
-    <t>կ՚անեմ</t>
-  </si>
-  <si>
     <t>կը տանեմ</t>
   </si>
   <si>
     <t>կը դնեմ</t>
   </si>
   <si>
-    <t>կ՚էթամ</t>
-  </si>
-  <si>
     <t>կը տամ</t>
   </si>
   <si>
@@ -8650,9 +8623,6 @@
     <t>կը բերեմ</t>
   </si>
   <si>
-    <t>կ՚ասեմ</t>
-  </si>
-  <si>
     <t>կը դառնամ</t>
   </si>
   <si>
@@ -8668,60 +8638,33 @@
     <t>կը երգես</t>
   </si>
   <si>
-    <t>կ՚ուղարկես</t>
-  </si>
-  <si>
     <t>կը կարդաս</t>
   </si>
   <si>
     <t>կը ցանկանաս</t>
   </si>
   <si>
-    <t>կ՚ուրախանաս</t>
-  </si>
-  <si>
     <t>կը վերցնես</t>
   </si>
   <si>
-    <t>կ՚ուրախացնես</t>
-  </si>
-  <si>
     <t>կը մեռնես</t>
   </si>
   <si>
-    <t>կ՚իջնես</t>
-  </si>
-  <si>
     <t>կը փախնես</t>
   </si>
   <si>
-    <t>կ՚առնես</t>
-  </si>
-  <si>
     <t>կը տեսնես</t>
   </si>
   <si>
-    <t>կ՚էլնես</t>
-  </si>
-  <si>
     <t>կը թողնես</t>
   </si>
   <si>
-    <t>կ՚ուտես</t>
-  </si>
-  <si>
-    <t>կ՚անես</t>
-  </si>
-  <si>
     <t>կը տանես</t>
   </si>
   <si>
     <t>կը դնես</t>
   </si>
   <si>
-    <t>կ՚էթաս</t>
-  </si>
-  <si>
     <t>կը տաս</t>
   </si>
   <si>
@@ -8731,9 +8674,6 @@
     <t>կը բերես</t>
   </si>
   <si>
-    <t>կ՚ասես</t>
-  </si>
-  <si>
     <t>կը դառնաս</t>
   </si>
   <si>
@@ -8749,60 +8689,33 @@
     <t>կը երգի</t>
   </si>
   <si>
-    <t>կ՚ուղարկի</t>
-  </si>
-  <si>
     <t>կը կարդայ</t>
   </si>
   <si>
     <t>կը ցանկանայ</t>
   </si>
   <si>
-    <t>կ՚ուրախանայ</t>
-  </si>
-  <si>
     <t>կը վերցնի</t>
   </si>
   <si>
-    <t>կ՚ուրախացնի</t>
-  </si>
-  <si>
     <t>կը մեռնի</t>
   </si>
   <si>
-    <t>կ՚իջնի</t>
-  </si>
-  <si>
     <t>կը փախնի</t>
   </si>
   <si>
-    <t>կ՚առնի</t>
-  </si>
-  <si>
     <t>կը տեսնի</t>
   </si>
   <si>
-    <t>կ՚էլնի</t>
-  </si>
-  <si>
     <t>կը թողնի</t>
   </si>
   <si>
-    <t>կ՚ուտի</t>
-  </si>
-  <si>
-    <t>կ՚անի</t>
-  </si>
-  <si>
     <t>կը տանի</t>
   </si>
   <si>
     <t>կը դնի</t>
   </si>
   <si>
-    <t>կ՚էթայ</t>
-  </si>
-  <si>
     <t>կը տայ</t>
   </si>
   <si>
@@ -8812,9 +8725,6 @@
     <t>կը բերի</t>
   </si>
   <si>
-    <t>կ՚ասի</t>
-  </si>
-  <si>
     <t>կը դառնայ</t>
   </si>
   <si>
@@ -8830,60 +8740,33 @@
     <t>կը երգենք</t>
   </si>
   <si>
-    <t>կ՚ուղարկենք</t>
-  </si>
-  <si>
     <t>կը կարդանք</t>
   </si>
   <si>
     <t>կը ցանկանանք</t>
   </si>
   <si>
-    <t>կ՚ուրախանանք</t>
-  </si>
-  <si>
     <t>կը վերցնենք</t>
   </si>
   <si>
-    <t>կ՚ուրախացնենք</t>
-  </si>
-  <si>
     <t>կը մեռնենք</t>
   </si>
   <si>
-    <t>կ՚իջնենք</t>
-  </si>
-  <si>
     <t>կը փախնենք</t>
   </si>
   <si>
-    <t>կ՚առնենք</t>
-  </si>
-  <si>
     <t>կը տեսնենք</t>
   </si>
   <si>
-    <t>կ՚էլնենք</t>
-  </si>
-  <si>
     <t>կը թողնենք</t>
   </si>
   <si>
-    <t>կ՚ուտենք</t>
-  </si>
-  <si>
-    <t>կ՚անենք</t>
-  </si>
-  <si>
     <t>կը տանենք</t>
   </si>
   <si>
     <t>կը դնենք</t>
   </si>
   <si>
-    <t>կ՚էթանք</t>
-  </si>
-  <si>
     <t>կը տանք</t>
   </si>
   <si>
@@ -8893,9 +8776,6 @@
     <t>կը բերենք</t>
   </si>
   <si>
-    <t>կ՚ասենք</t>
-  </si>
-  <si>
     <t>կը դառնանք</t>
   </si>
   <si>
@@ -8911,60 +8791,33 @@
     <t>կը երգէք</t>
   </si>
   <si>
-    <t>կ՚ուղարկէք</t>
-  </si>
-  <si>
     <t>կը կարդաք</t>
   </si>
   <si>
     <t>կը ցանկանաք</t>
   </si>
   <si>
-    <t>կ՚ուրախանաք</t>
-  </si>
-  <si>
     <t>կը վերցնէք</t>
   </si>
   <si>
-    <t>կ՚ուրախացնէք</t>
-  </si>
-  <si>
     <t>կը մեռնէք</t>
   </si>
   <si>
-    <t>կ՚իջնէք</t>
-  </si>
-  <si>
     <t>կը փախնէք</t>
   </si>
   <si>
-    <t>կ՚առնէք</t>
-  </si>
-  <si>
     <t>կը տեսնէք</t>
   </si>
   <si>
-    <t>կ՚էլնէք</t>
-  </si>
-  <si>
     <t>կը թողնէք</t>
   </si>
   <si>
-    <t>կ՚ուտէք</t>
-  </si>
-  <si>
-    <t>կ՚անէք</t>
-  </si>
-  <si>
     <t>կը տանէք</t>
   </si>
   <si>
     <t>կը դնէք</t>
   </si>
   <si>
-    <t>կ՚էթաք</t>
-  </si>
-  <si>
     <t>կը տաք</t>
   </si>
   <si>
@@ -8974,9 +8827,6 @@
     <t>կը բերէք</t>
   </si>
   <si>
-    <t>կ՚ասէք</t>
-  </si>
-  <si>
     <t>կը դառնաք</t>
   </si>
   <si>
@@ -8992,60 +8842,33 @@
     <t>կը երգեն</t>
   </si>
   <si>
-    <t>կ՚ուղարկեն</t>
-  </si>
-  <si>
     <t>կը կարդան</t>
   </si>
   <si>
     <t>կը ցանկանան</t>
   </si>
   <si>
-    <t>կ՚ուրախանան</t>
-  </si>
-  <si>
     <t>կը վերցնեն</t>
   </si>
   <si>
-    <t>կ՚ուրախացնեն</t>
-  </si>
-  <si>
     <t>կը մեռնեն</t>
   </si>
   <si>
-    <t>կ՚իջնեն</t>
-  </si>
-  <si>
     <t>կը փախնեն</t>
   </si>
   <si>
-    <t>կ՚առնեն</t>
-  </si>
-  <si>
     <t>կը տեսնեն</t>
   </si>
   <si>
-    <t>կ՚էլնեն</t>
-  </si>
-  <si>
     <t>կը թողնեն</t>
   </si>
   <si>
-    <t>կ՚ուտեն</t>
-  </si>
-  <si>
-    <t>կ՚անեն</t>
-  </si>
-  <si>
     <t>կը տանեն</t>
   </si>
   <si>
     <t>կը դնեն</t>
   </si>
   <si>
-    <t>կ՚էթան</t>
-  </si>
-  <si>
     <t>կը տան</t>
   </si>
   <si>
@@ -9055,9 +8878,6 @@
     <t>կը բերեն</t>
   </si>
   <si>
-    <t>կ՚ասեն</t>
-  </si>
-  <si>
     <t>կը դառնան</t>
   </si>
   <si>
@@ -9559,60 +9379,33 @@
     <t>կը երգիմ</t>
   </si>
   <si>
-    <t>կ՚ուղարկիմ</t>
-  </si>
-  <si>
     <t>կը կարդայիմ</t>
   </si>
   <si>
     <t>կը ցանկանայիմ</t>
   </si>
   <si>
-    <t>կ՚ուրախանայիմ</t>
-  </si>
-  <si>
     <t>կը վերցնիմ</t>
   </si>
   <si>
-    <t>կ՚ուրախացնիմ</t>
-  </si>
-  <si>
     <t>կը մեռնիմ</t>
   </si>
   <si>
-    <t>կ՚իջնիմ</t>
-  </si>
-  <si>
     <t>կը փախնիմ</t>
   </si>
   <si>
-    <t>կ՚առնիմ</t>
-  </si>
-  <si>
     <t>կը տեսնիմ</t>
   </si>
   <si>
-    <t>կ՚էլնիմ</t>
-  </si>
-  <si>
     <t>կը թողնիմ</t>
   </si>
   <si>
-    <t>կ՚ուտիմ</t>
-  </si>
-  <si>
-    <t>կ՚անիմ</t>
-  </si>
-  <si>
     <t>կը տանիմ</t>
   </si>
   <si>
     <t>կը դնիմ</t>
   </si>
   <si>
-    <t>կ՚էթայիմ</t>
-  </si>
-  <si>
     <t>կը տայիմ</t>
   </si>
   <si>
@@ -9622,9 +9415,6 @@
     <t>կը բերիմ</t>
   </si>
   <si>
-    <t>կ՚ասիմ</t>
-  </si>
-  <si>
     <t>կը դառնայիմ</t>
   </si>
   <si>
@@ -9640,60 +9430,33 @@
     <t>կը երգիր</t>
   </si>
   <si>
-    <t>կ՚ուղարկիր</t>
-  </si>
-  <si>
     <t>կը կարդայիր</t>
   </si>
   <si>
     <t>կը ցանկանայիր</t>
   </si>
   <si>
-    <t>կ՚ուրախանայիր</t>
-  </si>
-  <si>
     <t>կը վերցնիր</t>
   </si>
   <si>
-    <t>կ՚ուրախացնիր</t>
-  </si>
-  <si>
     <t>կը մեռնիր</t>
   </si>
   <si>
-    <t>կ՚իջնիր</t>
-  </si>
-  <si>
     <t>կը փախնիր</t>
   </si>
   <si>
-    <t>կ՚առնիր</t>
-  </si>
-  <si>
     <t>կը տեսնիր</t>
   </si>
   <si>
-    <t>կ՚էլնիր</t>
-  </si>
-  <si>
     <t>կը թողնիր</t>
   </si>
   <si>
-    <t>կ՚ուտիր</t>
-  </si>
-  <si>
-    <t>կ՚անիր</t>
-  </si>
-  <si>
     <t>կը տանիր</t>
   </si>
   <si>
     <t>կը դնիր</t>
   </si>
   <si>
-    <t>կ՚էթայիր</t>
-  </si>
-  <si>
     <t>կը տայիր</t>
   </si>
   <si>
@@ -9703,9 +9466,6 @@
     <t>կը բերիր</t>
   </si>
   <si>
-    <t>կ՚ասիր</t>
-  </si>
-  <si>
     <t>կը դառնայիր</t>
   </si>
   <si>
@@ -9721,60 +9481,33 @@
     <t>կը երգէր</t>
   </si>
   <si>
-    <t>կ՚ուղարկէր</t>
-  </si>
-  <si>
     <t>կը կարդար</t>
   </si>
   <si>
     <t>կը ցանկանար</t>
   </si>
   <si>
-    <t>կ՚ուրախանար</t>
-  </si>
-  <si>
     <t>կը վերցնէր</t>
   </si>
   <si>
-    <t>կ՚ուրախացնէր</t>
-  </si>
-  <si>
     <t>կը մեռնէր</t>
   </si>
   <si>
-    <t>կ՚իջնէր</t>
-  </si>
-  <si>
     <t>կը փախնէր</t>
   </si>
   <si>
-    <t>կ՚առնէր</t>
-  </si>
-  <si>
     <t>կը տեսնէր</t>
   </si>
   <si>
-    <t>կ՚էլնէր</t>
-  </si>
-  <si>
     <t>կը թողնէր</t>
   </si>
   <si>
-    <t>կ՚ուտէր</t>
-  </si>
-  <si>
-    <t>կ՚անէր</t>
-  </si>
-  <si>
     <t>կը տանէր</t>
   </si>
   <si>
     <t>կը դնէր</t>
   </si>
   <si>
-    <t>կ՚էթար</t>
-  </si>
-  <si>
     <t>կը տար</t>
   </si>
   <si>
@@ -9784,9 +9517,6 @@
     <t>կը բերէր</t>
   </si>
   <si>
-    <t>կ՚ասէր</t>
-  </si>
-  <si>
     <t>կը դառնար</t>
   </si>
   <si>
@@ -9802,60 +9532,33 @@
     <t>կը երգինք</t>
   </si>
   <si>
-    <t>կ՚ուղարկինք</t>
-  </si>
-  <si>
     <t>կը կարդայինք</t>
   </si>
   <si>
     <t>կը ցանկանայինք</t>
   </si>
   <si>
-    <t>կ՚ուրախանայինք</t>
-  </si>
-  <si>
     <t>կը վերցնինք</t>
   </si>
   <si>
-    <t>կ՚ուրախացնինք</t>
-  </si>
-  <si>
     <t>կը մեռնինք</t>
   </si>
   <si>
-    <t>կ՚իջնինք</t>
-  </si>
-  <si>
     <t>կը փախնինք</t>
   </si>
   <si>
-    <t>կ՚առնինք</t>
-  </si>
-  <si>
     <t>կը տեսնինք</t>
   </si>
   <si>
-    <t>կ՚էլնինք</t>
-  </si>
-  <si>
     <t>կը թողնինք</t>
   </si>
   <si>
-    <t>կ՚ուտինք</t>
-  </si>
-  <si>
-    <t>կ՚անինք</t>
-  </si>
-  <si>
     <t>կը տանինք</t>
   </si>
   <si>
     <t>կը դնինք</t>
   </si>
   <si>
-    <t>կ՚էթայինք</t>
-  </si>
-  <si>
     <t>կը տայինք</t>
   </si>
   <si>
@@ -9865,9 +9568,6 @@
     <t>կը բերինք</t>
   </si>
   <si>
-    <t>կ՚ասինք</t>
-  </si>
-  <si>
     <t>կը դառնայինք</t>
   </si>
   <si>
@@ -9883,60 +9583,33 @@
     <t>կը երգիք</t>
   </si>
   <si>
-    <t>կ՚ուղարկիք</t>
-  </si>
-  <si>
     <t>կը կարդայիք</t>
   </si>
   <si>
     <t>կը ցանկանայիք</t>
   </si>
   <si>
-    <t>կ՚ուրախանայիք</t>
-  </si>
-  <si>
     <t>կը վերցնիք</t>
   </si>
   <si>
-    <t>կ՚ուրախացնիք</t>
-  </si>
-  <si>
     <t>կը մեռնիք</t>
   </si>
   <si>
-    <t>կ՚իջնիք</t>
-  </si>
-  <si>
     <t>կը փախնիք</t>
   </si>
   <si>
-    <t>կ՚առնիք</t>
-  </si>
-  <si>
     <t>կը տեսնիք</t>
   </si>
   <si>
-    <t>կ՚էլնիք</t>
-  </si>
-  <si>
     <t>կը թողնիք</t>
   </si>
   <si>
-    <t>կ՚ուտիք</t>
-  </si>
-  <si>
-    <t>կ՚անիք</t>
-  </si>
-  <si>
     <t>կը տանիք</t>
   </si>
   <si>
     <t>կը դնիք</t>
   </si>
   <si>
-    <t>կ՚էթայիք</t>
-  </si>
-  <si>
     <t>կը տայիք</t>
   </si>
   <si>
@@ -9946,9 +9619,6 @@
     <t>կը բերիք</t>
   </si>
   <si>
-    <t>կ՚ասիք</t>
-  </si>
-  <si>
     <t>կը դառնայիք</t>
   </si>
   <si>
@@ -9964,60 +9634,33 @@
     <t>կը երգին</t>
   </si>
   <si>
-    <t>կ՚ուղարկին</t>
-  </si>
-  <si>
     <t>կը կարդային</t>
   </si>
   <si>
     <t>կը ցանկանային</t>
   </si>
   <si>
-    <t>կ՚ուրախանային</t>
-  </si>
-  <si>
     <t>կը վերցնին</t>
   </si>
   <si>
-    <t>կ՚ուրախացնին</t>
-  </si>
-  <si>
     <t>կը մեռնին</t>
   </si>
   <si>
-    <t>կ՚իջնին</t>
-  </si>
-  <si>
     <t>կը փախնին</t>
   </si>
   <si>
-    <t>կ՚առնին</t>
-  </si>
-  <si>
     <t>կը տեսնին</t>
   </si>
   <si>
-    <t>կ՚էլնին</t>
-  </si>
-  <si>
     <t>կը թողնին</t>
   </si>
   <si>
-    <t>կ՚ուտին</t>
-  </si>
-  <si>
-    <t>կ՚անին</t>
-  </si>
-  <si>
     <t>կը տանին</t>
   </si>
   <si>
     <t>կը դնին</t>
   </si>
   <si>
-    <t>կ՚էթային</t>
-  </si>
-  <si>
     <t>կը տային</t>
   </si>
   <si>
@@ -10027,9 +9670,6 @@
     <t>կը բերին</t>
   </si>
   <si>
-    <t>կ՚ասին</t>
-  </si>
-  <si>
     <t>կը դառնային</t>
   </si>
   <si>
@@ -11756,6 +11396,366 @@
   </si>
   <si>
     <t>չեն դարձէ</t>
+  </si>
+  <si>
+    <t>կուղարկեմ</t>
+  </si>
+  <si>
+    <t>կուրախանամ</t>
+  </si>
+  <si>
+    <t>կուրախացնեմ</t>
+  </si>
+  <si>
+    <t>կիջնեմ</t>
+  </si>
+  <si>
+    <t>կառնեմ</t>
+  </si>
+  <si>
+    <t>կէլնեմ</t>
+  </si>
+  <si>
+    <t>կուտեմ</t>
+  </si>
+  <si>
+    <t>կանեմ</t>
+  </si>
+  <si>
+    <t>կէթամ</t>
+  </si>
+  <si>
+    <t>կասեմ</t>
+  </si>
+  <si>
+    <t>կուղարկես</t>
+  </si>
+  <si>
+    <t>կուրախանաս</t>
+  </si>
+  <si>
+    <t>կուրախացնես</t>
+  </si>
+  <si>
+    <t>կիջնես</t>
+  </si>
+  <si>
+    <t>կառնես</t>
+  </si>
+  <si>
+    <t>կէլնես</t>
+  </si>
+  <si>
+    <t>կուտես</t>
+  </si>
+  <si>
+    <t>կանես</t>
+  </si>
+  <si>
+    <t>կէթաս</t>
+  </si>
+  <si>
+    <t>կասես</t>
+  </si>
+  <si>
+    <t>կուղարկի</t>
+  </si>
+  <si>
+    <t>կուրախանայ</t>
+  </si>
+  <si>
+    <t>կուրախացնի</t>
+  </si>
+  <si>
+    <t>կիջնի</t>
+  </si>
+  <si>
+    <t>կառնի</t>
+  </si>
+  <si>
+    <t>կէլնի</t>
+  </si>
+  <si>
+    <t>կուտի</t>
+  </si>
+  <si>
+    <t>կանի</t>
+  </si>
+  <si>
+    <t>կէթայ</t>
+  </si>
+  <si>
+    <t>կասի</t>
+  </si>
+  <si>
+    <t>կուղարկենք</t>
+  </si>
+  <si>
+    <t>կուրախանանք</t>
+  </si>
+  <si>
+    <t>կուրախացնենք</t>
+  </si>
+  <si>
+    <t>կիջնենք</t>
+  </si>
+  <si>
+    <t>կառնենք</t>
+  </si>
+  <si>
+    <t>կէլնենք</t>
+  </si>
+  <si>
+    <t>կուտենք</t>
+  </si>
+  <si>
+    <t>կանենք</t>
+  </si>
+  <si>
+    <t>կէթանք</t>
+  </si>
+  <si>
+    <t>կասենք</t>
+  </si>
+  <si>
+    <t>կուղարկէք</t>
+  </si>
+  <si>
+    <t>կուրախանաք</t>
+  </si>
+  <si>
+    <t>կուրախացնէք</t>
+  </si>
+  <si>
+    <t>կիջնէք</t>
+  </si>
+  <si>
+    <t>կառնէք</t>
+  </si>
+  <si>
+    <t>կէլնէք</t>
+  </si>
+  <si>
+    <t>կուտէք</t>
+  </si>
+  <si>
+    <t>կանէք</t>
+  </si>
+  <si>
+    <t>կէթաք</t>
+  </si>
+  <si>
+    <t>կասէք</t>
+  </si>
+  <si>
+    <t>կուղարկեն</t>
+  </si>
+  <si>
+    <t>կուրախանան</t>
+  </si>
+  <si>
+    <t>կուրախացնեն</t>
+  </si>
+  <si>
+    <t>կիջնեն</t>
+  </si>
+  <si>
+    <t>կառնեն</t>
+  </si>
+  <si>
+    <t>կէլնեն</t>
+  </si>
+  <si>
+    <t>կուտեն</t>
+  </si>
+  <si>
+    <t>կանեն</t>
+  </si>
+  <si>
+    <t>կէթան</t>
+  </si>
+  <si>
+    <t>կասեն</t>
+  </si>
+  <si>
+    <t>կուղարկիմ</t>
+  </si>
+  <si>
+    <t>կուրախանայիմ</t>
+  </si>
+  <si>
+    <t>կուրախացնիմ</t>
+  </si>
+  <si>
+    <t>կիջնիմ</t>
+  </si>
+  <si>
+    <t>կառնիմ</t>
+  </si>
+  <si>
+    <t>կէլնիմ</t>
+  </si>
+  <si>
+    <t>կուտիմ</t>
+  </si>
+  <si>
+    <t>կանիմ</t>
+  </si>
+  <si>
+    <t>կէթայիմ</t>
+  </si>
+  <si>
+    <t>կասիմ</t>
+  </si>
+  <si>
+    <t>կուղարկիր</t>
+  </si>
+  <si>
+    <t>կուրախանայիր</t>
+  </si>
+  <si>
+    <t>կուրախացնիր</t>
+  </si>
+  <si>
+    <t>կիջնիր</t>
+  </si>
+  <si>
+    <t>կառնիր</t>
+  </si>
+  <si>
+    <t>կէլնիր</t>
+  </si>
+  <si>
+    <t>կուտիր</t>
+  </si>
+  <si>
+    <t>կանիր</t>
+  </si>
+  <si>
+    <t>կէթայիր</t>
+  </si>
+  <si>
+    <t>կասիր</t>
+  </si>
+  <si>
+    <t>կուղարկէր</t>
+  </si>
+  <si>
+    <t>կուրախանար</t>
+  </si>
+  <si>
+    <t>կուրախացնէր</t>
+  </si>
+  <si>
+    <t>կիջնէր</t>
+  </si>
+  <si>
+    <t>կառնէր</t>
+  </si>
+  <si>
+    <t>կէլնէր</t>
+  </si>
+  <si>
+    <t>կուտէր</t>
+  </si>
+  <si>
+    <t>կանէր</t>
+  </si>
+  <si>
+    <t>կէթար</t>
+  </si>
+  <si>
+    <t>կասէր</t>
+  </si>
+  <si>
+    <t>կուղարկինք</t>
+  </si>
+  <si>
+    <t>կուրախանայինք</t>
+  </si>
+  <si>
+    <t>կուրախացնինք</t>
+  </si>
+  <si>
+    <t>կիջնինք</t>
+  </si>
+  <si>
+    <t>կառնինք</t>
+  </si>
+  <si>
+    <t>կէլնինք</t>
+  </si>
+  <si>
+    <t>կուտինք</t>
+  </si>
+  <si>
+    <t>կանինք</t>
+  </si>
+  <si>
+    <t>կէթայինք</t>
+  </si>
+  <si>
+    <t>կասինք</t>
+  </si>
+  <si>
+    <t>կուղարկիք</t>
+  </si>
+  <si>
+    <t>կուրախանայիք</t>
+  </si>
+  <si>
+    <t>կուրախացնիք</t>
+  </si>
+  <si>
+    <t>կիջնիք</t>
+  </si>
+  <si>
+    <t>կառնիք</t>
+  </si>
+  <si>
+    <t>կէլնիք</t>
+  </si>
+  <si>
+    <t>կուտիք</t>
+  </si>
+  <si>
+    <t>կանիք</t>
+  </si>
+  <si>
+    <t>կէթայիք</t>
+  </si>
+  <si>
+    <t>կասիք</t>
+  </si>
+  <si>
+    <t>կուղարկին</t>
+  </si>
+  <si>
+    <t>կուրախանային</t>
+  </si>
+  <si>
+    <t>կուրախացնին</t>
+  </si>
+  <si>
+    <t>կիջնին</t>
+  </si>
+  <si>
+    <t>կառնին</t>
+  </si>
+  <si>
+    <t>կէլնին</t>
+  </si>
+  <si>
+    <t>կուտին</t>
+  </si>
+  <si>
+    <t>կանին</t>
+  </si>
+  <si>
+    <t>կէթային</t>
+  </si>
+  <si>
+    <t>կասին</t>
   </si>
 </sst>
 </file>
@@ -12116,8 +12116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8E2D0E-8979-4D45-B6AA-714C5ED83DA1}">
   <dimension ref="A1:AC152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O69" workbookViewId="0">
-      <selection activeCell="C76" activeCellId="1" sqref="A83:XFD88 A71:XFD76"/>
+    <sheetView tabSelected="1" topLeftCell="P126" workbookViewId="0">
+      <selection activeCell="Z142" sqref="Z142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18135,84 +18135,84 @@
         <v>1806</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3595</v>
+        <v>3475</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>3493</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>3505</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>3517</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>3529</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>3541</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>3553</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>3565</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>3577</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>3589</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>3601</v>
+      </c>
+      <c r="M71" s="1" t="s">
         <v>3613</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="N71" s="1" t="s">
         <v>3625</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="O71" s="1" t="s">
         <v>3637</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="P71" s="1" t="s">
         <v>3649</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>3661</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>3673</v>
-      </c>
-      <c r="I71" s="1" t="s">
+      <c r="Q71" s="1" t="s">
+        <v>3667</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>3668</v>
+      </c>
+      <c r="S71" s="1" t="s">
         <v>3685</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="T71" s="1" t="s">
         <v>3697</v>
       </c>
-      <c r="K71" s="1" t="s">
+      <c r="U71" s="1" t="s">
         <v>3709</v>
       </c>
-      <c r="L71" s="1" t="s">
+      <c r="V71" s="1" t="s">
         <v>3721</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>3733</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>3745</v>
-      </c>
-      <c r="O71" s="1" t="s">
-        <v>3757</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>3769</v>
-      </c>
-      <c r="Q71" s="1" t="s">
-        <v>3787</v>
-      </c>
-      <c r="R71" s="1" t="s">
-        <v>3788</v>
-      </c>
-      <c r="S71" s="1" t="s">
-        <v>3805</v>
-      </c>
-      <c r="T71" s="1" t="s">
-        <v>3817</v>
-      </c>
-      <c r="U71" s="1" t="s">
-        <v>3829</v>
-      </c>
-      <c r="V71" s="1" t="s">
-        <v>3841</v>
       </c>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1" t="s">
-        <v>3853</v>
+        <v>3733</v>
       </c>
       <c r="Z71" s="1" t="s">
-        <v>3865</v>
+        <v>3745</v>
       </c>
       <c r="AA71" s="1" t="s">
-        <v>3901</v>
+        <v>3781</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>3883</v>
+        <v>3763</v>
       </c>
       <c r="AC71" s="1" t="s">
-        <v>3884</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
@@ -18220,84 +18220,84 @@
         <v>1807</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3596</v>
+        <v>3476</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>3494</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>3506</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>3518</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>3530</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>3542</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>3554</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>3578</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>3590</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>3602</v>
+      </c>
+      <c r="M72" s="1" t="s">
         <v>3614</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="N72" s="1" t="s">
         <v>3626</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="O72" s="1" t="s">
         <v>3638</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="P72" s="1" t="s">
         <v>3650</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>3662</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>3674</v>
-      </c>
-      <c r="I72" s="1" t="s">
+      <c r="Q72" s="1" t="s">
+        <v>3669</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="S72" s="1" t="s">
         <v>3686</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="T72" s="1" t="s">
         <v>3698</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="U72" s="1" t="s">
         <v>3710</v>
       </c>
-      <c r="L72" s="1" t="s">
+      <c r="V72" s="1" t="s">
         <v>3722</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>3734</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>3746</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>3758</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>3770</v>
-      </c>
-      <c r="Q72" s="1" t="s">
-        <v>3789</v>
-      </c>
-      <c r="R72" s="1" t="s">
-        <v>3790</v>
-      </c>
-      <c r="S72" s="1" t="s">
-        <v>3806</v>
-      </c>
-      <c r="T72" s="1" t="s">
-        <v>3818</v>
-      </c>
-      <c r="U72" s="1" t="s">
-        <v>3830</v>
-      </c>
-      <c r="V72" s="1" t="s">
-        <v>3842</v>
       </c>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
       <c r="Y72" s="1" t="s">
-        <v>3854</v>
+        <v>3734</v>
       </c>
       <c r="Z72" s="1" t="s">
-        <v>3866</v>
+        <v>3746</v>
       </c>
       <c r="AA72" s="1" t="s">
-        <v>3902</v>
+        <v>3782</v>
       </c>
       <c r="AB72" s="1" t="s">
-        <v>3885</v>
+        <v>3765</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>3886</v>
+        <v>3766</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
@@ -18305,84 +18305,84 @@
         <v>1808</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>3597</v>
+        <v>3477</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>3495</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>3507</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>3519</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>3531</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>3543</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>3555</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>3567</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>3579</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>3591</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>3603</v>
+      </c>
+      <c r="M73" s="1" t="s">
         <v>3615</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="N73" s="1" t="s">
         <v>3627</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="O73" s="1" t="s">
         <v>3639</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="P73" s="1" t="s">
         <v>3651</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>3663</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>3675</v>
-      </c>
-      <c r="I73" s="1" t="s">
+      <c r="Q73" s="1" t="s">
+        <v>3671</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="S73" s="1" t="s">
         <v>3687</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="T73" s="1" t="s">
         <v>3699</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="U73" s="1" t="s">
         <v>3711</v>
       </c>
-      <c r="L73" s="1" t="s">
+      <c r="V73" s="1" t="s">
         <v>3723</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>3735</v>
-      </c>
-      <c r="N73" s="1" t="s">
-        <v>3747</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>3759</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>3771</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>3791</v>
-      </c>
-      <c r="R73" s="1" t="s">
-        <v>3792</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>3807</v>
-      </c>
-      <c r="T73" s="1" t="s">
-        <v>3819</v>
-      </c>
-      <c r="U73" s="1" t="s">
-        <v>3831</v>
-      </c>
-      <c r="V73" s="1" t="s">
-        <v>3843</v>
       </c>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1" t="s">
-        <v>3855</v>
+        <v>3735</v>
       </c>
       <c r="Z73" s="1" t="s">
-        <v>3867</v>
+        <v>3747</v>
       </c>
       <c r="AA73" s="1" t="s">
-        <v>3903</v>
+        <v>3783</v>
       </c>
       <c r="AB73" s="1" t="s">
-        <v>3887</v>
+        <v>3767</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>3888</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
@@ -18390,84 +18390,84 @@
         <v>1809</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>3598</v>
+        <v>3478</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>3496</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>3520</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>3532</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>3544</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>3556</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>3568</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>3580</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>3592</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>3604</v>
+      </c>
+      <c r="M74" s="1" t="s">
         <v>3616</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="N74" s="1" t="s">
         <v>3628</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="O74" s="1" t="s">
         <v>3640</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="P74" s="1" t="s">
         <v>3652</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>3664</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>3676</v>
-      </c>
-      <c r="I74" s="1" t="s">
+      <c r="Q74" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="S74" s="1" t="s">
         <v>3688</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="T74" s="1" t="s">
         <v>3700</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="U74" s="1" t="s">
         <v>3712</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="V74" s="1" t="s">
         <v>3724</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>3736</v>
-      </c>
-      <c r="N74" s="1" t="s">
-        <v>3748</v>
-      </c>
-      <c r="O74" s="1" t="s">
-        <v>3760</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>3772</v>
-      </c>
-      <c r="Q74" s="1" t="s">
-        <v>3793</v>
-      </c>
-      <c r="R74" s="1" t="s">
-        <v>3794</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>3808</v>
-      </c>
-      <c r="T74" s="1" t="s">
-        <v>3820</v>
-      </c>
-      <c r="U74" s="1" t="s">
-        <v>3832</v>
-      </c>
-      <c r="V74" s="1" t="s">
-        <v>3844</v>
       </c>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1" t="s">
-        <v>3856</v>
+        <v>3736</v>
       </c>
       <c r="Z74" s="1" t="s">
-        <v>3868</v>
+        <v>3748</v>
       </c>
       <c r="AA74" s="1" t="s">
-        <v>3904</v>
+        <v>3784</v>
       </c>
       <c r="AB74" s="1" t="s">
-        <v>3889</v>
+        <v>3769</v>
       </c>
       <c r="AC74" s="1" t="s">
-        <v>3890</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
@@ -18475,84 +18475,84 @@
         <v>1810</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>3599</v>
+        <v>3479</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>3497</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>3509</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>3521</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>3533</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>3545</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>3557</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>3569</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>3581</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>3593</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>3605</v>
+      </c>
+      <c r="M75" s="1" t="s">
         <v>3617</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="N75" s="1" t="s">
         <v>3629</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="O75" s="1" t="s">
         <v>3641</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="P75" s="1" t="s">
         <v>3653</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>3665</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>3677</v>
-      </c>
-      <c r="I75" s="1" t="s">
+      <c r="Q75" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="S75" s="1" t="s">
         <v>3689</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="T75" s="1" t="s">
         <v>3701</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="U75" s="1" t="s">
         <v>3713</v>
       </c>
-      <c r="L75" s="1" t="s">
+      <c r="V75" s="1" t="s">
         <v>3725</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>3737</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>3749</v>
-      </c>
-      <c r="O75" s="1" t="s">
-        <v>3761</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>3773</v>
-      </c>
-      <c r="Q75" s="1" t="s">
-        <v>3795</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>3796</v>
-      </c>
-      <c r="S75" s="1" t="s">
-        <v>3809</v>
-      </c>
-      <c r="T75" s="1" t="s">
-        <v>3821</v>
-      </c>
-      <c r="U75" s="1" t="s">
-        <v>3833</v>
-      </c>
-      <c r="V75" s="1" t="s">
-        <v>3845</v>
       </c>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1" t="s">
-        <v>3857</v>
+        <v>3737</v>
       </c>
       <c r="Z75" s="1" t="s">
-        <v>3869</v>
+        <v>3749</v>
       </c>
       <c r="AA75" s="1" t="s">
-        <v>3905</v>
+        <v>3785</v>
       </c>
       <c r="AB75" s="1" t="s">
-        <v>3891</v>
+        <v>3771</v>
       </c>
       <c r="AC75" s="1" t="s">
-        <v>3892</v>
+        <v>3772</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
@@ -18560,84 +18560,84 @@
         <v>1811</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3600</v>
+        <v>3480</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>3498</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>3510</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>3522</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>3534</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>3546</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>3558</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>3570</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>3582</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>3594</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>3606</v>
+      </c>
+      <c r="M76" s="1" t="s">
         <v>3618</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="N76" s="1" t="s">
         <v>3630</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="O76" s="1" t="s">
         <v>3642</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="P76" s="1" t="s">
         <v>3654</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>3666</v>
-      </c>
-      <c r="H76" s="1" t="s">
+      <c r="Q76" s="1" t="s">
+        <v>3677</v>
+      </c>
+      <c r="R76" s="1" t="s">
         <v>3678</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="S76" s="1" t="s">
         <v>3690</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="T76" s="1" t="s">
         <v>3702</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="U76" s="1" t="s">
         <v>3714</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="V76" s="1" t="s">
         <v>3726</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>3738</v>
-      </c>
-      <c r="N76" s="1" t="s">
-        <v>3750</v>
-      </c>
-      <c r="O76" s="1" t="s">
-        <v>3762</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>3774</v>
-      </c>
-      <c r="Q76" s="1" t="s">
-        <v>3797</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>3798</v>
-      </c>
-      <c r="S76" s="1" t="s">
-        <v>3810</v>
-      </c>
-      <c r="T76" s="1" t="s">
-        <v>3822</v>
-      </c>
-      <c r="U76" s="1" t="s">
-        <v>3834</v>
-      </c>
-      <c r="V76" s="1" t="s">
-        <v>3846</v>
       </c>
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1" t="s">
-        <v>3858</v>
+        <v>3738</v>
       </c>
       <c r="Z76" s="1" t="s">
-        <v>3870</v>
+        <v>3750</v>
       </c>
       <c r="AA76" s="1" t="s">
-        <v>3906</v>
+        <v>3786</v>
       </c>
       <c r="AB76" s="1" t="s">
-        <v>3893</v>
+        <v>3773</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>3894</v>
+        <v>3774</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
@@ -19155,84 +19155,84 @@
         <v>1896</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>3601</v>
+        <v>3481</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>3487</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>3499</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>3511</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>3523</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>3535</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>3547</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>3559</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>3571</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>3583</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>3595</v>
+      </c>
+      <c r="M83" s="1" t="s">
         <v>3607</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="N83" s="1" t="s">
         <v>3619</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="O83" s="1" t="s">
         <v>3631</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="P83" s="1" t="s">
         <v>3643</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="Q83" s="1" t="s">
         <v>3655</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>3667</v>
-      </c>
-      <c r="I83" s="1" t="s">
+      <c r="R83" s="1" t="s">
+        <v>3656</v>
+      </c>
+      <c r="S83" s="1" t="s">
         <v>3679</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="T83" s="1" t="s">
         <v>3691</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="U83" s="1" t="s">
         <v>3703</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="V83" s="1" t="s">
         <v>3715</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>3727</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>3739</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>3751</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>3763</v>
-      </c>
-      <c r="Q83" s="1" t="s">
-        <v>3775</v>
-      </c>
-      <c r="R83" s="1" t="s">
-        <v>3776</v>
-      </c>
-      <c r="S83" s="1" t="s">
-        <v>3799</v>
-      </c>
-      <c r="T83" s="1" t="s">
-        <v>3811</v>
-      </c>
-      <c r="U83" s="1" t="s">
-        <v>3823</v>
-      </c>
-      <c r="V83" s="1" t="s">
-        <v>3835</v>
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
       <c r="Y83" s="1" t="s">
-        <v>3847</v>
+        <v>3727</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>3859</v>
+        <v>3739</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>3895</v>
+        <v>3775</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>3871</v>
+        <v>3751</v>
       </c>
       <c r="AC83" s="1" t="s">
-        <v>3872</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.2">
@@ -19240,84 +19240,84 @@
         <v>1897</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3602</v>
+        <v>3482</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>3500</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>3512</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>3524</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>3536</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>3548</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>3560</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>3572</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>3584</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>3596</v>
+      </c>
+      <c r="M84" s="1" t="s">
         <v>3608</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="N84" s="1" t="s">
         <v>3620</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="O84" s="1" t="s">
         <v>3632</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="P84" s="1" t="s">
         <v>3644</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>3656</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>3668</v>
-      </c>
-      <c r="I84" s="1" t="s">
+      <c r="Q84" s="1" t="s">
+        <v>3657</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>3658</v>
+      </c>
+      <c r="S84" s="1" t="s">
         <v>3680</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="T84" s="1" t="s">
         <v>3692</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="U84" s="1" t="s">
         <v>3704</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="V84" s="1" t="s">
         <v>3716</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>3728</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>3740</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>3752</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>3764</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>3777</v>
-      </c>
-      <c r="R84" s="1" t="s">
-        <v>3778</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>3800</v>
-      </c>
-      <c r="T84" s="1" t="s">
-        <v>3812</v>
-      </c>
-      <c r="U84" s="1" t="s">
-        <v>3824</v>
-      </c>
-      <c r="V84" s="1" t="s">
-        <v>3836</v>
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
       <c r="Y84" s="1" t="s">
-        <v>3848</v>
+        <v>3728</v>
       </c>
       <c r="Z84" s="1" t="s">
-        <v>3860</v>
+        <v>3740</v>
       </c>
       <c r="AA84" s="1" t="s">
-        <v>3896</v>
+        <v>3776</v>
       </c>
       <c r="AB84" s="1" t="s">
-        <v>3873</v>
+        <v>3753</v>
       </c>
       <c r="AC84" s="1" t="s">
-        <v>3874</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.2">
@@ -19325,84 +19325,84 @@
         <v>1898</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3603</v>
+        <v>3483</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>3489</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>3501</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>3513</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>3525</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>3537</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>3549</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>3561</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>3573</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>3597</v>
+      </c>
+      <c r="M85" s="1" t="s">
         <v>3609</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="N85" s="1" t="s">
         <v>3621</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="O85" s="1" t="s">
         <v>3633</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="P85" s="1" t="s">
         <v>3645</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>3657</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>3669</v>
-      </c>
-      <c r="I85" s="1" t="s">
+      <c r="Q85" s="1" t="s">
+        <v>3659</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>3660</v>
+      </c>
+      <c r="S85" s="1" t="s">
         <v>3681</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="T85" s="1" t="s">
         <v>3693</v>
       </c>
-      <c r="K85" s="1" t="s">
+      <c r="U85" s="1" t="s">
         <v>3705</v>
       </c>
-      <c r="L85" s="1" t="s">
+      <c r="V85" s="1" t="s">
         <v>3717</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>3729</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>3741</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>3753</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>3765</v>
-      </c>
-      <c r="Q85" s="1" t="s">
-        <v>3779</v>
-      </c>
-      <c r="R85" s="1" t="s">
-        <v>3780</v>
-      </c>
-      <c r="S85" s="1" t="s">
-        <v>3801</v>
-      </c>
-      <c r="T85" s="1" t="s">
-        <v>3813</v>
-      </c>
-      <c r="U85" s="1" t="s">
-        <v>3825</v>
-      </c>
-      <c r="V85" s="1" t="s">
-        <v>3837</v>
       </c>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
       <c r="Y85" s="1" t="s">
-        <v>3849</v>
+        <v>3729</v>
       </c>
       <c r="Z85" s="1" t="s">
-        <v>3861</v>
+        <v>3741</v>
       </c>
       <c r="AA85" s="1" t="s">
-        <v>3897</v>
+        <v>3777</v>
       </c>
       <c r="AB85" s="1" t="s">
-        <v>3875</v>
+        <v>3755</v>
       </c>
       <c r="AC85" s="1" t="s">
-        <v>3876</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.2">
@@ -19410,84 +19410,84 @@
         <v>1899</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>3604</v>
+        <v>3484</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>3490</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>3502</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>3514</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>3526</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>3538</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>3550</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>3562</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>3574</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>3586</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>3598</v>
+      </c>
+      <c r="M86" s="1" t="s">
         <v>3610</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="N86" s="1" t="s">
         <v>3622</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="O86" s="1" t="s">
         <v>3634</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="P86" s="1" t="s">
         <v>3646</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>3658</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>3670</v>
-      </c>
-      <c r="I86" s="1" t="s">
+      <c r="Q86" s="1" t="s">
+        <v>3661</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>3662</v>
+      </c>
+      <c r="S86" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="T86" s="1" t="s">
         <v>3694</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="U86" s="1" t="s">
         <v>3706</v>
       </c>
-      <c r="L86" s="1" t="s">
+      <c r="V86" s="1" t="s">
         <v>3718</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>3730</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>3742</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>3754</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>3766</v>
-      </c>
-      <c r="Q86" s="1" t="s">
-        <v>3781</v>
-      </c>
-      <c r="R86" s="1" t="s">
-        <v>3782</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>3802</v>
-      </c>
-      <c r="T86" s="1" t="s">
-        <v>3814</v>
-      </c>
-      <c r="U86" s="1" t="s">
-        <v>3826</v>
-      </c>
-      <c r="V86" s="1" t="s">
-        <v>3838</v>
       </c>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
       <c r="Y86" s="1" t="s">
-        <v>3850</v>
+        <v>3730</v>
       </c>
       <c r="Z86" s="1" t="s">
-        <v>3862</v>
+        <v>3742</v>
       </c>
       <c r="AA86" s="1" t="s">
-        <v>3898</v>
+        <v>3778</v>
       </c>
       <c r="AB86" s="1" t="s">
-        <v>3877</v>
+        <v>3757</v>
       </c>
       <c r="AC86" s="1" t="s">
-        <v>3878</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.2">
@@ -19495,84 +19495,84 @@
         <v>1900</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>3605</v>
+        <v>3485</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>3491</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>3503</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>3515</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>3527</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>3539</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>3551</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>3563</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>3575</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>3587</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>3599</v>
+      </c>
+      <c r="M87" s="1" t="s">
         <v>3611</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="N87" s="1" t="s">
         <v>3623</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="O87" s="1" t="s">
         <v>3635</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="P87" s="1" t="s">
         <v>3647</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>3659</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>3671</v>
-      </c>
-      <c r="I87" s="1" t="s">
+      <c r="Q87" s="1" t="s">
+        <v>3663</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>3664</v>
+      </c>
+      <c r="S87" s="1" t="s">
         <v>3683</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="T87" s="1" t="s">
         <v>3695</v>
       </c>
-      <c r="K87" s="1" t="s">
+      <c r="U87" s="1" t="s">
         <v>3707</v>
       </c>
-      <c r="L87" s="1" t="s">
+      <c r="V87" s="1" t="s">
         <v>3719</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>3731</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>3743</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>3755</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>3767</v>
-      </c>
-      <c r="Q87" s="1" t="s">
-        <v>3783</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>3784</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>3803</v>
-      </c>
-      <c r="T87" s="1" t="s">
-        <v>3815</v>
-      </c>
-      <c r="U87" s="1" t="s">
-        <v>3827</v>
-      </c>
-      <c r="V87" s="1" t="s">
-        <v>3839</v>
       </c>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
       <c r="Y87" s="1" t="s">
-        <v>3851</v>
+        <v>3731</v>
       </c>
       <c r="Z87" s="1" t="s">
-        <v>3863</v>
+        <v>3743</v>
       </c>
       <c r="AA87" s="1" t="s">
-        <v>3899</v>
+        <v>3779</v>
       </c>
       <c r="AB87" s="1" t="s">
-        <v>3879</v>
+        <v>3759</v>
       </c>
       <c r="AC87" s="1" t="s">
-        <v>3880</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.2">
@@ -19580,84 +19580,84 @@
         <v>1901</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>3606</v>
+        <v>3486</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>3504</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>3516</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>3528</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>3540</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>3552</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>3564</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>3576</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>3588</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>3600</v>
+      </c>
+      <c r="M88" s="1" t="s">
         <v>3612</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="N88" s="1" t="s">
         <v>3624</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="O88" s="1" t="s">
         <v>3636</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="P88" s="1" t="s">
         <v>3648</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>3660</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>3672</v>
-      </c>
-      <c r="I88" s="1" t="s">
+      <c r="Q88" s="1" t="s">
+        <v>3665</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>3666</v>
+      </c>
+      <c r="S88" s="1" t="s">
         <v>3684</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="T88" s="1" t="s">
         <v>3696</v>
       </c>
-      <c r="K88" s="1" t="s">
+      <c r="U88" s="1" t="s">
         <v>3708</v>
       </c>
-      <c r="L88" s="1" t="s">
+      <c r="V88" s="1" t="s">
         <v>3720</v>
-      </c>
-      <c r="M88" s="1" t="s">
-        <v>3732</v>
-      </c>
-      <c r="N88" s="1" t="s">
-        <v>3744</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>3756</v>
-      </c>
-      <c r="P88" s="1" t="s">
-        <v>3768</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>3785</v>
-      </c>
-      <c r="R88" s="1" t="s">
-        <v>3786</v>
-      </c>
-      <c r="S88" s="1" t="s">
-        <v>3804</v>
-      </c>
-      <c r="T88" s="1" t="s">
-        <v>3816</v>
-      </c>
-      <c r="U88" s="1" t="s">
-        <v>3828</v>
-      </c>
-      <c r="V88" s="1" t="s">
-        <v>3840</v>
       </c>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
       <c r="Y88" s="1" t="s">
-        <v>3852</v>
+        <v>3732</v>
       </c>
       <c r="Z88" s="1" t="s">
-        <v>3864</v>
+        <v>3744</v>
       </c>
       <c r="AA88" s="1" t="s">
-        <v>3900</v>
+        <v>3780</v>
       </c>
       <c r="AB88" s="1" t="s">
-        <v>3881</v>
+        <v>3761</v>
       </c>
       <c r="AC88" s="1" t="s">
-        <v>3882</v>
+        <v>3762</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.2">
@@ -22728,2041 +22728,2041 @@
         <v>2849</v>
       </c>
       <c r="C125" s="1" t="s">
+        <v>3787</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>2850</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" s="1" t="s">
         <v>2851</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="F125" s="1" t="s">
+        <v>3788</v>
+      </c>
+      <c r="G125" s="1" t="s">
         <v>2852</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="H125" s="1" t="s">
+        <v>3789</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>2853</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="J125" s="1" t="s">
+        <v>3790</v>
+      </c>
+      <c r="K125" s="1" t="s">
         <v>2854</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="L125" s="1" t="s">
+        <v>3791</v>
+      </c>
+      <c r="M125" s="1" t="s">
         <v>2855</v>
       </c>
-      <c r="I125" s="1" t="s">
+      <c r="N125" s="1" t="s">
+        <v>3792</v>
+      </c>
+      <c r="O125" s="1" t="s">
         <v>2856</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="P125" s="1" t="s">
+        <v>3793</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>3794</v>
+      </c>
+      <c r="R125" s="1" t="s">
         <v>2857</v>
       </c>
-      <c r="K125" s="1" t="s">
+      <c r="S125" s="1" t="s">
         <v>2858</v>
       </c>
-      <c r="L125" s="1" t="s">
+      <c r="T125" s="1" t="s">
+        <v>3795</v>
+      </c>
+      <c r="U125" s="1" t="s">
         <v>2859</v>
       </c>
-      <c r="M125" s="1" t="s">
+      <c r="V125" s="1" t="s">
         <v>2860</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>2861</v>
-      </c>
-      <c r="O125" s="1" t="s">
-        <v>2862</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>2863</v>
-      </c>
-      <c r="Q125" s="1" t="s">
-        <v>2864</v>
-      </c>
-      <c r="R125" s="1" t="s">
-        <v>2865</v>
-      </c>
-      <c r="S125" s="1" t="s">
-        <v>2866</v>
-      </c>
-      <c r="T125" s="1" t="s">
-        <v>2867</v>
-      </c>
-      <c r="U125" s="1" t="s">
-        <v>2868</v>
-      </c>
-      <c r="V125" s="1" t="s">
-        <v>2869</v>
       </c>
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
       <c r="Y125" s="1" t="s">
-        <v>2870</v>
+        <v>2861</v>
       </c>
       <c r="Z125" s="1" t="s">
-        <v>2871</v>
+        <v>3796</v>
       </c>
       <c r="AA125" s="1" t="s">
-        <v>2872</v>
+        <v>2862</v>
       </c>
       <c r="AB125" s="1" t="s">
-        <v>2873</v>
+        <v>2863</v>
       </c>
       <c r="AC125" s="1" t="s">
-        <v>2874</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>3797</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>2867</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>2868</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>3798</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>3799</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>2870</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>3800</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>3801</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>3802</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>2873</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>3803</v>
+      </c>
+      <c r="Q126" s="1" t="s">
+        <v>3804</v>
+      </c>
+      <c r="R126" s="1" t="s">
+        <v>2874</v>
+      </c>
+      <c r="S126" s="1" t="s">
         <v>2875</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="T126" s="1" t="s">
+        <v>3805</v>
+      </c>
+      <c r="U126" s="1" t="s">
         <v>2876</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="V126" s="1" t="s">
         <v>2877</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>2878</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>2879</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>2880</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>2881</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>2882</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>2883</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>2884</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>2885</v>
-      </c>
-      <c r="L126" s="1" t="s">
-        <v>2886</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>2887</v>
-      </c>
-      <c r="N126" s="1" t="s">
-        <v>2888</v>
-      </c>
-      <c r="O126" s="1" t="s">
-        <v>2889</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>2890</v>
-      </c>
-      <c r="Q126" s="1" t="s">
-        <v>2891</v>
-      </c>
-      <c r="R126" s="1" t="s">
-        <v>2892</v>
-      </c>
-      <c r="S126" s="1" t="s">
-        <v>2893</v>
-      </c>
-      <c r="T126" s="1" t="s">
-        <v>2894</v>
-      </c>
-      <c r="U126" s="1" t="s">
-        <v>2895</v>
-      </c>
-      <c r="V126" s="1" t="s">
-        <v>2896</v>
       </c>
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
       <c r="Y126" s="1" t="s">
-        <v>2897</v>
+        <v>2878</v>
       </c>
       <c r="Z126" s="1" t="s">
-        <v>2898</v>
+        <v>3806</v>
       </c>
       <c r="AA126" s="1" t="s">
-        <v>2899</v>
+        <v>2879</v>
       </c>
       <c r="AB126" s="1" t="s">
-        <v>2900</v>
+        <v>2880</v>
       </c>
       <c r="AC126" s="1" t="s">
-        <v>2901</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>2902</v>
+        <v>2882</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>2903</v>
+        <v>2883</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>2904</v>
+        <v>3807</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>2905</v>
+        <v>2884</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>2906</v>
+        <v>2885</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>2907</v>
+        <v>3808</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>2908</v>
+        <v>2886</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>2909</v>
+        <v>3809</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>2910</v>
+        <v>2887</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>2911</v>
+        <v>3810</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>2912</v>
+        <v>2888</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>2913</v>
+        <v>3811</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>2914</v>
+        <v>2889</v>
       </c>
       <c r="N127" s="1" t="s">
-        <v>2915</v>
+        <v>3812</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>2916</v>
+        <v>2890</v>
       </c>
       <c r="P127" s="1" t="s">
-        <v>2917</v>
+        <v>3813</v>
       </c>
       <c r="Q127" s="1" t="s">
-        <v>2918</v>
+        <v>3814</v>
       </c>
       <c r="R127" s="1" t="s">
-        <v>2919</v>
+        <v>2891</v>
       </c>
       <c r="S127" s="1" t="s">
-        <v>2920</v>
+        <v>2892</v>
       </c>
       <c r="T127" s="1" t="s">
-        <v>2921</v>
+        <v>3815</v>
       </c>
       <c r="U127" s="1" t="s">
-        <v>2922</v>
+        <v>2893</v>
       </c>
       <c r="V127" s="1" t="s">
-        <v>2923</v>
+        <v>2894</v>
       </c>
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
       <c r="Y127" s="1" t="s">
-        <v>2924</v>
+        <v>2895</v>
       </c>
       <c r="Z127" s="1" t="s">
-        <v>2925</v>
+        <v>3816</v>
       </c>
       <c r="AA127" s="1" t="s">
-        <v>2926</v>
+        <v>2896</v>
       </c>
       <c r="AB127" s="1" t="s">
-        <v>2927</v>
+        <v>2897</v>
       </c>
       <c r="AC127" s="1" t="s">
-        <v>2928</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>2929</v>
+        <v>2899</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>2930</v>
+        <v>2900</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>2931</v>
+        <v>3817</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>2932</v>
+        <v>2901</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>2933</v>
+        <v>2902</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>2934</v>
+        <v>3818</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>2935</v>
+        <v>2903</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>2936</v>
+        <v>3819</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>2937</v>
+        <v>2904</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>2938</v>
+        <v>3820</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>2939</v>
+        <v>2905</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>2940</v>
+        <v>3821</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>2941</v>
+        <v>2906</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>2942</v>
+        <v>3822</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>2943</v>
+        <v>2907</v>
       </c>
       <c r="P128" s="1" t="s">
-        <v>2944</v>
+        <v>3823</v>
       </c>
       <c r="Q128" s="1" t="s">
-        <v>2945</v>
+        <v>3824</v>
       </c>
       <c r="R128" s="1" t="s">
-        <v>2946</v>
+        <v>2908</v>
       </c>
       <c r="S128" s="1" t="s">
-        <v>2947</v>
+        <v>2909</v>
       </c>
       <c r="T128" s="1" t="s">
-        <v>2948</v>
+        <v>3825</v>
       </c>
       <c r="U128" s="1" t="s">
-        <v>2949</v>
+        <v>2910</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>2950</v>
+        <v>2911</v>
       </c>
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
       <c r="Y128" s="1" t="s">
-        <v>2951</v>
+        <v>2912</v>
       </c>
       <c r="Z128" s="1" t="s">
-        <v>2952</v>
+        <v>3826</v>
       </c>
       <c r="AA128" s="1" t="s">
-        <v>2953</v>
+        <v>2913</v>
       </c>
       <c r="AB128" s="1" t="s">
-        <v>2954</v>
+        <v>2914</v>
       </c>
       <c r="AC128" s="1" t="s">
-        <v>2955</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>2956</v>
+        <v>2916</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>2957</v>
+        <v>2917</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>2958</v>
+        <v>3827</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>2959</v>
+        <v>2918</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>2960</v>
+        <v>2919</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>2961</v>
+        <v>3828</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>2962</v>
+        <v>2920</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>2963</v>
+        <v>3829</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>2964</v>
+        <v>2921</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>2965</v>
+        <v>3830</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>2966</v>
+        <v>2922</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>2967</v>
+        <v>3831</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>2968</v>
+        <v>2923</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>2969</v>
+        <v>3832</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>2970</v>
+        <v>2924</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>2971</v>
+        <v>3833</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>2972</v>
+        <v>3834</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>2973</v>
+        <v>2925</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>2974</v>
+        <v>2926</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>2975</v>
+        <v>3835</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>2976</v>
+        <v>2927</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>2977</v>
+        <v>2928</v>
       </c>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
       <c r="Y129" s="1" t="s">
-        <v>2978</v>
+        <v>2929</v>
       </c>
       <c r="Z129" s="1" t="s">
-        <v>2979</v>
+        <v>3836</v>
       </c>
       <c r="AA129" s="1" t="s">
-        <v>2980</v>
+        <v>2930</v>
       </c>
       <c r="AB129" s="1" t="s">
-        <v>2981</v>
+        <v>2931</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>2982</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>2983</v>
+        <v>2933</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>2984</v>
+        <v>2934</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>2985</v>
+        <v>3837</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>2986</v>
+        <v>2935</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>2987</v>
+        <v>2936</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>2988</v>
+        <v>3838</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>2989</v>
+        <v>2937</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>2990</v>
+        <v>3839</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>2991</v>
+        <v>2938</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>2992</v>
+        <v>3840</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>2993</v>
+        <v>2939</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>2994</v>
+        <v>3841</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>2995</v>
+        <v>2940</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>2996</v>
+        <v>3842</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>2997</v>
+        <v>2941</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>2998</v>
+        <v>3843</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>2999</v>
+        <v>3844</v>
       </c>
       <c r="R130" s="1" t="s">
-        <v>3000</v>
+        <v>2942</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>3001</v>
+        <v>2943</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>3002</v>
+        <v>3845</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>3003</v>
+        <v>2944</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>3004</v>
+        <v>2945</v>
       </c>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
       <c r="Y130" s="1" t="s">
-        <v>3005</v>
+        <v>2946</v>
       </c>
       <c r="Z130" s="1" t="s">
-        <v>3006</v>
+        <v>3846</v>
       </c>
       <c r="AA130" s="1" t="s">
-        <v>3007</v>
+        <v>2947</v>
       </c>
       <c r="AB130" s="1" t="s">
-        <v>3008</v>
+        <v>2948</v>
       </c>
       <c r="AC130" s="1" t="s">
-        <v>3009</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>3010</v>
+        <v>2950</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>3011</v>
+        <v>2951</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>3012</v>
+        <v>2952</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>3013</v>
+        <v>2953</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>3014</v>
+        <v>2954</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>3015</v>
+        <v>2955</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>3016</v>
+        <v>2956</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>3017</v>
+        <v>2957</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>3018</v>
+        <v>2958</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>3019</v>
+        <v>2959</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>3020</v>
+        <v>2960</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>3021</v>
+        <v>2961</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>3022</v>
+        <v>2962</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>3023</v>
+        <v>2963</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>3024</v>
+        <v>2964</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>3025</v>
+        <v>2965</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>3026</v>
+        <v>2966</v>
       </c>
       <c r="R131" s="1" t="s">
-        <v>3027</v>
+        <v>2967</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>3028</v>
+        <v>2968</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>3029</v>
+        <v>2969</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>3030</v>
+        <v>2970</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>3031</v>
+        <v>2971</v>
       </c>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
       <c r="Y131" s="1" t="s">
-        <v>3032</v>
+        <v>2972</v>
       </c>
       <c r="Z131" s="1" t="s">
-        <v>3033</v>
+        <v>2973</v>
       </c>
       <c r="AA131" s="1" t="s">
-        <v>3034</v>
+        <v>2974</v>
       </c>
       <c r="AB131" s="1" t="s">
-        <v>3035</v>
+        <v>2975</v>
       </c>
       <c r="AC131" s="1" t="s">
-        <v>3036</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>3037</v>
+        <v>2977</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>3038</v>
+        <v>2978</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>3039</v>
+        <v>2979</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>3040</v>
+        <v>2980</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>3041</v>
+        <v>2981</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>3042</v>
+        <v>2982</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>3043</v>
+        <v>2983</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>3044</v>
+        <v>2984</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>3045</v>
+        <v>2985</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>3046</v>
+        <v>2986</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>3047</v>
+        <v>2987</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>3048</v>
+        <v>2988</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>3049</v>
+        <v>2989</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>3050</v>
+        <v>2990</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>3051</v>
+        <v>2991</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>3052</v>
+        <v>2992</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>3053</v>
+        <v>2993</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>3054</v>
+        <v>2994</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>3055</v>
+        <v>2995</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>3056</v>
+        <v>2996</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>3057</v>
+        <v>2997</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>3058</v>
+        <v>2998</v>
       </c>
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
       <c r="Y132" s="1" t="s">
-        <v>3059</v>
+        <v>2999</v>
       </c>
       <c r="Z132" s="1" t="s">
-        <v>3060</v>
+        <v>3000</v>
       </c>
       <c r="AA132" s="1" t="s">
-        <v>3061</v>
+        <v>3001</v>
       </c>
       <c r="AB132" s="1" t="s">
-        <v>3062</v>
+        <v>3002</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>3063</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>3064</v>
+        <v>3004</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>3065</v>
+        <v>3005</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>3066</v>
+        <v>3006</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>3067</v>
+        <v>3007</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>3068</v>
+        <v>3008</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>3069</v>
+        <v>3009</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>3070</v>
+        <v>3010</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>3071</v>
+        <v>3011</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>3072</v>
+        <v>3012</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>3073</v>
+        <v>3013</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>3074</v>
+        <v>3014</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>3075</v>
+        <v>3015</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>3076</v>
+        <v>3016</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>3077</v>
+        <v>3017</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>3078</v>
+        <v>3018</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>3079</v>
+        <v>3019</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>3080</v>
+        <v>3020</v>
       </c>
       <c r="R133" s="1" t="s">
-        <v>3081</v>
+        <v>3021</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>3082</v>
+        <v>3022</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>3083</v>
+        <v>3023</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>3084</v>
+        <v>3024</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>3085</v>
+        <v>3025</v>
       </c>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
       <c r="Y133" s="1" t="s">
-        <v>3086</v>
+        <v>3026</v>
       </c>
       <c r="Z133" s="1" t="s">
-        <v>3087</v>
+        <v>3027</v>
       </c>
       <c r="AA133" s="1" t="s">
-        <v>3088</v>
+        <v>3028</v>
       </c>
       <c r="AB133" s="1" t="s">
-        <v>3089</v>
+        <v>3029</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>3090</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>3091</v>
+        <v>3031</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>3092</v>
+        <v>3032</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>3093</v>
+        <v>3033</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>3094</v>
+        <v>3034</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>3095</v>
+        <v>3035</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>3096</v>
+        <v>3036</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>3097</v>
+        <v>3037</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>3098</v>
+        <v>3038</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>3099</v>
+        <v>3039</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>3100</v>
+        <v>3040</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>3101</v>
+        <v>3041</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>3102</v>
+        <v>3042</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>3103</v>
+        <v>3043</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>3104</v>
+        <v>3044</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>3105</v>
+        <v>3045</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>3106</v>
+        <v>3046</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>3107</v>
+        <v>3047</v>
       </c>
       <c r="R134" s="1" t="s">
-        <v>3108</v>
+        <v>3048</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>3109</v>
+        <v>3049</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>3110</v>
+        <v>3050</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>3111</v>
+        <v>3051</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>3112</v>
+        <v>3052</v>
       </c>
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
       <c r="Y134" s="1" t="s">
-        <v>3113</v>
+        <v>3053</v>
       </c>
       <c r="Z134" s="1" t="s">
-        <v>3114</v>
+        <v>3054</v>
       </c>
       <c r="AA134" s="1" t="s">
-        <v>3115</v>
+        <v>3055</v>
       </c>
       <c r="AB134" s="1" t="s">
-        <v>3116</v>
+        <v>3056</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>3117</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>3118</v>
+        <v>3058</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>3119</v>
+        <v>3059</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>3120</v>
+        <v>3060</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>3121</v>
+        <v>3061</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>3122</v>
+        <v>3062</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>3123</v>
+        <v>3063</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>3124</v>
+        <v>3064</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>3125</v>
+        <v>3065</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>3126</v>
+        <v>3066</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>3127</v>
+        <v>3067</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>3128</v>
+        <v>3068</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>3129</v>
+        <v>3069</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>3130</v>
+        <v>3070</v>
       </c>
       <c r="N135" s="1" t="s">
-        <v>3131</v>
+        <v>3071</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>3132</v>
+        <v>3072</v>
       </c>
       <c r="P135" s="1" t="s">
-        <v>3133</v>
+        <v>3073</v>
       </c>
       <c r="Q135" s="1" t="s">
-        <v>3134</v>
+        <v>3074</v>
       </c>
       <c r="R135" s="1" t="s">
-        <v>3135</v>
+        <v>3075</v>
       </c>
       <c r="S135" s="1" t="s">
-        <v>3136</v>
+        <v>3076</v>
       </c>
       <c r="T135" s="1" t="s">
-        <v>3137</v>
+        <v>3077</v>
       </c>
       <c r="U135" s="1" t="s">
-        <v>3138</v>
+        <v>3078</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>3139</v>
+        <v>3079</v>
       </c>
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
       <c r="Y135" s="1" t="s">
-        <v>3140</v>
+        <v>3080</v>
       </c>
       <c r="Z135" s="1" t="s">
-        <v>3141</v>
+        <v>3081</v>
       </c>
       <c r="AA135" s="1" t="s">
-        <v>3142</v>
+        <v>3082</v>
       </c>
       <c r="AB135" s="1" t="s">
-        <v>3143</v>
+        <v>3083</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>3144</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>3145</v>
+        <v>3085</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>3146</v>
+        <v>3086</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>3147</v>
+        <v>3087</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>3148</v>
+        <v>3088</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>3149</v>
+        <v>3089</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>3150</v>
+        <v>3090</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>3151</v>
+        <v>3091</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>3152</v>
+        <v>3092</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>3153</v>
+        <v>3093</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>3154</v>
+        <v>3094</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>3155</v>
+        <v>3095</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>3156</v>
+        <v>3096</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>3157</v>
+        <v>3097</v>
       </c>
       <c r="N136" s="1" t="s">
-        <v>3158</v>
+        <v>3098</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>3159</v>
+        <v>3099</v>
       </c>
       <c r="P136" s="1" t="s">
-        <v>3160</v>
+        <v>3100</v>
       </c>
       <c r="Q136" s="1" t="s">
-        <v>3161</v>
+        <v>3101</v>
       </c>
       <c r="R136" s="1" t="s">
-        <v>3162</v>
+        <v>3102</v>
       </c>
       <c r="S136" s="1" t="s">
-        <v>3163</v>
+        <v>3103</v>
       </c>
       <c r="T136" s="1" t="s">
-        <v>3164</v>
+        <v>3104</v>
       </c>
       <c r="U136" s="1" t="s">
-        <v>3165</v>
+        <v>3105</v>
       </c>
       <c r="V136" s="1" t="s">
-        <v>3166</v>
+        <v>3106</v>
       </c>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
       <c r="Y136" s="1" t="s">
-        <v>3167</v>
+        <v>3107</v>
       </c>
       <c r="Z136" s="1" t="s">
-        <v>3168</v>
+        <v>3108</v>
       </c>
       <c r="AA136" s="1" t="s">
-        <v>3169</v>
+        <v>3109</v>
       </c>
       <c r="AB136" s="1" t="s">
-        <v>3170</v>
+        <v>3110</v>
       </c>
       <c r="AC136" s="1" t="s">
-        <v>3171</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>3172</v>
+        <v>3112</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>3173</v>
+        <v>3113</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>3174</v>
+        <v>3847</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>3175</v>
+        <v>3114</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>3176</v>
+        <v>3115</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>3177</v>
+        <v>3848</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>3178</v>
+        <v>3116</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>3179</v>
+        <v>3849</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>3180</v>
+        <v>3117</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>3181</v>
+        <v>3850</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>3182</v>
+        <v>3118</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>3183</v>
+        <v>3851</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>3184</v>
+        <v>3119</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>3185</v>
+        <v>3852</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>3186</v>
+        <v>3120</v>
       </c>
       <c r="P137" s="1" t="s">
-        <v>3187</v>
+        <v>3853</v>
       </c>
       <c r="Q137" s="1" t="s">
-        <v>3188</v>
+        <v>3854</v>
       </c>
       <c r="R137" s="1" t="s">
-        <v>3189</v>
+        <v>3121</v>
       </c>
       <c r="S137" s="1" t="s">
-        <v>3190</v>
+        <v>3122</v>
       </c>
       <c r="T137" s="1" t="s">
-        <v>3191</v>
+        <v>3855</v>
       </c>
       <c r="U137" s="1" t="s">
-        <v>3192</v>
+        <v>3123</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>3193</v>
+        <v>3124</v>
       </c>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
       <c r="Y137" s="1" t="s">
-        <v>3194</v>
+        <v>3125</v>
       </c>
       <c r="Z137" s="1" t="s">
-        <v>3195</v>
+        <v>3856</v>
       </c>
       <c r="AA137" s="1" t="s">
-        <v>3196</v>
+        <v>3126</v>
       </c>
       <c r="AB137" s="1" t="s">
-        <v>3197</v>
+        <v>3127</v>
       </c>
       <c r="AC137" s="1" t="s">
-        <v>3198</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>3199</v>
+        <v>3129</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>3200</v>
+        <v>3130</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>3201</v>
+        <v>3857</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>3202</v>
+        <v>3131</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>3203</v>
+        <v>3132</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>3204</v>
+        <v>3858</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>3205</v>
+        <v>3133</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>3206</v>
+        <v>3859</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>3207</v>
+        <v>3134</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>3208</v>
+        <v>3860</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>3209</v>
+        <v>3135</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>3210</v>
+        <v>3861</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>3211</v>
+        <v>3136</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>3212</v>
+        <v>3862</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>3213</v>
+        <v>3137</v>
       </c>
       <c r="P138" s="1" t="s">
-        <v>3214</v>
+        <v>3863</v>
       </c>
       <c r="Q138" s="1" t="s">
-        <v>3215</v>
+        <v>3864</v>
       </c>
       <c r="R138" s="1" t="s">
-        <v>3216</v>
+        <v>3138</v>
       </c>
       <c r="S138" s="1" t="s">
-        <v>3217</v>
+        <v>3139</v>
       </c>
       <c r="T138" s="1" t="s">
-        <v>3218</v>
+        <v>3865</v>
       </c>
       <c r="U138" s="1" t="s">
-        <v>3219</v>
+        <v>3140</v>
       </c>
       <c r="V138" s="1" t="s">
-        <v>3220</v>
+        <v>3141</v>
       </c>
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
       <c r="Y138" s="1" t="s">
-        <v>3221</v>
+        <v>3142</v>
       </c>
       <c r="Z138" s="1" t="s">
-        <v>3222</v>
+        <v>3866</v>
       </c>
       <c r="AA138" s="1" t="s">
-        <v>3223</v>
+        <v>3143</v>
       </c>
       <c r="AB138" s="1" t="s">
-        <v>3224</v>
+        <v>3144</v>
       </c>
       <c r="AC138" s="1" t="s">
-        <v>3225</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>3226</v>
+        <v>3146</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>3227</v>
+        <v>3147</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>3228</v>
+        <v>3867</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>3229</v>
+        <v>3148</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>3230</v>
+        <v>3149</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>3231</v>
+        <v>3868</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>3232</v>
+        <v>3150</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>3233</v>
+        <v>3869</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>3234</v>
+        <v>3151</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>3235</v>
+        <v>3870</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>3236</v>
+        <v>3152</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>3237</v>
+        <v>3871</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>3238</v>
+        <v>3153</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>3239</v>
+        <v>3872</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>3240</v>
+        <v>3154</v>
       </c>
       <c r="P139" s="1" t="s">
-        <v>3241</v>
+        <v>3873</v>
       </c>
       <c r="Q139" s="1" t="s">
-        <v>3242</v>
+        <v>3874</v>
       </c>
       <c r="R139" s="1" t="s">
-        <v>3243</v>
+        <v>3155</v>
       </c>
       <c r="S139" s="1" t="s">
-        <v>3244</v>
+        <v>3156</v>
       </c>
       <c r="T139" s="1" t="s">
-        <v>3245</v>
+        <v>3875</v>
       </c>
       <c r="U139" s="1" t="s">
-        <v>3246</v>
+        <v>3157</v>
       </c>
       <c r="V139" s="1" t="s">
-        <v>3247</v>
+        <v>3158</v>
       </c>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
       <c r="Y139" s="1" t="s">
-        <v>3248</v>
+        <v>3159</v>
       </c>
       <c r="Z139" s="1" t="s">
-        <v>3249</v>
+        <v>3876</v>
       </c>
       <c r="AA139" s="1" t="s">
-        <v>3250</v>
+        <v>3160</v>
       </c>
       <c r="AB139" s="1" t="s">
-        <v>3251</v>
+        <v>3161</v>
       </c>
       <c r="AC139" s="1" t="s">
-        <v>3252</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>3253</v>
+        <v>3163</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>3254</v>
+        <v>3164</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>3255</v>
+        <v>3877</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>3256</v>
+        <v>3165</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>3257</v>
+        <v>3166</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>3258</v>
+        <v>3878</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>3259</v>
+        <v>3167</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>3260</v>
+        <v>3879</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>3261</v>
+        <v>3168</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>3262</v>
+        <v>3880</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>3263</v>
+        <v>3169</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>3264</v>
+        <v>3881</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>3265</v>
+        <v>3170</v>
       </c>
       <c r="N140" s="1" t="s">
-        <v>3266</v>
+        <v>3882</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>3267</v>
+        <v>3171</v>
       </c>
       <c r="P140" s="1" t="s">
-        <v>3268</v>
+        <v>3883</v>
       </c>
       <c r="Q140" s="1" t="s">
-        <v>3269</v>
+        <v>3884</v>
       </c>
       <c r="R140" s="1" t="s">
-        <v>3270</v>
+        <v>3172</v>
       </c>
       <c r="S140" s="1" t="s">
-        <v>3271</v>
+        <v>3173</v>
       </c>
       <c r="T140" s="1" t="s">
-        <v>3272</v>
+        <v>3885</v>
       </c>
       <c r="U140" s="1" t="s">
-        <v>3273</v>
+        <v>3174</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>3274</v>
+        <v>3175</v>
       </c>
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
       <c r="Y140" s="1" t="s">
-        <v>3275</v>
+        <v>3176</v>
       </c>
       <c r="Z140" s="1" t="s">
-        <v>3276</v>
+        <v>3886</v>
       </c>
       <c r="AA140" s="1" t="s">
-        <v>3277</v>
+        <v>3177</v>
       </c>
       <c r="AB140" s="1" t="s">
-        <v>3278</v>
+        <v>3178</v>
       </c>
       <c r="AC140" s="1" t="s">
-        <v>3279</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>3280</v>
+        <v>3180</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>3281</v>
+        <v>3181</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>3282</v>
+        <v>3887</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>3283</v>
+        <v>3182</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>3284</v>
+        <v>3183</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>3285</v>
+        <v>3888</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>3286</v>
+        <v>3184</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>3287</v>
+        <v>3889</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>3288</v>
+        <v>3185</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>3289</v>
+        <v>3890</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>3290</v>
+        <v>3186</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>3291</v>
+        <v>3891</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>3292</v>
+        <v>3187</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>3293</v>
+        <v>3892</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>3294</v>
+        <v>3188</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>3295</v>
+        <v>3893</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>3296</v>
+        <v>3894</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>3297</v>
+        <v>3189</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>3298</v>
+        <v>3190</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>3299</v>
+        <v>3895</v>
       </c>
       <c r="U141" s="1" t="s">
-        <v>3300</v>
+        <v>3191</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>3301</v>
+        <v>3192</v>
       </c>
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
       <c r="Y141" s="1" t="s">
-        <v>3302</v>
+        <v>3193</v>
       </c>
       <c r="Z141" s="1" t="s">
-        <v>3303</v>
+        <v>3896</v>
       </c>
       <c r="AA141" s="1" t="s">
-        <v>3304</v>
+        <v>3194</v>
       </c>
       <c r="AB141" s="1" t="s">
-        <v>3305</v>
+        <v>3195</v>
       </c>
       <c r="AC141" s="1" t="s">
-        <v>3306</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>3307</v>
+        <v>3197</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>3308</v>
+        <v>3198</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>3309</v>
+        <v>3897</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>3310</v>
+        <v>3199</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>3311</v>
+        <v>3200</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>3312</v>
+        <v>3898</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>3313</v>
+        <v>3201</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>3314</v>
+        <v>3899</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>3315</v>
+        <v>3202</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>3316</v>
+        <v>3900</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>3317</v>
+        <v>3203</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>3318</v>
+        <v>3901</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>3319</v>
+        <v>3204</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>3320</v>
+        <v>3902</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>3321</v>
+        <v>3205</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>3322</v>
+        <v>3903</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>3323</v>
+        <v>3904</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>3324</v>
+        <v>3206</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>3325</v>
+        <v>3207</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>3326</v>
+        <v>3905</v>
       </c>
       <c r="U142" s="1" t="s">
-        <v>3327</v>
+        <v>3208</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>3328</v>
+        <v>3209</v>
       </c>
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
       <c r="Y142" s="1" t="s">
-        <v>3329</v>
+        <v>3210</v>
       </c>
       <c r="Z142" s="1" t="s">
-        <v>3330</v>
+        <v>3906</v>
       </c>
       <c r="AA142" s="1" t="s">
-        <v>3331</v>
+        <v>3211</v>
       </c>
       <c r="AB142" s="1" t="s">
-        <v>3332</v>
+        <v>3212</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>3333</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>3334</v>
+        <v>3214</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>3335</v>
+        <v>3215</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>3336</v>
+        <v>3216</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>3337</v>
+        <v>3217</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>3338</v>
+        <v>3218</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>3339</v>
+        <v>3219</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>3340</v>
+        <v>3220</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>3341</v>
+        <v>3221</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>3342</v>
+        <v>3222</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>3343</v>
+        <v>3223</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>3344</v>
+        <v>3224</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>3345</v>
+        <v>3225</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>3346</v>
+        <v>3226</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>3347</v>
+        <v>3227</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>3348</v>
+        <v>3228</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>3349</v>
+        <v>3229</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>3350</v>
+        <v>3230</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>3351</v>
+        <v>3231</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>3352</v>
+        <v>3232</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>3353</v>
+        <v>3233</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>3354</v>
+        <v>3234</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>3355</v>
+        <v>3235</v>
       </c>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
       <c r="Y143" s="1" t="s">
-        <v>3356</v>
+        <v>3236</v>
       </c>
       <c r="Z143" s="1" t="s">
-        <v>3357</v>
+        <v>3237</v>
       </c>
       <c r="AA143" s="1" t="s">
-        <v>3358</v>
+        <v>3238</v>
       </c>
       <c r="AB143" s="1" t="s">
-        <v>3359</v>
+        <v>3239</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>3360</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>3361</v>
+        <v>3241</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>3362</v>
+        <v>3242</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>3363</v>
+        <v>3243</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>3364</v>
+        <v>3244</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>3365</v>
+        <v>3245</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>3366</v>
+        <v>3246</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>3367</v>
+        <v>3247</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>3368</v>
+        <v>3248</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>3369</v>
+        <v>3249</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>3370</v>
+        <v>3250</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>3371</v>
+        <v>3251</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>3372</v>
+        <v>3252</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>3373</v>
+        <v>3253</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>3374</v>
+        <v>3254</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>3375</v>
+        <v>3255</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>3376</v>
+        <v>3256</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>3377</v>
+        <v>3257</v>
       </c>
       <c r="R144" s="1" t="s">
-        <v>3378</v>
+        <v>3258</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>3379</v>
+        <v>3259</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>3380</v>
+        <v>3260</v>
       </c>
       <c r="U144" s="1" t="s">
-        <v>3381</v>
+        <v>3261</v>
       </c>
       <c r="V144" s="1" t="s">
-        <v>3382</v>
+        <v>3262</v>
       </c>
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
       <c r="Y144" s="1" t="s">
-        <v>3383</v>
+        <v>3263</v>
       </c>
       <c r="Z144" s="1" t="s">
-        <v>3384</v>
+        <v>3264</v>
       </c>
       <c r="AA144" s="1" t="s">
-        <v>3385</v>
+        <v>3265</v>
       </c>
       <c r="AB144" s="1" t="s">
-        <v>3386</v>
+        <v>3266</v>
       </c>
       <c r="AC144" s="1" t="s">
-        <v>3387</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>3388</v>
+        <v>3268</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>3389</v>
+        <v>3269</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>3390</v>
+        <v>3270</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>3391</v>
+        <v>3271</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>3392</v>
+        <v>3272</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>3393</v>
+        <v>3273</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>3394</v>
+        <v>3274</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>3395</v>
+        <v>3275</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>3396</v>
+        <v>3276</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>3397</v>
+        <v>3277</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>3398</v>
+        <v>3278</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>3399</v>
+        <v>3279</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>3400</v>
+        <v>3280</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>3401</v>
+        <v>3281</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>3402</v>
+        <v>3282</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>3403</v>
+        <v>3283</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>3404</v>
+        <v>3284</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>3405</v>
+        <v>3285</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>3406</v>
+        <v>3286</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>3407</v>
+        <v>3287</v>
       </c>
       <c r="U145" s="1" t="s">
-        <v>3408</v>
+        <v>3288</v>
       </c>
       <c r="V145" s="1" t="s">
-        <v>3409</v>
+        <v>3289</v>
       </c>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
       <c r="Y145" s="1" t="s">
-        <v>3410</v>
+        <v>3290</v>
       </c>
       <c r="Z145" s="1" t="s">
-        <v>3411</v>
+        <v>3291</v>
       </c>
       <c r="AA145" s="1" t="s">
-        <v>3412</v>
+        <v>3292</v>
       </c>
       <c r="AB145" s="1" t="s">
-        <v>3413</v>
+        <v>3293</v>
       </c>
       <c r="AC145" s="1" t="s">
-        <v>3414</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>3415</v>
+        <v>3295</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>3416</v>
+        <v>3296</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>3417</v>
+        <v>3297</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>3418</v>
+        <v>3298</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>3419</v>
+        <v>3299</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>3420</v>
+        <v>3300</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>3421</v>
+        <v>3301</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>3422</v>
+        <v>3302</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>3423</v>
+        <v>3303</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>3424</v>
+        <v>3304</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>3425</v>
+        <v>3305</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>3426</v>
+        <v>3306</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>3427</v>
+        <v>3307</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>3428</v>
+        <v>3308</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>3429</v>
+        <v>3309</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>3430</v>
+        <v>3310</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>3431</v>
+        <v>3311</v>
       </c>
       <c r="R146" s="1" t="s">
-        <v>3432</v>
+        <v>3312</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>3433</v>
+        <v>3313</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>3434</v>
+        <v>3314</v>
       </c>
       <c r="U146" s="1" t="s">
-        <v>3435</v>
+        <v>3315</v>
       </c>
       <c r="V146" s="1" t="s">
-        <v>3436</v>
+        <v>3316</v>
       </c>
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
       <c r="Y146" s="1" t="s">
-        <v>3437</v>
+        <v>3317</v>
       </c>
       <c r="Z146" s="1" t="s">
-        <v>3438</v>
+        <v>3318</v>
       </c>
       <c r="AA146" s="1" t="s">
-        <v>3439</v>
+        <v>3319</v>
       </c>
       <c r="AB146" s="1" t="s">
-        <v>3440</v>
+        <v>3320</v>
       </c>
       <c r="AC146" s="1" t="s">
-        <v>3441</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>3442</v>
+        <v>3322</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>3443</v>
+        <v>3323</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>3444</v>
+        <v>3324</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>3445</v>
+        <v>3325</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>3446</v>
+        <v>3326</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>3447</v>
+        <v>3327</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>3448</v>
+        <v>3328</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>3449</v>
+        <v>3329</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>3450</v>
+        <v>3330</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>3451</v>
+        <v>3331</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>3452</v>
+        <v>3332</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>3453</v>
+        <v>3333</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>3454</v>
+        <v>3334</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>3455</v>
+        <v>3335</v>
       </c>
       <c r="O147" s="1" t="s">
-        <v>3456</v>
+        <v>3336</v>
       </c>
       <c r="P147" s="1" t="s">
-        <v>3457</v>
+        <v>3337</v>
       </c>
       <c r="Q147" s="1" t="s">
-        <v>3458</v>
+        <v>3338</v>
       </c>
       <c r="R147" s="1" t="s">
-        <v>3459</v>
+        <v>3339</v>
       </c>
       <c r="S147" s="1" t="s">
-        <v>3460</v>
+        <v>3340</v>
       </c>
       <c r="T147" s="1" t="s">
-        <v>3461</v>
+        <v>3341</v>
       </c>
       <c r="U147" s="1" t="s">
-        <v>3462</v>
+        <v>3342</v>
       </c>
       <c r="V147" s="1" t="s">
-        <v>3463</v>
+        <v>3343</v>
       </c>
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
       <c r="Y147" s="1" t="s">
-        <v>3464</v>
+        <v>3344</v>
       </c>
       <c r="Z147" s="1" t="s">
-        <v>3465</v>
+        <v>3345</v>
       </c>
       <c r="AA147" s="1" t="s">
-        <v>3466</v>
+        <v>3346</v>
       </c>
       <c r="AB147" s="1" t="s">
-        <v>3467</v>
+        <v>3347</v>
       </c>
       <c r="AC147" s="1" t="s">
-        <v>3468</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>3469</v>
+        <v>3349</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>3470</v>
+        <v>3350</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>3471</v>
+        <v>3351</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>3472</v>
+        <v>3352</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>3473</v>
+        <v>3353</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>3474</v>
+        <v>3354</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>3475</v>
+        <v>3355</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>3476</v>
+        <v>3356</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>3477</v>
+        <v>3357</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>3478</v>
+        <v>3358</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>3479</v>
+        <v>3359</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>3480</v>
+        <v>3360</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>3481</v>
+        <v>3361</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>3482</v>
+        <v>3362</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>3483</v>
+        <v>3363</v>
       </c>
       <c r="P148" s="1" t="s">
-        <v>3484</v>
+        <v>3364</v>
       </c>
       <c r="Q148" s="1" t="s">
-        <v>3485</v>
+        <v>3365</v>
       </c>
       <c r="R148" s="1" t="s">
-        <v>3486</v>
+        <v>3366</v>
       </c>
       <c r="S148" s="1" t="s">
-        <v>3487</v>
+        <v>3367</v>
       </c>
       <c r="T148" s="1" t="s">
-        <v>3488</v>
+        <v>3368</v>
       </c>
       <c r="U148" s="1" t="s">
-        <v>3489</v>
+        <v>3369</v>
       </c>
       <c r="V148" s="1" t="s">
-        <v>3490</v>
+        <v>3370</v>
       </c>
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
       <c r="Y148" s="1" t="s">
-        <v>3491</v>
+        <v>3371</v>
       </c>
       <c r="Z148" s="1" t="s">
-        <v>3492</v>
+        <v>3372</v>
       </c>
       <c r="AA148" s="1" t="s">
-        <v>3493</v>
+        <v>3373</v>
       </c>
       <c r="AB148" s="1" t="s">
-        <v>3494</v>
+        <v>3374</v>
       </c>
       <c r="AC148" s="1" t="s">
-        <v>3495</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>3496</v>
+        <v>3376</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>280</v>
@@ -24771,75 +24771,75 @@
         <v>281</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>3497</v>
+        <v>3377</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>3498</v>
+        <v>3378</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>3499</v>
+        <v>3379</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>3500</v>
+        <v>3380</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>3501</v>
+        <v>3381</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>3502</v>
+        <v>3382</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>3503</v>
+        <v>3383</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>3504</v>
+        <v>3384</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>3505</v>
+        <v>3385</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>3506</v>
+        <v>3386</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>3507</v>
+        <v>3387</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>3508</v>
+        <v>3388</v>
       </c>
       <c r="P149" s="1" t="s">
-        <v>3509</v>
+        <v>3389</v>
       </c>
       <c r="Q149" s="1" t="s">
-        <v>3510</v>
+        <v>3390</v>
       </c>
       <c r="R149" s="1" t="s">
         <v>2598</v>
       </c>
       <c r="S149" s="1" t="s">
-        <v>3511</v>
+        <v>3391</v>
       </c>
       <c r="T149" s="1" t="s">
-        <v>3512</v>
+        <v>3392</v>
       </c>
       <c r="U149" s="1" t="s">
-        <v>3513</v>
+        <v>3393</v>
       </c>
       <c r="V149" s="1" t="s">
-        <v>3514</v>
+        <v>3394</v>
       </c>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
       <c r="Y149" s="1" t="s">
-        <v>3515</v>
+        <v>3395</v>
       </c>
       <c r="Z149" s="1" t="s">
-        <v>3516</v>
+        <v>3396</v>
       </c>
       <c r="AA149" s="1" t="s">
-        <v>3517</v>
+        <v>3397</v>
       </c>
       <c r="AB149" s="1" t="s">
-        <v>3518</v>
+        <v>3398</v>
       </c>
       <c r="AC149" s="1" t="s">
         <v>305</v>
@@ -24847,7 +24847,7 @@
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>3519</v>
+        <v>3399</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>2309</v>
@@ -24856,61 +24856,61 @@
         <v>2310</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>3520</v>
+        <v>3400</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>3521</v>
+        <v>3401</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>3522</v>
+        <v>3402</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>3523</v>
+        <v>3403</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>3524</v>
+        <v>3404</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>3525</v>
+        <v>3405</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>3526</v>
+        <v>3406</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>3527</v>
+        <v>3407</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>3528</v>
+        <v>3408</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>3529</v>
+        <v>3409</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>3530</v>
+        <v>3410</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>3531</v>
+        <v>3411</v>
       </c>
       <c r="P150" s="1" t="s">
-        <v>3532</v>
+        <v>3412</v>
       </c>
       <c r="Q150" s="1" t="s">
-        <v>3533</v>
+        <v>3413</v>
       </c>
       <c r="R150" s="1" t="s">
-        <v>3534</v>
+        <v>3414</v>
       </c>
       <c r="S150" s="1" t="s">
-        <v>3535</v>
+        <v>3415</v>
       </c>
       <c r="T150" s="1" t="s">
-        <v>3536</v>
+        <v>3416</v>
       </c>
       <c r="U150" s="1" t="s">
-        <v>3537</v>
+        <v>3417</v>
       </c>
       <c r="V150" s="1" t="s">
-        <v>3538</v>
+        <v>3418</v>
       </c>
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
@@ -24921,10 +24921,10 @@
         <v>2331</v>
       </c>
       <c r="AA150" s="1" t="s">
-        <v>3539</v>
+        <v>3419</v>
       </c>
       <c r="AB150" s="1" t="s">
-        <v>3540</v>
+        <v>3420</v>
       </c>
       <c r="AC150" s="1" t="s">
         <v>2334</v>
@@ -24932,172 +24932,172 @@
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>3541</v>
+        <v>3421</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>3542</v>
+        <v>3422</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>3543</v>
+        <v>3423</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>3544</v>
+        <v>3424</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>3545</v>
+        <v>3425</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>3546</v>
+        <v>3426</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>3547</v>
+        <v>3427</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>3548</v>
+        <v>3428</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>3549</v>
+        <v>3429</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>3550</v>
+        <v>3430</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>3551</v>
+        <v>3431</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>3552</v>
+        <v>3432</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>3553</v>
+        <v>3433</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>3554</v>
+        <v>3434</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>3555</v>
+        <v>3435</v>
       </c>
       <c r="P151" s="1" t="s">
-        <v>3556</v>
+        <v>3436</v>
       </c>
       <c r="Q151" s="1" t="s">
-        <v>3557</v>
+        <v>3437</v>
       </c>
       <c r="R151" s="1" t="s">
-        <v>3558</v>
+        <v>3438</v>
       </c>
       <c r="S151" s="1" t="s">
-        <v>3559</v>
+        <v>3439</v>
       </c>
       <c r="T151" s="1" t="s">
-        <v>3560</v>
+        <v>3440</v>
       </c>
       <c r="U151" s="1" t="s">
-        <v>3561</v>
+        <v>3441</v>
       </c>
       <c r="V151" s="1" t="s">
-        <v>3562</v>
+        <v>3442</v>
       </c>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
       <c r="Y151" s="1" t="s">
-        <v>3563</v>
+        <v>3443</v>
       </c>
       <c r="Z151" s="1" t="s">
-        <v>3564</v>
+        <v>3444</v>
       </c>
       <c r="AA151" s="1" t="s">
-        <v>3565</v>
+        <v>3445</v>
       </c>
       <c r="AB151" s="1" t="s">
-        <v>3566</v>
+        <v>3446</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>3567</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>3568</v>
+        <v>3448</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>3569</v>
+        <v>3449</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>3570</v>
+        <v>3450</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>3571</v>
+        <v>3451</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>3572</v>
+        <v>3452</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>3573</v>
+        <v>3453</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>3574</v>
+        <v>3454</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>3575</v>
+        <v>3455</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>3576</v>
+        <v>3456</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>3577</v>
+        <v>3457</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>3578</v>
+        <v>3458</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>3579</v>
+        <v>3459</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>3580</v>
+        <v>3460</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>3581</v>
+        <v>3461</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>3582</v>
+        <v>3462</v>
       </c>
       <c r="P152" s="1" t="s">
-        <v>3583</v>
+        <v>3463</v>
       </c>
       <c r="Q152" s="1" t="s">
-        <v>3584</v>
+        <v>3464</v>
       </c>
       <c r="R152" s="1" t="s">
-        <v>3585</v>
+        <v>3465</v>
       </c>
       <c r="S152" s="1" t="s">
-        <v>3586</v>
+        <v>3466</v>
       </c>
       <c r="T152" s="1" t="s">
-        <v>3587</v>
+        <v>3467</v>
       </c>
       <c r="U152" s="1" t="s">
-        <v>3588</v>
+        <v>3468</v>
       </c>
       <c r="V152" s="1" t="s">
-        <v>3589</v>
+        <v>3469</v>
       </c>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
       <c r="Y152" s="1" t="s">
-        <v>3590</v>
+        <v>3470</v>
       </c>
       <c r="Z152" s="1" t="s">
-        <v>3591</v>
+        <v>3471</v>
       </c>
       <c r="AA152" s="1" t="s">
-        <v>3592</v>
+        <v>3472</v>
       </c>
       <c r="AB152" s="1" t="s">
-        <v>3593</v>
+        <v>3473</v>
       </c>
       <c r="AC152" s="1" t="s">
-        <v>3594</v>
+        <v>3474</v>
       </c>
     </row>
   </sheetData>

--- a/VerbConjugation/XLSX/Arm.xlsx
+++ b/VerbConjugation/XLSX/Arm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/.shortcut-targets-by-id/1Wid6qZFUIaNGhhY-jObhH0MzMkW03Wt7/Teheran or general Persian Armenian/2021 kickstart /Archive/iranian_armenian/VerbConjugation/XLSX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Library/CloudStorage/GoogleDrive-hovsep443@hotmail.com/My Drive/Dialectal kickstarts/2021 kickstart  - Tehran/Archive/iranian_armenian/VerbConjugation/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE35DEDD-26E9-2445-B9E0-B02A238B5632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9CD268-5B52-CB4F-AAE4-1BDD43644749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15460" xr2:uid="{B2297C89-19AD-CE43-8C13-F47C72A1FD76}"/>
+    <workbookView xWindow="0" yWindow="2100" windowWidth="28040" windowHeight="15460" xr2:uid="{B2297C89-19AD-CE43-8C13-F47C72A1FD76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4133" uniqueCount="3907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4163" uniqueCount="3934">
   <si>
     <t>Class</t>
   </si>
@@ -11756,6 +11756,87 @@
   </si>
   <si>
     <t>կասին</t>
+  </si>
+  <si>
+    <t>արժեմ</t>
+  </si>
+  <si>
+    <t>to be worth</t>
+  </si>
+  <si>
+    <t>{X} = արժ-</t>
+  </si>
+  <si>
+    <t>արժես</t>
+  </si>
+  <si>
+    <t>արժի</t>
+  </si>
+  <si>
+    <t>արժենք</t>
+  </si>
+  <si>
+    <t>արժեք</t>
+  </si>
+  <si>
+    <t>արժեն</t>
+  </si>
+  <si>
+    <t>չարժեմ</t>
+  </si>
+  <si>
+    <t>չարժես</t>
+  </si>
+  <si>
+    <t>չարժի</t>
+  </si>
+  <si>
+    <t>չարժենք</t>
+  </si>
+  <si>
+    <t>չարժեք</t>
+  </si>
+  <si>
+    <t>չարժեն</t>
+  </si>
+  <si>
+    <t>արժիմ</t>
+  </si>
+  <si>
+    <t>արժիր</t>
+  </si>
+  <si>
+    <t>արժէր</t>
+  </si>
+  <si>
+    <t>արժինք</t>
+  </si>
+  <si>
+    <t>արժիք</t>
+  </si>
+  <si>
+    <t>չարժիմ</t>
+  </si>
+  <si>
+    <t>չարժիր</t>
+  </si>
+  <si>
+    <t>չարժէր</t>
+  </si>
+  <si>
+    <t>չարժինք</t>
+  </si>
+  <si>
+    <t>չարժիք</t>
+  </si>
+  <si>
+    <t>կային</t>
+  </si>
+  <si>
+    <t>ունին</t>
+  </si>
+  <si>
+    <t>արժին</t>
   </si>
 </sst>
 </file>
@@ -12114,15 +12195,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8E2D0E-8979-4D45-B6AA-714C5ED83DA1}">
-  <dimension ref="A1:AC152"/>
+  <dimension ref="A1:AD152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P126" workbookViewId="0">
-      <selection activeCell="Z142" sqref="Z142"/>
+    <sheetView tabSelected="1" topLeftCell="O28" workbookViewId="0">
+      <selection activeCell="AA40" sqref="AA40:AA41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12196,7 +12277,7 @@
         <v>7</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>8</v>
@@ -12208,10 +12289,13 @@
         <v>8</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -12285,7 +12369,7 @@
         <v>7</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>8</v>
@@ -12297,10 +12381,13 @@
         <v>8</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -12374,13 +12461,13 @@
         <v>15</v>
       </c>
       <c r="Y3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>14</v>
@@ -12388,8 +12475,11 @@
       <c r="AC3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AD3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -12463,22 +12553,25 @@
         <v>39</v>
       </c>
       <c r="Y4" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="Z4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -12552,22 +12645,25 @@
         <v>67</v>
       </c>
       <c r="Y5" s="1" t="s">
+        <v>3908</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AC5" s="1" t="s">
+      <c r="AD5" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>73</v>
       </c>
@@ -12641,22 +12737,25 @@
         <v>95</v>
       </c>
       <c r="Y6" s="1" t="s">
+        <v>3909</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AC6" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AC6" s="1" t="s">
+      <c r="AD6" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
@@ -12725,23 +12824,24 @@
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AC7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>107</v>
       </c>
@@ -12792,11 +12892,12 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
-      <c r="AC8" s="1" t="s">
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>118</v>
       </c>
@@ -12848,8 +12949,9 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>128</v>
       </c>
@@ -12918,23 +13020,24 @@
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1" t="s">
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AC10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>150</v>
       </c>
@@ -13003,23 +13106,24 @@
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
-      <c r="Y11" s="1" t="s">
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AB11" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AC11" s="1" t="s">
+      <c r="AD11" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>177</v>
       </c>
@@ -13088,23 +13192,24 @@
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
-      <c r="Y12" s="1" t="s">
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AB12" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AC12" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="AC12" s="1" t="s">
+      <c r="AD12" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>204</v>
       </c>
@@ -13173,23 +13278,24 @@
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1" t="s">
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AB13" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AC13" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AC13" s="1" t="s">
+      <c r="AD13" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>204</v>
       </c>
@@ -13258,23 +13364,24 @@
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1" t="s">
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AB14" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AC14" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>252</v>
       </c>
@@ -13343,23 +13450,24 @@
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1" t="s">
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>279</v>
       </c>
@@ -13428,23 +13536,24 @@
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
-      <c r="Y16" s="1" t="s">
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AB16" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AC16" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AC16" s="1" t="s">
+      <c r="AD16" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>306</v>
       </c>
@@ -13518,22 +13627,25 @@
         <v>39</v>
       </c>
       <c r="Y17" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="Z17" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AB17" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>333</v>
       </c>
@@ -13607,22 +13719,25 @@
         <v>356</v>
       </c>
       <c r="Y18" s="1" t="s">
+        <v>3910</v>
+      </c>
+      <c r="Z18" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AB18" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AC18" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="AC18" s="1" t="s">
+      <c r="AD18" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>362</v>
       </c>
@@ -13696,22 +13811,25 @@
         <v>385</v>
       </c>
       <c r="Y19" s="1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="Z19" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="AA19" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AB19" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AC19" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>391</v>
       </c>
@@ -13785,22 +13903,25 @@
         <v>414</v>
       </c>
       <c r="Y20" s="1" t="s">
+        <v>3912</v>
+      </c>
+      <c r="Z20" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AB20" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AC20" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>420</v>
       </c>
@@ -13874,22 +13995,25 @@
         <v>443</v>
       </c>
       <c r="Y21" s="1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="Z21" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AC21" s="1" t="s">
+      <c r="AD21" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>449</v>
       </c>
@@ -13963,22 +14087,25 @@
         <v>472</v>
       </c>
       <c r="Y22" s="1" t="s">
+        <v>3914</v>
+      </c>
+      <c r="Z22" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="AA22" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AB22" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AC22" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="AC22" s="1" t="s">
+      <c r="AD22" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>478</v>
       </c>
@@ -14052,22 +14179,25 @@
         <v>501</v>
       </c>
       <c r="Y23" s="1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="Z23" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="AA23" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AB23" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AC23" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="AC23" s="1" t="s">
+      <c r="AD23" s="1" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>507</v>
       </c>
@@ -14141,22 +14271,25 @@
         <v>530</v>
       </c>
       <c r="Y24" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="Z24" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="AA24" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AB24" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="AB24" s="1" t="s">
+      <c r="AC24" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="AC24" s="1" t="s">
+      <c r="AD24" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>536</v>
       </c>
@@ -14230,22 +14363,25 @@
         <v>559</v>
       </c>
       <c r="Y25" s="1" t="s">
+        <v>3917</v>
+      </c>
+      <c r="Z25" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="AA25" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="AA25" s="1" t="s">
+      <c r="AB25" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="AB25" s="1" t="s">
+      <c r="AC25" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AD25" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>565</v>
       </c>
@@ -14319,22 +14455,25 @@
         <v>588</v>
       </c>
       <c r="Y26" s="1" t="s">
+        <v>3918</v>
+      </c>
+      <c r="Z26" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="AA26" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="AA26" s="1" t="s">
+      <c r="AB26" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="AB26" s="1" t="s">
+      <c r="AC26" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="AC26" s="1" t="s">
+      <c r="AD26" s="1" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>594</v>
       </c>
@@ -14408,22 +14547,25 @@
         <v>617</v>
       </c>
       <c r="Y27" s="1" t="s">
+        <v>3919</v>
+      </c>
+      <c r="Z27" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="AA27" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="AA27" s="1" t="s">
+      <c r="AB27" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="AB27" s="1" t="s">
+      <c r="AC27" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="AC27" s="1" t="s">
+      <c r="AD27" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>623</v>
       </c>
@@ -14497,22 +14639,25 @@
         <v>646</v>
       </c>
       <c r="Y28" s="1" t="s">
+        <v>3920</v>
+      </c>
+      <c r="Z28" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="AA28" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="AA28" s="1" t="s">
+      <c r="AB28" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="AB28" s="1" t="s">
+      <c r="AC28" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AD28" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>652</v>
       </c>
@@ -14586,22 +14731,25 @@
         <v>675</v>
       </c>
       <c r="Y29" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="Z29" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="AA29" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="AA29" s="1" t="s">
+      <c r="AB29" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="AB29" s="1" t="s">
+      <c r="AC29" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="AC29" s="1" t="s">
+      <c r="AD29" s="1" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>681</v>
       </c>
@@ -14675,22 +14823,25 @@
         <v>704</v>
       </c>
       <c r="Y30" s="1" t="s">
+        <v>3922</v>
+      </c>
+      <c r="Z30" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="Z30" s="1" t="s">
+      <c r="AA30" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="AA30" s="1" t="s">
+      <c r="AB30" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="AB30" s="1" t="s">
+      <c r="AC30" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="AC30" s="1" t="s">
+      <c r="AD30" s="1" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>710</v>
       </c>
@@ -14764,22 +14915,25 @@
         <v>733</v>
       </c>
       <c r="Y31" s="1" t="s">
+        <v>3923</v>
+      </c>
+      <c r="Z31" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="Z31" s="1" t="s">
+      <c r="AA31" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="AA31" s="1" t="s">
+      <c r="AB31" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AC31" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="AC31" s="1" t="s">
+      <c r="AD31" s="1" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>739</v>
       </c>
@@ -14853,22 +15007,25 @@
         <v>762</v>
       </c>
       <c r="Y32" s="1" t="s">
+        <v>3924</v>
+      </c>
+      <c r="Z32" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="Z32" s="1" t="s">
+      <c r="AA32" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="AA32" s="1" t="s">
+      <c r="AB32" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="AB32" s="1" t="s">
+      <c r="AC32" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="AC32" s="1" t="s">
+      <c r="AD32" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>768</v>
       </c>
@@ -14942,22 +15099,25 @@
         <v>791</v>
       </c>
       <c r="Y33" s="1" t="s">
+        <v>3925</v>
+      </c>
+      <c r="Z33" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="Z33" s="1" t="s">
+      <c r="AA33" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="AA33" s="1" t="s">
+      <c r="AB33" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="AB33" s="1" t="s">
+      <c r="AC33" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="AC33" s="1" t="s">
+      <c r="AD33" s="1" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>797</v>
       </c>
@@ -15025,28 +15185,31 @@
         <v>818</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>761</v>
+        <v>3931</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>762</v>
+        <v>3932</v>
       </c>
       <c r="Y34" s="1" t="s">
+        <v>3933</v>
+      </c>
+      <c r="Z34" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="Z34" s="1" t="s">
+      <c r="AA34" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="AA34" s="1" t="s">
+      <c r="AB34" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="AB34" s="1" t="s">
+      <c r="AC34" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="AC34" s="1" t="s">
+      <c r="AD34" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>824</v>
       </c>
@@ -15120,22 +15283,25 @@
         <v>847</v>
       </c>
       <c r="Y35" s="1" t="s">
+        <v>3926</v>
+      </c>
+      <c r="Z35" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="Z35" s="1" t="s">
+      <c r="AA35" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="AA35" s="1" t="s">
+      <c r="AB35" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="AB35" s="1" t="s">
+      <c r="AC35" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="AC35" s="1" t="s">
+      <c r="AD35" s="1" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>853</v>
       </c>
@@ -15209,22 +15375,25 @@
         <v>876</v>
       </c>
       <c r="Y36" s="1" t="s">
+        <v>3927</v>
+      </c>
+      <c r="Z36" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="Z36" s="1" t="s">
+      <c r="AA36" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="AA36" s="1" t="s">
+      <c r="AB36" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="AB36" s="1" t="s">
+      <c r="AC36" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="AC36" s="1" t="s">
+      <c r="AD36" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>882</v>
       </c>
@@ -15298,22 +15467,25 @@
         <v>905</v>
       </c>
       <c r="Y37" s="1" t="s">
+        <v>3928</v>
+      </c>
+      <c r="Z37" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="Z37" s="1" t="s">
+      <c r="AA37" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="AA37" s="1" t="s">
+      <c r="AB37" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="AB37" s="1" t="s">
+      <c r="AC37" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="AC37" s="1" t="s">
+      <c r="AD37" s="1" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>911</v>
       </c>
@@ -15387,22 +15559,25 @@
         <v>934</v>
       </c>
       <c r="Y38" s="1" t="s">
+        <v>3929</v>
+      </c>
+      <c r="Z38" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="Z38" s="1" t="s">
+      <c r="AA38" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="AA38" s="1" t="s">
+      <c r="AB38" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="AB38" s="1" t="s">
+      <c r="AC38" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="AC38" s="1" t="s">
+      <c r="AD38" s="1" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>940</v>
       </c>
@@ -15476,22 +15651,25 @@
         <v>963</v>
       </c>
       <c r="Y39" s="1" t="s">
+        <v>3930</v>
+      </c>
+      <c r="Z39" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="Z39" s="1" t="s">
+      <c r="AA39" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="AA39" s="1" t="s">
+      <c r="AB39" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="AB39" s="1" t="s">
+      <c r="AC39" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="AC39" s="1" t="s">
+      <c r="AD39" s="1" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>969</v>
       </c>
@@ -15565,22 +15743,25 @@
         <v>934</v>
       </c>
       <c r="Y40" s="1" t="s">
+        <v>3929</v>
+      </c>
+      <c r="Z40" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="Z40" s="1" t="s">
+      <c r="AA40" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="AA40" s="1" t="s">
+      <c r="AB40" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="AB40" s="1" t="s">
+      <c r="AC40" s="1" t="s">
         <v>994</v>
       </c>
-      <c r="AC40" s="1" t="s">
+      <c r="AD40" s="1" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>996</v>
       </c>
@@ -15649,23 +15830,24 @@
       </c>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
-      <c r="Y41" s="1" t="s">
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="Z41" s="1" t="s">
+      <c r="AA41" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="AA41" s="1" t="s">
+      <c r="AB41" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="AB41" s="1" t="s">
+      <c r="AC41" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="AC41" s="1" t="s">
+      <c r="AD41" s="1" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>1023</v>
       </c>
@@ -15734,23 +15916,24 @@
       </c>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
-      <c r="Y42" s="1" t="s">
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="Z42" s="1" t="s">
+      <c r="AA42" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="AA42" s="1" t="s">
+      <c r="AB42" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="AB42" s="1" t="s">
+      <c r="AC42" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="AC42" s="1" t="s">
+      <c r="AD42" s="1" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>1050</v>
       </c>
@@ -15819,23 +16002,24 @@
       </c>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
-      <c r="Y43" s="1" t="s">
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1" t="s">
         <v>1072</v>
       </c>
-      <c r="Z43" s="1" t="s">
+      <c r="AA43" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="AA43" s="1" t="s">
+      <c r="AB43" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="AB43" s="1" t="s">
+      <c r="AC43" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="AC43" s="1" t="s">
+      <c r="AD43" s="1" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>1077</v>
       </c>
@@ -15904,23 +16088,24 @@
       </c>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
-      <c r="Y44" s="1" t="s">
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="Z44" s="1" t="s">
+      <c r="AA44" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="AA44" s="1" t="s">
+      <c r="AB44" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="AB44" s="1" t="s">
+      <c r="AC44" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="AC44" s="1" t="s">
+      <c r="AD44" s="1" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>1104</v>
       </c>
@@ -15989,23 +16174,24 @@
       </c>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
-      <c r="Y45" s="1" t="s">
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="Z45" s="1" t="s">
+      <c r="AA45" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="AA45" s="1" t="s">
+      <c r="AB45" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="AB45" s="1" t="s">
+      <c r="AC45" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="AC45" s="1" t="s">
+      <c r="AD45" s="1" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>1131</v>
       </c>
@@ -16074,23 +16260,24 @@
       </c>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
-      <c r="Y46" s="1" t="s">
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="Z46" s="1" t="s">
+      <c r="AA46" s="1" t="s">
         <v>1154</v>
       </c>
-      <c r="AA46" s="1" t="s">
+      <c r="AB46" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="AB46" s="1" t="s">
+      <c r="AC46" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="AC46" s="1" t="s">
+      <c r="AD46" s="1" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>1158</v>
       </c>
@@ -16159,23 +16346,24 @@
       </c>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
-      <c r="Y47" s="1" t="s">
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="Z47" s="1" t="s">
+      <c r="AA47" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="AA47" s="1" t="s">
+      <c r="AB47" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="AB47" s="1" t="s">
+      <c r="AC47" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="AC47" s="1" t="s">
+      <c r="AD47" s="1" t="s">
         <v>1184</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>1185</v>
       </c>
@@ -16244,23 +16432,24 @@
       </c>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
-      <c r="Y48" s="1" t="s">
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1" t="s">
         <v>1207</v>
       </c>
-      <c r="Z48" s="1" t="s">
+      <c r="AA48" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="AA48" s="1" t="s">
+      <c r="AB48" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="AB48" s="1" t="s">
+      <c r="AC48" s="1" t="s">
         <v>1210</v>
       </c>
-      <c r="AC48" s="1" t="s">
+      <c r="AD48" s="1" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>1212</v>
       </c>
@@ -16329,23 +16518,24 @@
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
-      <c r="Y49" s="1" t="s">
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1" t="s">
         <v>1234</v>
       </c>
-      <c r="Z49" s="1" t="s">
+      <c r="AA49" s="1" t="s">
         <v>1235</v>
       </c>
-      <c r="AA49" s="1" t="s">
+      <c r="AB49" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="AB49" s="1" t="s">
+      <c r="AC49" s="1" t="s">
         <v>1237</v>
       </c>
-      <c r="AC49" s="1" t="s">
+      <c r="AD49" s="1" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>1239</v>
       </c>
@@ -16414,23 +16604,24 @@
       </c>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
-      <c r="Y50" s="1" t="s">
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="Z50" s="1" t="s">
+      <c r="AA50" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="AA50" s="1" t="s">
+      <c r="AB50" s="1" t="s">
         <v>1263</v>
       </c>
-      <c r="AB50" s="1" t="s">
+      <c r="AC50" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="AC50" s="1" t="s">
+      <c r="AD50" s="1" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>1266</v>
       </c>
@@ -16499,23 +16690,24 @@
       </c>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
-      <c r="Y51" s="1" t="s">
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="Z51" s="1" t="s">
+      <c r="AA51" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="AA51" s="1" t="s">
+      <c r="AB51" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="AB51" s="1" t="s">
+      <c r="AC51" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="AC51" s="1" t="s">
+      <c r="AD51" s="1" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>1293</v>
       </c>
@@ -16584,23 +16776,24 @@
       </c>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
-      <c r="Y52" s="1" t="s">
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1" t="s">
         <v>1315</v>
       </c>
-      <c r="Z52" s="1" t="s">
+      <c r="AA52" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="AA52" s="1" t="s">
+      <c r="AB52" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="AB52" s="1" t="s">
+      <c r="AC52" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="AC52" s="1" t="s">
+      <c r="AD52" s="1" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>1320</v>
       </c>
@@ -16669,23 +16862,24 @@
       </c>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
-      <c r="Y53" s="1" t="s">
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1" t="s">
         <v>1342</v>
       </c>
-      <c r="Z53" s="1" t="s">
+      <c r="AA53" s="1" t="s">
         <v>1343</v>
       </c>
-      <c r="AA53" s="1" t="s">
+      <c r="AB53" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="AB53" s="1" t="s">
+      <c r="AC53" s="1" t="s">
         <v>1345</v>
       </c>
-      <c r="AC53" s="1" t="s">
+      <c r="AD53" s="1" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>1347</v>
       </c>
@@ -16754,23 +16948,24 @@
       </c>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
-      <c r="Y54" s="1" t="s">
+      <c r="Y54" s="1"/>
+      <c r="Z54" s="1" t="s">
         <v>1369</v>
       </c>
-      <c r="Z54" s="1" t="s">
+      <c r="AA54" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="AA54" s="1" t="s">
+      <c r="AB54" s="1" t="s">
         <v>1371</v>
       </c>
-      <c r="AB54" s="1" t="s">
+      <c r="AC54" s="1" t="s">
         <v>1372</v>
       </c>
-      <c r="AC54" s="1" t="s">
+      <c r="AD54" s="1" t="s">
         <v>1373</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>1374</v>
       </c>
@@ -16839,23 +17034,24 @@
       </c>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
-      <c r="Y55" s="1" t="s">
+      <c r="Y55" s="1"/>
+      <c r="Z55" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="Z55" s="1" t="s">
+      <c r="AA55" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="AA55" s="1" t="s">
+      <c r="AB55" s="1" t="s">
         <v>1398</v>
       </c>
-      <c r="AB55" s="1" t="s">
+      <c r="AC55" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="AC55" s="1" t="s">
+      <c r="AD55" s="1" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>1401</v>
       </c>
@@ -16924,23 +17120,24 @@
       </c>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
-      <c r="Y56" s="1" t="s">
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="Z56" s="1" t="s">
+      <c r="AA56" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="AA56" s="1" t="s">
+      <c r="AB56" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="AB56" s="1" t="s">
+      <c r="AC56" s="1" t="s">
         <v>1426</v>
       </c>
-      <c r="AC56" s="1" t="s">
+      <c r="AD56" s="1" t="s">
         <v>1427</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>1428</v>
       </c>
@@ -17009,23 +17206,24 @@
       </c>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
-      <c r="Y57" s="1" t="s">
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="Z57" s="1" t="s">
+      <c r="AA57" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="AA57" s="1" t="s">
+      <c r="AB57" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="AB57" s="1" t="s">
+      <c r="AC57" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="AC57" s="1" t="s">
+      <c r="AD57" s="1" t="s">
         <v>1454</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>1455</v>
       </c>
@@ -17094,23 +17292,24 @@
       </c>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
-      <c r="Y58" s="1" t="s">
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="Z58" s="1" t="s">
+      <c r="AA58" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="AA58" s="1" t="s">
+      <c r="AB58" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="AB58" s="1" t="s">
+      <c r="AC58" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="AC58" s="1" t="s">
+      <c r="AD58" s="1" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1482</v>
       </c>
@@ -17179,23 +17378,24 @@
       </c>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
-      <c r="Y59" s="1" t="s">
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="Z59" s="1" t="s">
+      <c r="AA59" s="1" t="s">
         <v>1505</v>
       </c>
-      <c r="AA59" s="1" t="s">
+      <c r="AB59" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="AB59" s="1" t="s">
+      <c r="AC59" s="1" t="s">
         <v>1507</v>
       </c>
-      <c r="AC59" s="1" t="s">
+      <c r="AD59" s="1" t="s">
         <v>1508</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>1509</v>
       </c>
@@ -17264,23 +17464,24 @@
       </c>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
-      <c r="Y60" s="1" t="s">
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1" t="s">
         <v>1531</v>
       </c>
-      <c r="Z60" s="1" t="s">
+      <c r="AA60" s="1" t="s">
         <v>1532</v>
       </c>
-      <c r="AA60" s="1" t="s">
+      <c r="AB60" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="AB60" s="1" t="s">
+      <c r="AC60" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="AC60" s="1" t="s">
+      <c r="AD60" s="1" t="s">
         <v>1535</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>1536</v>
       </c>
@@ -17349,23 +17550,24 @@
       </c>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
-      <c r="Y61" s="1" t="s">
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="Z61" s="1" t="s">
+      <c r="AA61" s="1" t="s">
         <v>1559</v>
       </c>
-      <c r="AA61" s="1" t="s">
+      <c r="AB61" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="AB61" s="1" t="s">
+      <c r="AC61" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="AC61" s="1" t="s">
+      <c r="AD61" s="1" t="s">
         <v>1562</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1563</v>
       </c>
@@ -17434,23 +17636,24 @@
       </c>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
-      <c r="Y62" s="1" t="s">
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="Z62" s="1" t="s">
+      <c r="AA62" s="1" t="s">
         <v>1586</v>
       </c>
-      <c r="AA62" s="1" t="s">
+      <c r="AB62" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="AB62" s="1" t="s">
+      <c r="AC62" s="1" t="s">
         <v>1588</v>
       </c>
-      <c r="AC62" s="1" t="s">
+      <c r="AD62" s="1" t="s">
         <v>1589</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>1590</v>
       </c>
@@ -17519,23 +17722,24 @@
       </c>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
-      <c r="Y63" s="1" t="s">
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="Z63" s="1" t="s">
+      <c r="AA63" s="1" t="s">
         <v>1613</v>
       </c>
-      <c r="AA63" s="1" t="s">
+      <c r="AB63" s="1" t="s">
         <v>1614</v>
       </c>
-      <c r="AB63" s="1" t="s">
+      <c r="AC63" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="AC63" s="1" t="s">
+      <c r="AD63" s="1" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>1617</v>
       </c>
@@ -17604,23 +17808,24 @@
       </c>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
-      <c r="Y64" s="1" t="s">
+      <c r="Y64" s="1"/>
+      <c r="Z64" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="Z64" s="1" t="s">
+      <c r="AA64" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="AA64" s="1" t="s">
+      <c r="AB64" s="1" t="s">
         <v>1641</v>
       </c>
-      <c r="AB64" s="1" t="s">
+      <c r="AC64" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="AC64" s="1" t="s">
+      <c r="AD64" s="1" t="s">
         <v>1643</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1644</v>
       </c>
@@ -17689,23 +17894,24 @@
       </c>
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
-      <c r="Y65" s="1" t="s">
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1" t="s">
         <v>1666</v>
       </c>
-      <c r="Z65" s="1" t="s">
+      <c r="AA65" s="1" t="s">
         <v>1667</v>
       </c>
-      <c r="AA65" s="1" t="s">
+      <c r="AB65" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="AB65" s="1" t="s">
+      <c r="AC65" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="AC65" s="1" t="s">
+      <c r="AD65" s="1" t="s">
         <v>1670</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>1671</v>
       </c>
@@ -17774,23 +17980,24 @@
       </c>
       <c r="W66" s="1"/>
       <c r="X66" s="1"/>
-      <c r="Y66" s="1" t="s">
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1" t="s">
         <v>1693</v>
       </c>
-      <c r="Z66" s="1" t="s">
+      <c r="AA66" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="AA66" s="1" t="s">
+      <c r="AB66" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="AB66" s="1" t="s">
+      <c r="AC66" s="1" t="s">
         <v>1696</v>
       </c>
-      <c r="AC66" s="1" t="s">
+      <c r="AD66" s="1" t="s">
         <v>1697</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>1698</v>
       </c>
@@ -17859,23 +18066,24 @@
       </c>
       <c r="W67" s="1"/>
       <c r="X67" s="1"/>
-      <c r="Y67" s="1" t="s">
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1" t="s">
         <v>1720</v>
       </c>
-      <c r="Z67" s="1" t="s">
+      <c r="AA67" s="1" t="s">
         <v>1721</v>
       </c>
-      <c r="AA67" s="1" t="s">
+      <c r="AB67" s="1" t="s">
         <v>1722</v>
       </c>
-      <c r="AB67" s="1" t="s">
+      <c r="AC67" s="1" t="s">
         <v>1723</v>
       </c>
-      <c r="AC67" s="1" t="s">
+      <c r="AD67" s="1" t="s">
         <v>1724</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1725</v>
       </c>
@@ -17944,23 +18152,24 @@
       </c>
       <c r="W68" s="1"/>
       <c r="X68" s="1"/>
-      <c r="Y68" s="1" t="s">
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1" t="s">
         <v>1747</v>
       </c>
-      <c r="Z68" s="1" t="s">
+      <c r="AA68" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="AA68" s="1" t="s">
+      <c r="AB68" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="AB68" s="1" t="s">
+      <c r="AC68" s="1" t="s">
         <v>1750</v>
       </c>
-      <c r="AC68" s="1" t="s">
+      <c r="AD68" s="1" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>1752</v>
       </c>
@@ -18029,23 +18238,24 @@
       </c>
       <c r="W69" s="1"/>
       <c r="X69" s="1"/>
-      <c r="Y69" s="1" t="s">
+      <c r="Y69" s="1"/>
+      <c r="Z69" s="1" t="s">
         <v>1774</v>
       </c>
-      <c r="Z69" s="1" t="s">
+      <c r="AA69" s="1" t="s">
         <v>1775</v>
       </c>
-      <c r="AA69" s="1" t="s">
+      <c r="AB69" s="1" t="s">
         <v>1776</v>
       </c>
-      <c r="AB69" s="1" t="s">
+      <c r="AC69" s="1" t="s">
         <v>1777</v>
       </c>
-      <c r="AC69" s="1" t="s">
+      <c r="AD69" s="1" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>1779</v>
       </c>
@@ -18114,23 +18324,24 @@
       </c>
       <c r="W70" s="1"/>
       <c r="X70" s="1"/>
-      <c r="Y70" s="1" t="s">
+      <c r="Y70" s="1"/>
+      <c r="Z70" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="Z70" s="1" t="s">
+      <c r="AA70" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="AA70" s="1" t="s">
+      <c r="AB70" s="1" t="s">
         <v>1803</v>
       </c>
-      <c r="AB70" s="1" t="s">
+      <c r="AC70" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="AC70" s="1" t="s">
+      <c r="AD70" s="1" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>1806</v>
       </c>
@@ -18199,23 +18410,24 @@
       </c>
       <c r="W71" s="1"/>
       <c r="X71" s="1"/>
-      <c r="Y71" s="1" t="s">
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1" t="s">
         <v>3733</v>
       </c>
-      <c r="Z71" s="1" t="s">
+      <c r="AA71" s="1" t="s">
         <v>3745</v>
       </c>
-      <c r="AA71" s="1" t="s">
+      <c r="AB71" s="1" t="s">
         <v>3781</v>
       </c>
-      <c r="AB71" s="1" t="s">
+      <c r="AC71" s="1" t="s">
         <v>3763</v>
       </c>
-      <c r="AC71" s="1" t="s">
+      <c r="AD71" s="1" t="s">
         <v>3764</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>1807</v>
       </c>
@@ -18284,23 +18496,24 @@
       </c>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
-      <c r="Y72" s="1" t="s">
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1" t="s">
         <v>3734</v>
       </c>
-      <c r="Z72" s="1" t="s">
+      <c r="AA72" s="1" t="s">
         <v>3746</v>
       </c>
-      <c r="AA72" s="1" t="s">
+      <c r="AB72" s="1" t="s">
         <v>3782</v>
       </c>
-      <c r="AB72" s="1" t="s">
+      <c r="AC72" s="1" t="s">
         <v>3765</v>
       </c>
-      <c r="AC72" s="1" t="s">
+      <c r="AD72" s="1" t="s">
         <v>3766</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>1808</v>
       </c>
@@ -18369,23 +18582,24 @@
       </c>
       <c r="W73" s="1"/>
       <c r="X73" s="1"/>
-      <c r="Y73" s="1" t="s">
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1" t="s">
         <v>3735</v>
       </c>
-      <c r="Z73" s="1" t="s">
+      <c r="AA73" s="1" t="s">
         <v>3747</v>
       </c>
-      <c r="AA73" s="1" t="s">
+      <c r="AB73" s="1" t="s">
         <v>3783</v>
       </c>
-      <c r="AB73" s="1" t="s">
+      <c r="AC73" s="1" t="s">
         <v>3767</v>
       </c>
-      <c r="AC73" s="1" t="s">
+      <c r="AD73" s="1" t="s">
         <v>3768</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>1809</v>
       </c>
@@ -18454,23 +18668,24 @@
       </c>
       <c r="W74" s="1"/>
       <c r="X74" s="1"/>
-      <c r="Y74" s="1" t="s">
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1" t="s">
         <v>3736</v>
       </c>
-      <c r="Z74" s="1" t="s">
+      <c r="AA74" s="1" t="s">
         <v>3748</v>
       </c>
-      <c r="AA74" s="1" t="s">
+      <c r="AB74" s="1" t="s">
         <v>3784</v>
       </c>
-      <c r="AB74" s="1" t="s">
+      <c r="AC74" s="1" t="s">
         <v>3769</v>
       </c>
-      <c r="AC74" s="1" t="s">
+      <c r="AD74" s="1" t="s">
         <v>3770</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>1810</v>
       </c>
@@ -18539,23 +18754,24 @@
       </c>
       <c r="W75" s="1"/>
       <c r="X75" s="1"/>
-      <c r="Y75" s="1" t="s">
+      <c r="Y75" s="1"/>
+      <c r="Z75" s="1" t="s">
         <v>3737</v>
       </c>
-      <c r="Z75" s="1" t="s">
+      <c r="AA75" s="1" t="s">
         <v>3749</v>
       </c>
-      <c r="AA75" s="1" t="s">
+      <c r="AB75" s="1" t="s">
         <v>3785</v>
       </c>
-      <c r="AB75" s="1" t="s">
+      <c r="AC75" s="1" t="s">
         <v>3771</v>
       </c>
-      <c r="AC75" s="1" t="s">
+      <c r="AD75" s="1" t="s">
         <v>3772</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>1811</v>
       </c>
@@ -18624,23 +18840,24 @@
       </c>
       <c r="W76" s="1"/>
       <c r="X76" s="1"/>
-      <c r="Y76" s="1" t="s">
+      <c r="Y76" s="1"/>
+      <c r="Z76" s="1" t="s">
         <v>3738</v>
       </c>
-      <c r="Z76" s="1" t="s">
+      <c r="AA76" s="1" t="s">
         <v>3750</v>
       </c>
-      <c r="AA76" s="1" t="s">
+      <c r="AB76" s="1" t="s">
         <v>3786</v>
       </c>
-      <c r="AB76" s="1" t="s">
+      <c r="AC76" s="1" t="s">
         <v>3773</v>
       </c>
-      <c r="AC76" s="1" t="s">
+      <c r="AD76" s="1" t="s">
         <v>3774</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>1812</v>
       </c>
@@ -18709,23 +18926,24 @@
       </c>
       <c r="W77" s="1"/>
       <c r="X77" s="1"/>
-      <c r="Y77" s="1" t="s">
+      <c r="Y77" s="1"/>
+      <c r="Z77" s="1" t="s">
         <v>1834</v>
       </c>
-      <c r="Z77" s="1" t="s">
+      <c r="AA77" s="1" t="s">
         <v>1835</v>
       </c>
-      <c r="AA77" s="1" t="s">
+      <c r="AB77" s="1" t="s">
         <v>1836</v>
       </c>
-      <c r="AB77" s="1" t="s">
+      <c r="AC77" s="1" t="s">
         <v>1837</v>
       </c>
-      <c r="AC77" s="1" t="s">
+      <c r="AD77" s="1" t="s">
         <v>1838</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>1839</v>
       </c>
@@ -18794,23 +19012,24 @@
       </c>
       <c r="W78" s="1"/>
       <c r="X78" s="1"/>
-      <c r="Y78" s="1" t="s">
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1" t="s">
         <v>1861</v>
       </c>
-      <c r="Z78" s="1" t="s">
+      <c r="AA78" s="1" t="s">
         <v>1862</v>
       </c>
-      <c r="AA78" s="1" t="s">
+      <c r="AB78" s="1" t="s">
         <v>1863</v>
       </c>
-      <c r="AB78" s="1" t="s">
+      <c r="AC78" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="AC78" s="1" t="s">
+      <c r="AD78" s="1" t="s">
         <v>1865</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>1866</v>
       </c>
@@ -18879,23 +19098,24 @@
       </c>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
-      <c r="Y79" s="1" t="s">
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1" t="s">
         <v>1888</v>
       </c>
-      <c r="Z79" s="1" t="s">
+      <c r="AA79" s="1" t="s">
         <v>1889</v>
       </c>
-      <c r="AA79" s="1" t="s">
+      <c r="AB79" s="1" t="s">
         <v>1890</v>
       </c>
-      <c r="AB79" s="1" t="s">
+      <c r="AC79" s="1" t="s">
         <v>1891</v>
       </c>
-      <c r="AC79" s="1" t="s">
+      <c r="AD79" s="1" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>1893</v>
       </c>
@@ -18964,23 +19184,24 @@
       </c>
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
-      <c r="Y80" s="1" t="s">
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1" t="s">
         <v>1747</v>
       </c>
-      <c r="Z80" s="1" t="s">
+      <c r="AA80" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="AA80" s="1" t="s">
+      <c r="AB80" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="AB80" s="1" t="s">
+      <c r="AC80" s="1" t="s">
         <v>1750</v>
       </c>
-      <c r="AC80" s="1" t="s">
+      <c r="AD80" s="1" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>1894</v>
       </c>
@@ -19049,23 +19270,24 @@
       </c>
       <c r="W81" s="1"/>
       <c r="X81" s="1"/>
-      <c r="Y81" s="1" t="s">
+      <c r="Y81" s="1"/>
+      <c r="Z81" s="1" t="s">
         <v>1774</v>
       </c>
-      <c r="Z81" s="1" t="s">
+      <c r="AA81" s="1" t="s">
         <v>1775</v>
       </c>
-      <c r="AA81" s="1" t="s">
+      <c r="AB81" s="1" t="s">
         <v>1776</v>
       </c>
-      <c r="AB81" s="1" t="s">
+      <c r="AC81" s="1" t="s">
         <v>1777</v>
       </c>
-      <c r="AC81" s="1" t="s">
+      <c r="AD81" s="1" t="s">
         <v>1778</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>1895</v>
       </c>
@@ -19134,23 +19356,24 @@
       </c>
       <c r="W82" s="1"/>
       <c r="X82" s="1"/>
-      <c r="Y82" s="1" t="s">
+      <c r="Y82" s="1"/>
+      <c r="Z82" s="1" t="s">
         <v>1801</v>
       </c>
-      <c r="Z82" s="1" t="s">
+      <c r="AA82" s="1" t="s">
         <v>1802</v>
       </c>
-      <c r="AA82" s="1" t="s">
+      <c r="AB82" s="1" t="s">
         <v>1803</v>
       </c>
-      <c r="AB82" s="1" t="s">
+      <c r="AC82" s="1" t="s">
         <v>1804</v>
       </c>
-      <c r="AC82" s="1" t="s">
+      <c r="AD82" s="1" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>1896</v>
       </c>
@@ -19219,23 +19442,24 @@
       </c>
       <c r="W83" s="1"/>
       <c r="X83" s="1"/>
-      <c r="Y83" s="1" t="s">
+      <c r="Y83" s="1"/>
+      <c r="Z83" s="1" t="s">
         <v>3727</v>
       </c>
-      <c r="Z83" s="1" t="s">
+      <c r="AA83" s="1" t="s">
         <v>3739</v>
       </c>
-      <c r="AA83" s="1" t="s">
+      <c r="AB83" s="1" t="s">
         <v>3775</v>
       </c>
-      <c r="AB83" s="1" t="s">
+      <c r="AC83" s="1" t="s">
         <v>3751</v>
       </c>
-      <c r="AC83" s="1" t="s">
+      <c r="AD83" s="1" t="s">
         <v>3752</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>1897</v>
       </c>
@@ -19304,23 +19528,24 @@
       </c>
       <c r="W84" s="1"/>
       <c r="X84" s="1"/>
-      <c r="Y84" s="1" t="s">
+      <c r="Y84" s="1"/>
+      <c r="Z84" s="1" t="s">
         <v>3728</v>
       </c>
-      <c r="Z84" s="1" t="s">
+      <c r="AA84" s="1" t="s">
         <v>3740</v>
       </c>
-      <c r="AA84" s="1" t="s">
+      <c r="AB84" s="1" t="s">
         <v>3776</v>
       </c>
-      <c r="AB84" s="1" t="s">
+      <c r="AC84" s="1" t="s">
         <v>3753</v>
       </c>
-      <c r="AC84" s="1" t="s">
+      <c r="AD84" s="1" t="s">
         <v>3754</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>1898</v>
       </c>
@@ -19389,23 +19614,24 @@
       </c>
       <c r="W85" s="1"/>
       <c r="X85" s="1"/>
-      <c r="Y85" s="1" t="s">
+      <c r="Y85" s="1"/>
+      <c r="Z85" s="1" t="s">
         <v>3729</v>
       </c>
-      <c r="Z85" s="1" t="s">
+      <c r="AA85" s="1" t="s">
         <v>3741</v>
       </c>
-      <c r="AA85" s="1" t="s">
+      <c r="AB85" s="1" t="s">
         <v>3777</v>
       </c>
-      <c r="AB85" s="1" t="s">
+      <c r="AC85" s="1" t="s">
         <v>3755</v>
       </c>
-      <c r="AC85" s="1" t="s">
+      <c r="AD85" s="1" t="s">
         <v>3756</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>1899</v>
       </c>
@@ -19474,23 +19700,24 @@
       </c>
       <c r="W86" s="1"/>
       <c r="X86" s="1"/>
-      <c r="Y86" s="1" t="s">
+      <c r="Y86" s="1"/>
+      <c r="Z86" s="1" t="s">
         <v>3730</v>
       </c>
-      <c r="Z86" s="1" t="s">
+      <c r="AA86" s="1" t="s">
         <v>3742</v>
       </c>
-      <c r="AA86" s="1" t="s">
+      <c r="AB86" s="1" t="s">
         <v>3778</v>
       </c>
-      <c r="AB86" s="1" t="s">
+      <c r="AC86" s="1" t="s">
         <v>3757</v>
       </c>
-      <c r="AC86" s="1" t="s">
+      <c r="AD86" s="1" t="s">
         <v>3758</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>1900</v>
       </c>
@@ -19559,23 +19786,24 @@
       </c>
       <c r="W87" s="1"/>
       <c r="X87" s="1"/>
-      <c r="Y87" s="1" t="s">
+      <c r="Y87" s="1"/>
+      <c r="Z87" s="1" t="s">
         <v>3731</v>
       </c>
-      <c r="Z87" s="1" t="s">
+      <c r="AA87" s="1" t="s">
         <v>3743</v>
       </c>
-      <c r="AA87" s="1" t="s">
+      <c r="AB87" s="1" t="s">
         <v>3779</v>
       </c>
-      <c r="AB87" s="1" t="s">
+      <c r="AC87" s="1" t="s">
         <v>3759</v>
       </c>
-      <c r="AC87" s="1" t="s">
+      <c r="AD87" s="1" t="s">
         <v>3760</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>1901</v>
       </c>
@@ -19644,23 +19872,24 @@
       </c>
       <c r="W88" s="1"/>
       <c r="X88" s="1"/>
-      <c r="Y88" s="1" t="s">
+      <c r="Y88" s="1"/>
+      <c r="Z88" s="1" t="s">
         <v>3732</v>
       </c>
-      <c r="Z88" s="1" t="s">
+      <c r="AA88" s="1" t="s">
         <v>3744</v>
       </c>
-      <c r="AA88" s="1" t="s">
+      <c r="AB88" s="1" t="s">
         <v>3780</v>
       </c>
-      <c r="AB88" s="1" t="s">
+      <c r="AC88" s="1" t="s">
         <v>3761</v>
       </c>
-      <c r="AC88" s="1" t="s">
+      <c r="AD88" s="1" t="s">
         <v>3762</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>1902</v>
       </c>
@@ -19729,23 +19958,24 @@
       </c>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
-      <c r="Y89" s="1" t="s">
+      <c r="Y89" s="1"/>
+      <c r="Z89" s="1" t="s">
         <v>1924</v>
       </c>
-      <c r="Z89" s="1" t="s">
+      <c r="AA89" s="1" t="s">
         <v>1925</v>
       </c>
-      <c r="AA89" s="1" t="s">
+      <c r="AB89" s="1" t="s">
         <v>1926</v>
       </c>
-      <c r="AB89" s="1" t="s">
+      <c r="AC89" s="1" t="s">
         <v>1927</v>
       </c>
-      <c r="AC89" s="1" t="s">
+      <c r="AD89" s="1" t="s">
         <v>1928</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>1929</v>
       </c>
@@ -19814,23 +20044,24 @@
       </c>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
-      <c r="Y90" s="1" t="s">
+      <c r="Y90" s="1"/>
+      <c r="Z90" s="1" t="s">
         <v>1951</v>
       </c>
-      <c r="Z90" s="1" t="s">
+      <c r="AA90" s="1" t="s">
         <v>1952</v>
       </c>
-      <c r="AA90" s="1" t="s">
+      <c r="AB90" s="1" t="s">
         <v>1953</v>
       </c>
-      <c r="AB90" s="1" t="s">
+      <c r="AC90" s="1" t="s">
         <v>1954</v>
       </c>
-      <c r="AC90" s="1" t="s">
+      <c r="AD90" s="1" t="s">
         <v>1955</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>1956</v>
       </c>
@@ -19899,23 +20130,24 @@
       </c>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
-      <c r="Y91" s="1" t="s">
+      <c r="Y91" s="1"/>
+      <c r="Z91" s="1" t="s">
         <v>1978</v>
       </c>
-      <c r="Z91" s="1" t="s">
+      <c r="AA91" s="1" t="s">
         <v>1979</v>
       </c>
-      <c r="AA91" s="1" t="s">
+      <c r="AB91" s="1" t="s">
         <v>1980</v>
       </c>
-      <c r="AB91" s="1" t="s">
+      <c r="AC91" s="1" t="s">
         <v>1981</v>
       </c>
-      <c r="AC91" s="1" t="s">
+      <c r="AD91" s="1" t="s">
         <v>1982</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>1983</v>
       </c>
@@ -19984,23 +20216,24 @@
       </c>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
-      <c r="Y92" s="1" t="s">
+      <c r="Y92" s="1"/>
+      <c r="Z92" s="1" t="s">
         <v>2005</v>
       </c>
-      <c r="Z92" s="1" t="s">
+      <c r="AA92" s="1" t="s">
         <v>2006</v>
       </c>
-      <c r="AA92" s="1" t="s">
+      <c r="AB92" s="1" t="s">
         <v>2007</v>
       </c>
-      <c r="AB92" s="1" t="s">
+      <c r="AC92" s="1" t="s">
         <v>2008</v>
       </c>
-      <c r="AC92" s="1" t="s">
+      <c r="AD92" s="1" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>2010</v>
       </c>
@@ -20069,23 +20302,24 @@
       </c>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
-      <c r="Y93" s="1" t="s">
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1" t="s">
         <v>2032</v>
       </c>
-      <c r="Z93" s="1" t="s">
+      <c r="AA93" s="1" t="s">
         <v>2033</v>
       </c>
-      <c r="AA93" s="1" t="s">
+      <c r="AB93" s="1" t="s">
         <v>2034</v>
       </c>
-      <c r="AB93" s="1" t="s">
+      <c r="AC93" s="1" t="s">
         <v>2035</v>
       </c>
-      <c r="AC93" s="1" t="s">
+      <c r="AD93" s="1" t="s">
         <v>2036</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>2037</v>
       </c>
@@ -20154,23 +20388,24 @@
       </c>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
-      <c r="Y94" s="1" t="s">
+      <c r="Y94" s="1"/>
+      <c r="Z94" s="1" t="s">
         <v>2059</v>
       </c>
-      <c r="Z94" s="1" t="s">
+      <c r="AA94" s="1" t="s">
         <v>2060</v>
       </c>
-      <c r="AA94" s="1" t="s">
+      <c r="AB94" s="1" t="s">
         <v>2061</v>
       </c>
-      <c r="AB94" s="1" t="s">
+      <c r="AC94" s="1" t="s">
         <v>2062</v>
       </c>
-      <c r="AC94" s="1" t="s">
+      <c r="AD94" s="1" t="s">
         <v>2063</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2064</v>
       </c>
@@ -20239,23 +20474,24 @@
       </c>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
-      <c r="Y95" s="1" t="s">
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1" t="s">
         <v>2086</v>
       </c>
-      <c r="Z95" s="1" t="s">
+      <c r="AA95" s="1" t="s">
         <v>2087</v>
       </c>
-      <c r="AA95" s="1" t="s">
+      <c r="AB95" s="1" t="s">
         <v>2088</v>
       </c>
-      <c r="AB95" s="1" t="s">
+      <c r="AC95" s="1" t="s">
         <v>2089</v>
       </c>
-      <c r="AC95" s="1" t="s">
+      <c r="AD95" s="1" t="s">
         <v>2090</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>2091</v>
       </c>
@@ -20324,23 +20560,24 @@
       </c>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
-      <c r="Y96" s="1" t="s">
+      <c r="Y96" s="1"/>
+      <c r="Z96" s="1" t="s">
         <v>2113</v>
       </c>
-      <c r="Z96" s="1" t="s">
+      <c r="AA96" s="1" t="s">
         <v>2114</v>
       </c>
-      <c r="AA96" s="1" t="s">
+      <c r="AB96" s="1" t="s">
         <v>2115</v>
       </c>
-      <c r="AB96" s="1" t="s">
+      <c r="AC96" s="1" t="s">
         <v>2116</v>
       </c>
-      <c r="AC96" s="1" t="s">
+      <c r="AD96" s="1" t="s">
         <v>2117</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>2118</v>
       </c>
@@ -20409,23 +20646,24 @@
       </c>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
-      <c r="Y97" s="1" t="s">
+      <c r="Y97" s="1"/>
+      <c r="Z97" s="1" t="s">
         <v>2140</v>
       </c>
-      <c r="Z97" s="1" t="s">
+      <c r="AA97" s="1" t="s">
         <v>2141</v>
       </c>
-      <c r="AA97" s="1" t="s">
+      <c r="AB97" s="1" t="s">
         <v>2142</v>
       </c>
-      <c r="AB97" s="1" t="s">
+      <c r="AC97" s="1" t="s">
         <v>2143</v>
       </c>
-      <c r="AC97" s="1" t="s">
+      <c r="AD97" s="1" t="s">
         <v>2144</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>2145</v>
       </c>
@@ -20494,23 +20732,24 @@
       </c>
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
-      <c r="Y98" s="1" t="s">
+      <c r="Y98" s="1"/>
+      <c r="Z98" s="1" t="s">
         <v>2167</v>
       </c>
-      <c r="Z98" s="1" t="s">
+      <c r="AA98" s="1" t="s">
         <v>2168</v>
       </c>
-      <c r="AA98" s="1" t="s">
+      <c r="AB98" s="1" t="s">
         <v>2169</v>
       </c>
-      <c r="AB98" s="1" t="s">
+      <c r="AC98" s="1" t="s">
         <v>2170</v>
       </c>
-      <c r="AC98" s="1" t="s">
+      <c r="AD98" s="1" t="s">
         <v>2171</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>2172</v>
       </c>
@@ -20579,23 +20818,24 @@
       </c>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
-      <c r="Y99" s="1" t="s">
+      <c r="Y99" s="1"/>
+      <c r="Z99" s="1" t="s">
         <v>2194</v>
       </c>
-      <c r="Z99" s="1" t="s">
+      <c r="AA99" s="1" t="s">
         <v>2195</v>
       </c>
-      <c r="AA99" s="1" t="s">
+      <c r="AB99" s="1" t="s">
         <v>2196</v>
       </c>
-      <c r="AB99" s="1" t="s">
+      <c r="AC99" s="1" t="s">
         <v>2197</v>
       </c>
-      <c r="AC99" s="1" t="s">
+      <c r="AD99" s="1" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>2199</v>
       </c>
@@ -20664,23 +20904,24 @@
       </c>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
-      <c r="Y100" s="1" t="s">
+      <c r="Y100" s="1"/>
+      <c r="Z100" s="1" t="s">
         <v>2221</v>
       </c>
-      <c r="Z100" s="1" t="s">
+      <c r="AA100" s="1" t="s">
         <v>2222</v>
       </c>
-      <c r="AA100" s="1" t="s">
+      <c r="AB100" s="1" t="s">
         <v>2223</v>
       </c>
-      <c r="AB100" s="1" t="s">
+      <c r="AC100" s="1" t="s">
         <v>2224</v>
       </c>
-      <c r="AC100" s="1" t="s">
+      <c r="AD100" s="1" t="s">
         <v>2225</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>2226</v>
       </c>
@@ -20749,23 +20990,24 @@
       </c>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
-      <c r="Y101" s="1" t="s">
+      <c r="Y101" s="1"/>
+      <c r="Z101" s="1" t="s">
         <v>2248</v>
       </c>
-      <c r="Z101" s="1" t="s">
+      <c r="AA101" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="AA101" s="1" t="s">
+      <c r="AB101" s="1" t="s">
         <v>2250</v>
       </c>
-      <c r="AB101" s="1" t="s">
+      <c r="AC101" s="1" t="s">
         <v>2251</v>
       </c>
-      <c r="AC101" s="1" t="s">
+      <c r="AD101" s="1" t="s">
         <v>2252</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>2253</v>
       </c>
@@ -20834,23 +21076,24 @@
       </c>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
-      <c r="Y102" s="1" t="s">
+      <c r="Y102" s="1"/>
+      <c r="Z102" s="1" t="s">
         <v>2275</v>
       </c>
-      <c r="Z102" s="1" t="s">
+      <c r="AA102" s="1" t="s">
         <v>2276</v>
       </c>
-      <c r="AA102" s="1" t="s">
+      <c r="AB102" s="1" t="s">
         <v>2277</v>
       </c>
-      <c r="AB102" s="1" t="s">
+      <c r="AC102" s="1" t="s">
         <v>2278</v>
       </c>
-      <c r="AC102" s="1" t="s">
+      <c r="AD102" s="1" t="s">
         <v>2279</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>2280</v>
       </c>
@@ -20919,23 +21162,24 @@
       </c>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
-      <c r="Y103" s="1" t="s">
+      <c r="Y103" s="1"/>
+      <c r="Z103" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="Z103" s="1" t="s">
+      <c r="AA103" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="AA103" s="1" t="s">
+      <c r="AB103" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="AB103" s="1" t="s">
+      <c r="AC103" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="AC103" s="1" t="s">
+      <c r="AD103" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>2281</v>
       </c>
@@ -21004,23 +21248,24 @@
       </c>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
-      <c r="Y104" s="1" t="s">
+      <c r="Y104" s="1"/>
+      <c r="Z104" s="1" t="s">
         <v>2303</v>
       </c>
-      <c r="Z104" s="1" t="s">
+      <c r="AA104" s="1" t="s">
         <v>2304</v>
       </c>
-      <c r="AA104" s="1" t="s">
+      <c r="AB104" s="1" t="s">
         <v>2305</v>
       </c>
-      <c r="AB104" s="1" t="s">
+      <c r="AC104" s="1" t="s">
         <v>2306</v>
       </c>
-      <c r="AC104" s="1" t="s">
+      <c r="AD104" s="1" t="s">
         <v>2307</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>2308</v>
       </c>
@@ -21089,23 +21334,24 @@
       </c>
       <c r="W105" s="1"/>
       <c r="X105" s="1"/>
-      <c r="Y105" s="1" t="s">
+      <c r="Y105" s="1"/>
+      <c r="Z105" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="Z105" s="1" t="s">
+      <c r="AA105" s="1" t="s">
         <v>2331</v>
       </c>
-      <c r="AA105" s="1" t="s">
+      <c r="AB105" s="1" t="s">
         <v>2332</v>
       </c>
-      <c r="AB105" s="1" t="s">
+      <c r="AC105" s="1" t="s">
         <v>2333</v>
       </c>
-      <c r="AC105" s="1" t="s">
+      <c r="AD105" s="1" t="s">
         <v>2334</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>2335</v>
       </c>
@@ -21174,23 +21420,24 @@
       </c>
       <c r="W106" s="1"/>
       <c r="X106" s="1"/>
-      <c r="Y106" s="1" t="s">
+      <c r="Y106" s="1"/>
+      <c r="Z106" s="1" t="s">
         <v>2357</v>
       </c>
-      <c r="Z106" s="1" t="s">
+      <c r="AA106" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="AA106" s="1" t="s">
+      <c r="AB106" s="1" t="s">
         <v>2359</v>
       </c>
-      <c r="AB106" s="1" t="s">
+      <c r="AC106" s="1" t="s">
         <v>2360</v>
       </c>
-      <c r="AC106" s="1" t="s">
+      <c r="AD106" s="1" t="s">
         <v>2361</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>2362</v>
       </c>
@@ -21259,23 +21506,24 @@
       </c>
       <c r="W107" s="1"/>
       <c r="X107" s="1"/>
-      <c r="Y107" s="1" t="s">
+      <c r="Y107" s="1"/>
+      <c r="Z107" s="1" t="s">
         <v>2384</v>
       </c>
-      <c r="Z107" s="1" t="s">
+      <c r="AA107" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="AA107" s="1" t="s">
+      <c r="AB107" s="1" t="s">
         <v>2386</v>
       </c>
-      <c r="AB107" s="1" t="s">
+      <c r="AC107" s="1" t="s">
         <v>2387</v>
       </c>
-      <c r="AC107" s="1" t="s">
+      <c r="AD107" s="1" t="s">
         <v>2388</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>2389</v>
       </c>
@@ -21344,23 +21592,24 @@
       </c>
       <c r="W108" s="1"/>
       <c r="X108" s="1"/>
-      <c r="Y108" s="1" t="s">
+      <c r="Y108" s="1"/>
+      <c r="Z108" s="1" t="s">
         <v>2411</v>
       </c>
-      <c r="Z108" s="1" t="s">
+      <c r="AA108" s="1" t="s">
         <v>2412</v>
       </c>
-      <c r="AA108" s="1" t="s">
+      <c r="AB108" s="1" t="s">
         <v>2413</v>
       </c>
-      <c r="AB108" s="1" t="s">
+      <c r="AC108" s="1" t="s">
         <v>2414</v>
       </c>
-      <c r="AC108" s="1" t="s">
+      <c r="AD108" s="1" t="s">
         <v>2415</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>2416</v>
       </c>
@@ -21429,23 +21678,24 @@
       </c>
       <c r="W109" s="1"/>
       <c r="X109" s="1"/>
-      <c r="Y109" s="1" t="s">
+      <c r="Y109" s="1"/>
+      <c r="Z109" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="Z109" s="1" t="s">
+      <c r="AA109" s="1" t="s">
         <v>2439</v>
       </c>
-      <c r="AA109" s="1" t="s">
+      <c r="AB109" s="1" t="s">
         <v>2440</v>
       </c>
-      <c r="AB109" s="1" t="s">
+      <c r="AC109" s="1" t="s">
         <v>2441</v>
       </c>
-      <c r="AC109" s="1" t="s">
+      <c r="AD109" s="1" t="s">
         <v>2442</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>2443</v>
       </c>
@@ -21514,23 +21764,24 @@
       </c>
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
-      <c r="Y110" s="1" t="s">
+      <c r="Y110" s="1"/>
+      <c r="Z110" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="Z110" s="1" t="s">
+      <c r="AA110" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="AA110" s="1" t="s">
+      <c r="AB110" s="1" t="s">
         <v>2467</v>
       </c>
-      <c r="AB110" s="1" t="s">
+      <c r="AC110" s="1" t="s">
         <v>2468</v>
       </c>
-      <c r="AC110" s="1" t="s">
+      <c r="AD110" s="1" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>2470</v>
       </c>
@@ -21599,23 +21850,24 @@
       </c>
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
-      <c r="Y111" s="1" t="s">
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="Z111" s="1" t="s">
+      <c r="AA111" s="1" t="s">
         <v>2493</v>
       </c>
-      <c r="AA111" s="1" t="s">
+      <c r="AB111" s="1" t="s">
         <v>2494</v>
       </c>
-      <c r="AB111" s="1" t="s">
+      <c r="AC111" s="1" t="s">
         <v>2495</v>
       </c>
-      <c r="AC111" s="1" t="s">
+      <c r="AD111" s="1" t="s">
         <v>2496</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>2497</v>
       </c>
@@ -21684,23 +21936,24 @@
       </c>
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
-      <c r="Y112" s="1" t="s">
+      <c r="Y112" s="1"/>
+      <c r="Z112" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="Z112" s="1" t="s">
+      <c r="AA112" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="AA112" s="1" t="s">
+      <c r="AB112" s="1" t="s">
         <v>2521</v>
       </c>
-      <c r="AB112" s="1" t="s">
+      <c r="AC112" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="AC112" s="1" t="s">
+      <c r="AD112" s="1" t="s">
         <v>2523</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>2524</v>
       </c>
@@ -21769,23 +22022,24 @@
       </c>
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
-      <c r="Y113" s="1" t="s">
+      <c r="Y113" s="1"/>
+      <c r="Z113" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="Z113" s="1" t="s">
+      <c r="AA113" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="AA113" s="1" t="s">
+      <c r="AB113" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="AB113" s="1" t="s">
+      <c r="AC113" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="AC113" s="1" t="s">
+      <c r="AD113" s="1" t="s">
         <v>2550</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>2551</v>
       </c>
@@ -21854,23 +22108,24 @@
       </c>
       <c r="W114" s="1"/>
       <c r="X114" s="1"/>
-      <c r="Y114" s="1" t="s">
+      <c r="Y114" s="1"/>
+      <c r="Z114" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="Z114" s="1" t="s">
+      <c r="AA114" s="1" t="s">
         <v>2574</v>
       </c>
-      <c r="AA114" s="1" t="s">
+      <c r="AB114" s="1" t="s">
         <v>2575</v>
       </c>
-      <c r="AB114" s="1" t="s">
+      <c r="AC114" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="AC114" s="1" t="s">
+      <c r="AD114" s="1" t="s">
         <v>2577</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>2578</v>
       </c>
@@ -21939,23 +22194,24 @@
       </c>
       <c r="W115" s="1"/>
       <c r="X115" s="1"/>
-      <c r="Y115" s="1" t="s">
+      <c r="Y115" s="1"/>
+      <c r="Z115" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="Z115" s="1" t="s">
+      <c r="AA115" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="AA115" s="1" t="s">
+      <c r="AB115" s="1" t="s">
         <v>2602</v>
       </c>
-      <c r="AB115" s="1" t="s">
+      <c r="AC115" s="1" t="s">
         <v>2603</v>
       </c>
-      <c r="AC115" s="1" t="s">
+      <c r="AD115" s="1" t="s">
         <v>2604</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>2605</v>
       </c>
@@ -22024,23 +22280,24 @@
       </c>
       <c r="W116" s="1"/>
       <c r="X116" s="1"/>
-      <c r="Y116" s="1" t="s">
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1" t="s">
         <v>2627</v>
       </c>
-      <c r="Z116" s="1" t="s">
+      <c r="AA116" s="1" t="s">
         <v>2628</v>
       </c>
-      <c r="AA116" s="1" t="s">
+      <c r="AB116" s="1" t="s">
         <v>2629</v>
       </c>
-      <c r="AB116" s="1" t="s">
+      <c r="AC116" s="1" t="s">
         <v>2630</v>
       </c>
-      <c r="AC116" s="1" t="s">
+      <c r="AD116" s="1" t="s">
         <v>2631</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>2632</v>
       </c>
@@ -22109,23 +22366,24 @@
       </c>
       <c r="W117" s="1"/>
       <c r="X117" s="1"/>
-      <c r="Y117" s="1" t="s">
+      <c r="Y117" s="1"/>
+      <c r="Z117" s="1" t="s">
         <v>2654</v>
       </c>
-      <c r="Z117" s="1" t="s">
+      <c r="AA117" s="1" t="s">
         <v>2655</v>
       </c>
-      <c r="AA117" s="1" t="s">
+      <c r="AB117" s="1" t="s">
         <v>2656</v>
       </c>
-      <c r="AB117" s="1" t="s">
+      <c r="AC117" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="AC117" s="1" t="s">
+      <c r="AD117" s="1" t="s">
         <v>2658</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>2659</v>
       </c>
@@ -22194,23 +22452,24 @@
       </c>
       <c r="W118" s="1"/>
       <c r="X118" s="1"/>
-      <c r="Y118" s="1" t="s">
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1" t="s">
         <v>2681</v>
       </c>
-      <c r="Z118" s="1" t="s">
+      <c r="AA118" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="AA118" s="1" t="s">
+      <c r="AB118" s="1" t="s">
         <v>2683</v>
       </c>
-      <c r="AB118" s="1" t="s">
+      <c r="AC118" s="1" t="s">
         <v>2684</v>
       </c>
-      <c r="AC118" s="1" t="s">
+      <c r="AD118" s="1" t="s">
         <v>2685</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>2686</v>
       </c>
@@ -22279,23 +22538,24 @@
       </c>
       <c r="W119" s="1"/>
       <c r="X119" s="1"/>
-      <c r="Y119" s="1" t="s">
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="Z119" s="1" t="s">
+      <c r="AA119" s="1" t="s">
         <v>2709</v>
       </c>
-      <c r="AA119" s="1" t="s">
+      <c r="AB119" s="1" t="s">
         <v>2710</v>
       </c>
-      <c r="AB119" s="1" t="s">
+      <c r="AC119" s="1" t="s">
         <v>2711</v>
       </c>
-      <c r="AC119" s="1" t="s">
+      <c r="AD119" s="1" t="s">
         <v>2712</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>2713</v>
       </c>
@@ -22364,23 +22624,24 @@
       </c>
       <c r="W120" s="1"/>
       <c r="X120" s="1"/>
-      <c r="Y120" s="1" t="s">
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="Z120" s="1" t="s">
+      <c r="AA120" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="AA120" s="1" t="s">
+      <c r="AB120" s="1" t="s">
         <v>2737</v>
       </c>
-      <c r="AB120" s="1" t="s">
+      <c r="AC120" s="1" t="s">
         <v>2738</v>
       </c>
-      <c r="AC120" s="1" t="s">
+      <c r="AD120" s="1" t="s">
         <v>2739</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>2740</v>
       </c>
@@ -22449,23 +22710,24 @@
       </c>
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
-      <c r="Y121" s="1" t="s">
+      <c r="Y121" s="1"/>
+      <c r="Z121" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="Z121" s="1" t="s">
+      <c r="AA121" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="AA121" s="1" t="s">
+      <c r="AB121" s="1" t="s">
         <v>2764</v>
       </c>
-      <c r="AB121" s="1" t="s">
+      <c r="AC121" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="AC121" s="1" t="s">
+      <c r="AD121" s="1" t="s">
         <v>2766</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>2767</v>
       </c>
@@ -22534,23 +22796,24 @@
       </c>
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
-      <c r="Y122" s="1" t="s">
+      <c r="Y122" s="1"/>
+      <c r="Z122" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="Z122" s="1" t="s">
+      <c r="AA122" s="1" t="s">
         <v>2790</v>
       </c>
-      <c r="AA122" s="1" t="s">
+      <c r="AB122" s="1" t="s">
         <v>2791</v>
       </c>
-      <c r="AB122" s="1" t="s">
+      <c r="AC122" s="1" t="s">
         <v>2792</v>
       </c>
-      <c r="AC122" s="1" t="s">
+      <c r="AD122" s="1" t="s">
         <v>2793</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>2794</v>
       </c>
@@ -22619,23 +22882,24 @@
       </c>
       <c r="W123" s="1"/>
       <c r="X123" s="1"/>
-      <c r="Y123" s="1" t="s">
+      <c r="Y123" s="1"/>
+      <c r="Z123" s="1" t="s">
         <v>2816</v>
       </c>
-      <c r="Z123" s="1" t="s">
+      <c r="AA123" s="1" t="s">
         <v>2817</v>
       </c>
-      <c r="AA123" s="1" t="s">
+      <c r="AB123" s="1" t="s">
         <v>2818</v>
       </c>
-      <c r="AB123" s="1" t="s">
+      <c r="AC123" s="1" t="s">
         <v>2819</v>
       </c>
-      <c r="AC123" s="1" t="s">
+      <c r="AD123" s="1" t="s">
         <v>2820</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>2821</v>
       </c>
@@ -22704,23 +22968,24 @@
       </c>
       <c r="W124" s="1"/>
       <c r="X124" s="1"/>
-      <c r="Y124" s="1" t="s">
+      <c r="Y124" s="1"/>
+      <c r="Z124" s="1" t="s">
         <v>2843</v>
       </c>
-      <c r="Z124" s="1" t="s">
+      <c r="AA124" s="1" t="s">
         <v>2844</v>
       </c>
-      <c r="AA124" s="1" t="s">
+      <c r="AB124" s="1" t="s">
         <v>2845</v>
       </c>
-      <c r="AB124" s="1" t="s">
+      <c r="AC124" s="1" t="s">
         <v>2846</v>
       </c>
-      <c r="AC124" s="1" t="s">
+      <c r="AD124" s="1" t="s">
         <v>2847</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>2848</v>
       </c>
@@ -22789,23 +23054,24 @@
       </c>
       <c r="W125" s="1"/>
       <c r="X125" s="1"/>
-      <c r="Y125" s="1" t="s">
+      <c r="Y125" s="1"/>
+      <c r="Z125" s="1" t="s">
         <v>2861</v>
       </c>
-      <c r="Z125" s="1" t="s">
+      <c r="AA125" s="1" t="s">
         <v>3796</v>
       </c>
-      <c r="AA125" s="1" t="s">
+      <c r="AB125" s="1" t="s">
         <v>2862</v>
       </c>
-      <c r="AB125" s="1" t="s">
+      <c r="AC125" s="1" t="s">
         <v>2863</v>
       </c>
-      <c r="AC125" s="1" t="s">
+      <c r="AD125" s="1" t="s">
         <v>2864</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2865</v>
       </c>
@@ -22874,23 +23140,24 @@
       </c>
       <c r="W126" s="1"/>
       <c r="X126" s="1"/>
-      <c r="Y126" s="1" t="s">
+      <c r="Y126" s="1"/>
+      <c r="Z126" s="1" t="s">
         <v>2878</v>
       </c>
-      <c r="Z126" s="1" t="s">
+      <c r="AA126" s="1" t="s">
         <v>3806</v>
       </c>
-      <c r="AA126" s="1" t="s">
+      <c r="AB126" s="1" t="s">
         <v>2879</v>
       </c>
-      <c r="AB126" s="1" t="s">
+      <c r="AC126" s="1" t="s">
         <v>2880</v>
       </c>
-      <c r="AC126" s="1" t="s">
+      <c r="AD126" s="1" t="s">
         <v>2881</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>2882</v>
       </c>
@@ -22959,23 +23226,24 @@
       </c>
       <c r="W127" s="1"/>
       <c r="X127" s="1"/>
-      <c r="Y127" s="1" t="s">
+      <c r="Y127" s="1"/>
+      <c r="Z127" s="1" t="s">
         <v>2895</v>
       </c>
-      <c r="Z127" s="1" t="s">
+      <c r="AA127" s="1" t="s">
         <v>3816</v>
       </c>
-      <c r="AA127" s="1" t="s">
+      <c r="AB127" s="1" t="s">
         <v>2896</v>
       </c>
-      <c r="AB127" s="1" t="s">
+      <c r="AC127" s="1" t="s">
         <v>2897</v>
       </c>
-      <c r="AC127" s="1" t="s">
+      <c r="AD127" s="1" t="s">
         <v>2898</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>2899</v>
       </c>
@@ -23044,23 +23312,24 @@
       </c>
       <c r="W128" s="1"/>
       <c r="X128" s="1"/>
-      <c r="Y128" s="1" t="s">
+      <c r="Y128" s="1"/>
+      <c r="Z128" s="1" t="s">
         <v>2912</v>
       </c>
-      <c r="Z128" s="1" t="s">
+      <c r="AA128" s="1" t="s">
         <v>3826</v>
       </c>
-      <c r="AA128" s="1" t="s">
+      <c r="AB128" s="1" t="s">
         <v>2913</v>
       </c>
-      <c r="AB128" s="1" t="s">
+      <c r="AC128" s="1" t="s">
         <v>2914</v>
       </c>
-      <c r="AC128" s="1" t="s">
+      <c r="AD128" s="1" t="s">
         <v>2915</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>2916</v>
       </c>
@@ -23129,23 +23398,24 @@
       </c>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
-      <c r="Y129" s="1" t="s">
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1" t="s">
         <v>2929</v>
       </c>
-      <c r="Z129" s="1" t="s">
+      <c r="AA129" s="1" t="s">
         <v>3836</v>
       </c>
-      <c r="AA129" s="1" t="s">
+      <c r="AB129" s="1" t="s">
         <v>2930</v>
       </c>
-      <c r="AB129" s="1" t="s">
+      <c r="AC129" s="1" t="s">
         <v>2931</v>
       </c>
-      <c r="AC129" s="1" t="s">
+      <c r="AD129" s="1" t="s">
         <v>2932</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>2933</v>
       </c>
@@ -23214,23 +23484,24 @@
       </c>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
-      <c r="Y130" s="1" t="s">
+      <c r="Y130" s="1"/>
+      <c r="Z130" s="1" t="s">
         <v>2946</v>
       </c>
-      <c r="Z130" s="1" t="s">
+      <c r="AA130" s="1" t="s">
         <v>3846</v>
       </c>
-      <c r="AA130" s="1" t="s">
+      <c r="AB130" s="1" t="s">
         <v>2947</v>
       </c>
-      <c r="AB130" s="1" t="s">
+      <c r="AC130" s="1" t="s">
         <v>2948</v>
       </c>
-      <c r="AC130" s="1" t="s">
+      <c r="AD130" s="1" t="s">
         <v>2949</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>2950</v>
       </c>
@@ -23299,23 +23570,24 @@
       </c>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
-      <c r="Y131" s="1" t="s">
+      <c r="Y131" s="1"/>
+      <c r="Z131" s="1" t="s">
         <v>2972</v>
       </c>
-      <c r="Z131" s="1" t="s">
+      <c r="AA131" s="1" t="s">
         <v>2973</v>
       </c>
-      <c r="AA131" s="1" t="s">
+      <c r="AB131" s="1" t="s">
         <v>2974</v>
       </c>
-      <c r="AB131" s="1" t="s">
+      <c r="AC131" s="1" t="s">
         <v>2975</v>
       </c>
-      <c r="AC131" s="1" t="s">
+      <c r="AD131" s="1" t="s">
         <v>2976</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>2977</v>
       </c>
@@ -23384,23 +23656,24 @@
       </c>
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
-      <c r="Y132" s="1" t="s">
+      <c r="Y132" s="1"/>
+      <c r="Z132" s="1" t="s">
         <v>2999</v>
       </c>
-      <c r="Z132" s="1" t="s">
+      <c r="AA132" s="1" t="s">
         <v>3000</v>
       </c>
-      <c r="AA132" s="1" t="s">
+      <c r="AB132" s="1" t="s">
         <v>3001</v>
       </c>
-      <c r="AB132" s="1" t="s">
+      <c r="AC132" s="1" t="s">
         <v>3002</v>
       </c>
-      <c r="AC132" s="1" t="s">
+      <c r="AD132" s="1" t="s">
         <v>3003</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>3004</v>
       </c>
@@ -23469,23 +23742,24 @@
       </c>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
-      <c r="Y133" s="1" t="s">
+      <c r="Y133" s="1"/>
+      <c r="Z133" s="1" t="s">
         <v>3026</v>
       </c>
-      <c r="Z133" s="1" t="s">
+      <c r="AA133" s="1" t="s">
         <v>3027</v>
       </c>
-      <c r="AA133" s="1" t="s">
+      <c r="AB133" s="1" t="s">
         <v>3028</v>
       </c>
-      <c r="AB133" s="1" t="s">
+      <c r="AC133" s="1" t="s">
         <v>3029</v>
       </c>
-      <c r="AC133" s="1" t="s">
+      <c r="AD133" s="1" t="s">
         <v>3030</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>3031</v>
       </c>
@@ -23554,23 +23828,24 @@
       </c>
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
-      <c r="Y134" s="1" t="s">
+      <c r="Y134" s="1"/>
+      <c r="Z134" s="1" t="s">
         <v>3053</v>
       </c>
-      <c r="Z134" s="1" t="s">
+      <c r="AA134" s="1" t="s">
         <v>3054</v>
       </c>
-      <c r="AA134" s="1" t="s">
+      <c r="AB134" s="1" t="s">
         <v>3055</v>
       </c>
-      <c r="AB134" s="1" t="s">
+      <c r="AC134" s="1" t="s">
         <v>3056</v>
       </c>
-      <c r="AC134" s="1" t="s">
+      <c r="AD134" s="1" t="s">
         <v>3057</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>3058</v>
       </c>
@@ -23639,23 +23914,24 @@
       </c>
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
-      <c r="Y135" s="1" t="s">
+      <c r="Y135" s="1"/>
+      <c r="Z135" s="1" t="s">
         <v>3080</v>
       </c>
-      <c r="Z135" s="1" t="s">
+      <c r="AA135" s="1" t="s">
         <v>3081</v>
       </c>
-      <c r="AA135" s="1" t="s">
+      <c r="AB135" s="1" t="s">
         <v>3082</v>
       </c>
-      <c r="AB135" s="1" t="s">
+      <c r="AC135" s="1" t="s">
         <v>3083</v>
       </c>
-      <c r="AC135" s="1" t="s">
+      <c r="AD135" s="1" t="s">
         <v>3084</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>3085</v>
       </c>
@@ -23724,23 +24000,24 @@
       </c>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
-      <c r="Y136" s="1" t="s">
+      <c r="Y136" s="1"/>
+      <c r="Z136" s="1" t="s">
         <v>3107</v>
       </c>
-      <c r="Z136" s="1" t="s">
+      <c r="AA136" s="1" t="s">
         <v>3108</v>
       </c>
-      <c r="AA136" s="1" t="s">
+      <c r="AB136" s="1" t="s">
         <v>3109</v>
       </c>
-      <c r="AB136" s="1" t="s">
+      <c r="AC136" s="1" t="s">
         <v>3110</v>
       </c>
-      <c r="AC136" s="1" t="s">
+      <c r="AD136" s="1" t="s">
         <v>3111</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>3112</v>
       </c>
@@ -23809,23 +24086,24 @@
       </c>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
-      <c r="Y137" s="1" t="s">
+      <c r="Y137" s="1"/>
+      <c r="Z137" s="1" t="s">
         <v>3125</v>
       </c>
-      <c r="Z137" s="1" t="s">
+      <c r="AA137" s="1" t="s">
         <v>3856</v>
       </c>
-      <c r="AA137" s="1" t="s">
+      <c r="AB137" s="1" t="s">
         <v>3126</v>
       </c>
-      <c r="AB137" s="1" t="s">
+      <c r="AC137" s="1" t="s">
         <v>3127</v>
       </c>
-      <c r="AC137" s="1" t="s">
+      <c r="AD137" s="1" t="s">
         <v>3128</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>3129</v>
       </c>
@@ -23894,23 +24172,24 @@
       </c>
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
-      <c r="Y138" s="1" t="s">
+      <c r="Y138" s="1"/>
+      <c r="Z138" s="1" t="s">
         <v>3142</v>
       </c>
-      <c r="Z138" s="1" t="s">
+      <c r="AA138" s="1" t="s">
         <v>3866</v>
       </c>
-      <c r="AA138" s="1" t="s">
+      <c r="AB138" s="1" t="s">
         <v>3143</v>
       </c>
-      <c r="AB138" s="1" t="s">
+      <c r="AC138" s="1" t="s">
         <v>3144</v>
       </c>
-      <c r="AC138" s="1" t="s">
+      <c r="AD138" s="1" t="s">
         <v>3145</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>3146</v>
       </c>
@@ -23979,23 +24258,24 @@
       </c>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
-      <c r="Y139" s="1" t="s">
+      <c r="Y139" s="1"/>
+      <c r="Z139" s="1" t="s">
         <v>3159</v>
       </c>
-      <c r="Z139" s="1" t="s">
+      <c r="AA139" s="1" t="s">
         <v>3876</v>
       </c>
-      <c r="AA139" s="1" t="s">
+      <c r="AB139" s="1" t="s">
         <v>3160</v>
       </c>
-      <c r="AB139" s="1" t="s">
+      <c r="AC139" s="1" t="s">
         <v>3161</v>
       </c>
-      <c r="AC139" s="1" t="s">
+      <c r="AD139" s="1" t="s">
         <v>3162</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>3163</v>
       </c>
@@ -24064,23 +24344,24 @@
       </c>
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
-      <c r="Y140" s="1" t="s">
+      <c r="Y140" s="1"/>
+      <c r="Z140" s="1" t="s">
         <v>3176</v>
       </c>
-      <c r="Z140" s="1" t="s">
+      <c r="AA140" s="1" t="s">
         <v>3886</v>
       </c>
-      <c r="AA140" s="1" t="s">
+      <c r="AB140" s="1" t="s">
         <v>3177</v>
       </c>
-      <c r="AB140" s="1" t="s">
+      <c r="AC140" s="1" t="s">
         <v>3178</v>
       </c>
-      <c r="AC140" s="1" t="s">
+      <c r="AD140" s="1" t="s">
         <v>3179</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>3180</v>
       </c>
@@ -24149,23 +24430,24 @@
       </c>
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
-      <c r="Y141" s="1" t="s">
+      <c r="Y141" s="1"/>
+      <c r="Z141" s="1" t="s">
         <v>3193</v>
       </c>
-      <c r="Z141" s="1" t="s">
+      <c r="AA141" s="1" t="s">
         <v>3896</v>
       </c>
-      <c r="AA141" s="1" t="s">
+      <c r="AB141" s="1" t="s">
         <v>3194</v>
       </c>
-      <c r="AB141" s="1" t="s">
+      <c r="AC141" s="1" t="s">
         <v>3195</v>
       </c>
-      <c r="AC141" s="1" t="s">
+      <c r="AD141" s="1" t="s">
         <v>3196</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>3197</v>
       </c>
@@ -24234,23 +24516,24 @@
       </c>
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
-      <c r="Y142" s="1" t="s">
+      <c r="Y142" s="1"/>
+      <c r="Z142" s="1" t="s">
         <v>3210</v>
       </c>
-      <c r="Z142" s="1" t="s">
+      <c r="AA142" s="1" t="s">
         <v>3906</v>
       </c>
-      <c r="AA142" s="1" t="s">
+      <c r="AB142" s="1" t="s">
         <v>3211</v>
       </c>
-      <c r="AB142" s="1" t="s">
+      <c r="AC142" s="1" t="s">
         <v>3212</v>
       </c>
-      <c r="AC142" s="1" t="s">
+      <c r="AD142" s="1" t="s">
         <v>3213</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>3214</v>
       </c>
@@ -24319,23 +24602,24 @@
       </c>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
-      <c r="Y143" s="1" t="s">
+      <c r="Y143" s="1"/>
+      <c r="Z143" s="1" t="s">
         <v>3236</v>
       </c>
-      <c r="Z143" s="1" t="s">
+      <c r="AA143" s="1" t="s">
         <v>3237</v>
       </c>
-      <c r="AA143" s="1" t="s">
+      <c r="AB143" s="1" t="s">
         <v>3238</v>
       </c>
-      <c r="AB143" s="1" t="s">
+      <c r="AC143" s="1" t="s">
         <v>3239</v>
       </c>
-      <c r="AC143" s="1" t="s">
+      <c r="AD143" s="1" t="s">
         <v>3240</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>3241</v>
       </c>
@@ -24404,23 +24688,24 @@
       </c>
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
-      <c r="Y144" s="1" t="s">
+      <c r="Y144" s="1"/>
+      <c r="Z144" s="1" t="s">
         <v>3263</v>
       </c>
-      <c r="Z144" s="1" t="s">
+      <c r="AA144" s="1" t="s">
         <v>3264</v>
       </c>
-      <c r="AA144" s="1" t="s">
+      <c r="AB144" s="1" t="s">
         <v>3265</v>
       </c>
-      <c r="AB144" s="1" t="s">
+      <c r="AC144" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="AC144" s="1" t="s">
+      <c r="AD144" s="1" t="s">
         <v>3267</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>3268</v>
       </c>
@@ -24489,23 +24774,24 @@
       </c>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
-      <c r="Y145" s="1" t="s">
+      <c r="Y145" s="1"/>
+      <c r="Z145" s="1" t="s">
         <v>3290</v>
       </c>
-      <c r="Z145" s="1" t="s">
+      <c r="AA145" s="1" t="s">
         <v>3291</v>
       </c>
-      <c r="AA145" s="1" t="s">
+      <c r="AB145" s="1" t="s">
         <v>3292</v>
       </c>
-      <c r="AB145" s="1" t="s">
+      <c r="AC145" s="1" t="s">
         <v>3293</v>
       </c>
-      <c r="AC145" s="1" t="s">
+      <c r="AD145" s="1" t="s">
         <v>3294</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>3295</v>
       </c>
@@ -24574,23 +24860,24 @@
       </c>
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
-      <c r="Y146" s="1" t="s">
+      <c r="Y146" s="1"/>
+      <c r="Z146" s="1" t="s">
         <v>3317</v>
       </c>
-      <c r="Z146" s="1" t="s">
+      <c r="AA146" s="1" t="s">
         <v>3318</v>
       </c>
-      <c r="AA146" s="1" t="s">
+      <c r="AB146" s="1" t="s">
         <v>3319</v>
       </c>
-      <c r="AB146" s="1" t="s">
+      <c r="AC146" s="1" t="s">
         <v>3320</v>
       </c>
-      <c r="AC146" s="1" t="s">
+      <c r="AD146" s="1" t="s">
         <v>3321</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>3322</v>
       </c>
@@ -24659,23 +24946,24 @@
       </c>
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
-      <c r="Y147" s="1" t="s">
+      <c r="Y147" s="1"/>
+      <c r="Z147" s="1" t="s">
         <v>3344</v>
       </c>
-      <c r="Z147" s="1" t="s">
+      <c r="AA147" s="1" t="s">
         <v>3345</v>
       </c>
-      <c r="AA147" s="1" t="s">
+      <c r="AB147" s="1" t="s">
         <v>3346</v>
       </c>
-      <c r="AB147" s="1" t="s">
+      <c r="AC147" s="1" t="s">
         <v>3347</v>
       </c>
-      <c r="AC147" s="1" t="s">
+      <c r="AD147" s="1" t="s">
         <v>3348</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>3349</v>
       </c>
@@ -24744,23 +25032,24 @@
       </c>
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
-      <c r="Y148" s="1" t="s">
+      <c r="Y148" s="1"/>
+      <c r="Z148" s="1" t="s">
         <v>3371</v>
       </c>
-      <c r="Z148" s="1" t="s">
+      <c r="AA148" s="1" t="s">
         <v>3372</v>
       </c>
-      <c r="AA148" s="1" t="s">
+      <c r="AB148" s="1" t="s">
         <v>3373</v>
       </c>
-      <c r="AB148" s="1" t="s">
+      <c r="AC148" s="1" t="s">
         <v>3374</v>
       </c>
-      <c r="AC148" s="1" t="s">
+      <c r="AD148" s="1" t="s">
         <v>3375</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>3376</v>
       </c>
@@ -24829,23 +25118,24 @@
       </c>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
-      <c r="Y149" s="1" t="s">
+      <c r="Y149" s="1"/>
+      <c r="Z149" s="1" t="s">
         <v>3395</v>
       </c>
-      <c r="Z149" s="1" t="s">
+      <c r="AA149" s="1" t="s">
         <v>3396</v>
       </c>
-      <c r="AA149" s="1" t="s">
+      <c r="AB149" s="1" t="s">
         <v>3397</v>
       </c>
-      <c r="AB149" s="1" t="s">
+      <c r="AC149" s="1" t="s">
         <v>3398</v>
       </c>
-      <c r="AC149" s="1" t="s">
+      <c r="AD149" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>3399</v>
       </c>
@@ -24914,23 +25204,24 @@
       </c>
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
-      <c r="Y150" s="1" t="s">
+      <c r="Y150" s="1"/>
+      <c r="Z150" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="Z150" s="1" t="s">
+      <c r="AA150" s="1" t="s">
         <v>2331</v>
       </c>
-      <c r="AA150" s="1" t="s">
+      <c r="AB150" s="1" t="s">
         <v>3419</v>
       </c>
-      <c r="AB150" s="1" t="s">
+      <c r="AC150" s="1" t="s">
         <v>3420</v>
       </c>
-      <c r="AC150" s="1" t="s">
+      <c r="AD150" s="1" t="s">
         <v>2334</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>3421</v>
       </c>
@@ -24999,23 +25290,24 @@
       </c>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
-      <c r="Y151" s="1" t="s">
+      <c r="Y151" s="1"/>
+      <c r="Z151" s="1" t="s">
         <v>3443</v>
       </c>
-      <c r="Z151" s="1" t="s">
+      <c r="AA151" s="1" t="s">
         <v>3444</v>
       </c>
-      <c r="AA151" s="1" t="s">
+      <c r="AB151" s="1" t="s">
         <v>3445</v>
       </c>
-      <c r="AB151" s="1" t="s">
+      <c r="AC151" s="1" t="s">
         <v>3446</v>
       </c>
-      <c r="AC151" s="1" t="s">
+      <c r="AD151" s="1" t="s">
         <v>3447</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>3448</v>
       </c>
@@ -25084,19 +25376,20 @@
       </c>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
-      <c r="Y152" s="1" t="s">
+      <c r="Y152" s="1"/>
+      <c r="Z152" s="1" t="s">
         <v>3470</v>
       </c>
-      <c r="Z152" s="1" t="s">
+      <c r="AA152" s="1" t="s">
         <v>3471</v>
       </c>
-      <c r="AA152" s="1" t="s">
+      <c r="AB152" s="1" t="s">
         <v>3472</v>
       </c>
-      <c r="AB152" s="1" t="s">
+      <c r="AC152" s="1" t="s">
         <v>3473</v>
       </c>
-      <c r="AC152" s="1" t="s">
+      <c r="AD152" s="1" t="s">
         <v>3474</v>
       </c>
     </row>

--- a/VerbConjugation/XLSX/Arm.xlsx
+++ b/VerbConjugation/XLSX/Arm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Library/CloudStorage/GoogleDrive-hovsep443@hotmail.com/My Drive/Dialectal kickstarts/2021 kickstart  - Tehran/Archive/iranian_armenian/VerbConjugation/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9A165F-BCB2-AD41-A640-79CBAF00C209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82096DF-2A99-844C-AC2A-804A4C4B92BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="500" windowWidth="28040" windowHeight="15460" xr2:uid="{B2297C89-19AD-CE43-8C13-F47C72A1FD76}"/>
+    <workbookView xWindow="1860" yWindow="1640" windowWidth="28040" windowHeight="15460" xr2:uid="{B2297C89-19AD-CE43-8C13-F47C72A1FD76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11731,42 +11731,6 @@
     <t>negative of periphrastic future 3PL</t>
   </si>
   <si>
-    <t>periphrastic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>periphrastic future in the past 3PL</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>negative of periphrastic future in the past 3PL</t>
-  </si>
-  <si>
     <t>synthetic future 1SG</t>
   </si>
   <si>
@@ -11803,40 +11767,76 @@
     <t>negative of synthetic future 3PL</t>
   </si>
   <si>
-    <t>synthetic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>synthetic future in the past 3PL</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 1SG</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 2SG</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 3SG</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 1PL</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 2PL</t>
-  </si>
-  <si>
-    <t>negative of synthetic future in the past 3PL</t>
+    <t>future in the past 1SG</t>
+  </si>
+  <si>
+    <t>future in the past 2SG</t>
+  </si>
+  <si>
+    <t>future in the past 3SG</t>
+  </si>
+  <si>
+    <t>future in the past 1PL</t>
+  </si>
+  <si>
+    <t>future in the past 2PL</t>
+  </si>
+  <si>
+    <t>future in the past 3PL</t>
+  </si>
+  <si>
+    <t>negative future in the past 1SG</t>
+  </si>
+  <si>
+    <t>negative future in the past 2SG</t>
+  </si>
+  <si>
+    <t>negative future in the past 3SG</t>
+  </si>
+  <si>
+    <t>negative future in the past 1PL</t>
+  </si>
+  <si>
+    <t>negative future in the past 2PL</t>
+  </si>
+  <si>
+    <t>negative future in the past 3PL</t>
+  </si>
+  <si>
+    <t>conditional past 1SG</t>
+  </si>
+  <si>
+    <t>conditional past 2SG</t>
+  </si>
+  <si>
+    <t>conditional past 3SG</t>
+  </si>
+  <si>
+    <t>conditional past 1PL</t>
+  </si>
+  <si>
+    <t>conditional past 2PL</t>
+  </si>
+  <si>
+    <t>conditional past 3PL</t>
+  </si>
+  <si>
+    <t>negative conditional past 1SG</t>
+  </si>
+  <si>
+    <t>negative conditional past 2SG</t>
+  </si>
+  <si>
+    <t>negative conditional past 3SG</t>
+  </si>
+  <si>
+    <t>negative conditional past 1PL</t>
+  </si>
+  <si>
+    <t>negative conditional past 2PL</t>
+  </si>
+  <si>
+    <t>negative conditional past 3PL</t>
   </si>
 </sst>
 </file>
@@ -12198,7 +12198,7 @@
   <dimension ref="A1:AD152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:XFD152"/>
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22299,7 +22299,7 @@
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>3898</v>
+        <v>3910</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1308</v>
@@ -22385,7 +22385,7 @@
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>3899</v>
+        <v>3911</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1334</v>
@@ -22471,7 +22471,7 @@
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>3900</v>
+        <v>3912</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>1360</v>
@@ -22557,7 +22557,7 @@
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>3901</v>
+        <v>3913</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>1386</v>
@@ -22643,7 +22643,7 @@
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>3902</v>
+        <v>3914</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>1412</v>
@@ -22729,7 +22729,7 @@
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>3903</v>
+        <v>3915</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>1438</v>
@@ -22815,7 +22815,7 @@
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>3904</v>
+        <v>3916</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>1464</v>
@@ -22901,7 +22901,7 @@
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>3905</v>
+        <v>3917</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>1490</v>
@@ -22987,7 +22987,7 @@
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>3906</v>
+        <v>3918</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>1516</v>
@@ -23073,7 +23073,7 @@
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>3907</v>
+        <v>3919</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>1542</v>
@@ -23159,7 +23159,7 @@
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>3908</v>
+        <v>3920</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>1568</v>
@@ -23245,7 +23245,7 @@
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>3909</v>
+        <v>3921</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>1594</v>
@@ -23331,7 +23331,7 @@
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>3910</v>
+        <v>3898</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>2824</v>
@@ -23417,7 +23417,7 @@
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>3911</v>
+        <v>3899</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>2840</v>
@@ -23503,7 +23503,7 @@
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>3912</v>
+        <v>3900</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>2856</v>
@@ -23589,7 +23589,7 @@
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>3913</v>
+        <v>3901</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>2872</v>
@@ -23675,7 +23675,7 @@
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>3914</v>
+        <v>3902</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>2888</v>
@@ -23761,7 +23761,7 @@
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>3915</v>
+        <v>3903</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>2904</v>
@@ -23847,7 +23847,7 @@
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>3916</v>
+        <v>3904</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>2920</v>
@@ -23933,7 +23933,7 @@
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>3917</v>
+        <v>3905</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>2946</v>
@@ -24019,7 +24019,7 @@
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>3918</v>
+        <v>3906</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>2972</v>
@@ -24105,7 +24105,7 @@
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>3919</v>
+        <v>3907</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>2998</v>
@@ -24191,7 +24191,7 @@
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>3920</v>
+        <v>3908</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>3024</v>
@@ -24277,7 +24277,7 @@
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>3921</v>
+        <v>3909</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>3050</v>

--- a/VerbConjugation/XLSX/Arm.xlsx
+++ b/VerbConjugation/XLSX/Arm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Library/CloudStorage/GoogleDrive-hovsep443@hotmail.com/My Drive/Dialectal kickstarts/2021 kickstart  - Tehran/Archive/iranian_armenian/VerbConjugation/XLSX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82096DF-2A99-844C-AC2A-804A4C4B92BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1A8A9E-CB0B-B946-989C-8FFF430E2378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1640" windowWidth="28040" windowHeight="15460" xr2:uid="{B2297C89-19AD-CE43-8C13-F47C72A1FD76}"/>
+    <workbookView xWindow="9260" yWindow="500" windowWidth="28040" windowHeight="15440" xr2:uid="{B2297C89-19AD-CE43-8C13-F47C72A1FD76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7537,9 +7537,6 @@
     <t>չբացեն</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 1SG</t>
-  </si>
-  <si>
     <t>երգիմ</t>
   </si>
   <si>
@@ -7618,9 +7615,6 @@
     <t>բացիմ</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 2SG</t>
-  </si>
-  <si>
     <t>երգիր</t>
   </si>
   <si>
@@ -7699,9 +7693,6 @@
     <t>բացիր</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 3SG</t>
-  </si>
-  <si>
     <t>երգէր</t>
   </si>
   <si>
@@ -7780,9 +7771,6 @@
     <t>բացէր</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 1PL</t>
-  </si>
-  <si>
     <t>երգինք</t>
   </si>
   <si>
@@ -7861,9 +7849,6 @@
     <t>բացինք</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 2PL</t>
-  </si>
-  <si>
     <t>երգիք</t>
   </si>
   <si>
@@ -7942,9 +7927,6 @@
     <t>բացիք</t>
   </si>
   <si>
-    <t>subjunctive past imperfective 3PL</t>
-  </si>
-  <si>
     <t>երգին</t>
   </si>
   <si>
@@ -8023,9 +8005,6 @@
     <t>բացին</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 1SG</t>
-  </si>
-  <si>
     <t>չերգիմ</t>
   </si>
   <si>
@@ -8104,9 +8083,6 @@
     <t>չբացիմ</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 2SG</t>
-  </si>
-  <si>
     <t>չերգիր</t>
   </si>
   <si>
@@ -8185,9 +8161,6 @@
     <t>չբացիր</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 3SG</t>
-  </si>
-  <si>
     <t>չերգէր</t>
   </si>
   <si>
@@ -8266,9 +8239,6 @@
     <t>չբացէր</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 1PL</t>
-  </si>
-  <si>
     <t>չերգինք</t>
   </si>
   <si>
@@ -8347,9 +8317,6 @@
     <t>չբացինք</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 2PL</t>
-  </si>
-  <si>
     <t>չերգիք</t>
   </si>
   <si>
@@ -8428,9 +8395,6 @@
     <t>չբացիք</t>
   </si>
   <si>
-    <t>negative subjunctive past imperfective 3PL</t>
-  </si>
-  <si>
     <t>չերգին</t>
   </si>
   <si>
@@ -11767,42 +11731,6 @@
     <t>negative of synthetic future 3PL</t>
   </si>
   <si>
-    <t>future in the past 1SG</t>
-  </si>
-  <si>
-    <t>future in the past 2SG</t>
-  </si>
-  <si>
-    <t>future in the past 3SG</t>
-  </si>
-  <si>
-    <t>future in the past 1PL</t>
-  </si>
-  <si>
-    <t>future in the past 2PL</t>
-  </si>
-  <si>
-    <t>future in the past 3PL</t>
-  </si>
-  <si>
-    <t>negative future in the past 1SG</t>
-  </si>
-  <si>
-    <t>negative future in the past 2SG</t>
-  </si>
-  <si>
-    <t>negative future in the past 3SG</t>
-  </si>
-  <si>
-    <t>negative future in the past 1PL</t>
-  </si>
-  <si>
-    <t>negative future in the past 2PL</t>
-  </si>
-  <si>
-    <t>negative future in the past 3PL</t>
-  </si>
-  <si>
     <t>conditional past 1SG</t>
   </si>
   <si>
@@ -11837,6 +11765,78 @@
   </si>
   <si>
     <t>negative conditional past 3PL</t>
+  </si>
+  <si>
+    <t>subjunctive past 1SG</t>
+  </si>
+  <si>
+    <t>subjunctive past 2SG</t>
+  </si>
+  <si>
+    <t>subjunctive past 3SG</t>
+  </si>
+  <si>
+    <t>subjunctive past 1PL</t>
+  </si>
+  <si>
+    <t>subjunctive past 2PL</t>
+  </si>
+  <si>
+    <t>subjunctive past 3PL</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 1SG</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 2SG</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 3SG</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 1PL</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 2PL</t>
+  </si>
+  <si>
+    <t>negative subjunctive past 3PL</t>
+  </si>
+  <si>
+    <t>past future 1SG</t>
+  </si>
+  <si>
+    <t>past future 2SG</t>
+  </si>
+  <si>
+    <t>past future 3SG</t>
+  </si>
+  <si>
+    <t>past future 1PL</t>
+  </si>
+  <si>
+    <t>past future 2PL</t>
+  </si>
+  <si>
+    <t>past future 3PL</t>
+  </si>
+  <si>
+    <t>negative past future 1SG</t>
+  </si>
+  <si>
+    <t>negative past future 2SG</t>
+  </si>
+  <si>
+    <t>negative past future 3SG</t>
+  </si>
+  <si>
+    <t>negative past future 1PL</t>
+  </si>
+  <si>
+    <t>negative past future 2PL</t>
+  </si>
+  <si>
+    <t>negative past future 3PL</t>
   </si>
 </sst>
 </file>
@@ -12197,8 +12197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8E2D0E-8979-4D45-B6AA-714C5ED83DA1}">
   <dimension ref="A1:AD152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12553,7 +12553,7 @@
         <v>39</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>3859</v>
+        <v>3847</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>40</v>
@@ -12645,7 +12645,7 @@
         <v>67</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>3860</v>
+        <v>3848</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>68</v>
@@ -12737,7 +12737,7 @@
         <v>95</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>3861</v>
+        <v>3849</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>96</v>
@@ -13627,7 +13627,7 @@
         <v>39</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>3859</v>
+        <v>3847</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>328</v>
@@ -13719,7 +13719,7 @@
         <v>356</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>3862</v>
+        <v>3850</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>357</v>
@@ -13811,7 +13811,7 @@
         <v>385</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>3863</v>
+        <v>3851</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>386</v>
@@ -13903,7 +13903,7 @@
         <v>414</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>3864</v>
+        <v>3852</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>415</v>
@@ -13995,7 +13995,7 @@
         <v>443</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>3865</v>
+        <v>3853</v>
       </c>
       <c r="Z21" s="1" t="s">
         <v>444</v>
@@ -14087,7 +14087,7 @@
         <v>472</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>3866</v>
+        <v>3854</v>
       </c>
       <c r="Z22" s="1" t="s">
         <v>473</v>
@@ -14179,7 +14179,7 @@
         <v>501</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>3867</v>
+        <v>3855</v>
       </c>
       <c r="Z23" s="1" t="s">
         <v>502</v>
@@ -14271,7 +14271,7 @@
         <v>530</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>3868</v>
+        <v>3856</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>531</v>
@@ -14363,7 +14363,7 @@
         <v>559</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>3869</v>
+        <v>3857</v>
       </c>
       <c r="Z25" s="1" t="s">
         <v>560</v>
@@ -14455,7 +14455,7 @@
         <v>588</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>3870</v>
+        <v>3858</v>
       </c>
       <c r="Z26" s="1" t="s">
         <v>589</v>
@@ -14547,7 +14547,7 @@
         <v>617</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>3871</v>
+        <v>3859</v>
       </c>
       <c r="Z27" s="1" t="s">
         <v>618</v>
@@ -14639,7 +14639,7 @@
         <v>646</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>3872</v>
+        <v>3860</v>
       </c>
       <c r="Z28" s="1" t="s">
         <v>647</v>
@@ -14731,7 +14731,7 @@
         <v>675</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>3873</v>
+        <v>3861</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>676</v>
@@ -14823,7 +14823,7 @@
         <v>704</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>3874</v>
+        <v>3862</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>705</v>
@@ -14915,7 +14915,7 @@
         <v>733</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>3875</v>
+        <v>3863</v>
       </c>
       <c r="Z31" s="1" t="s">
         <v>734</v>
@@ -15007,7 +15007,7 @@
         <v>762</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>3876</v>
+        <v>3864</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>763</v>
@@ -15099,7 +15099,7 @@
         <v>791</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>3877</v>
+        <v>3865</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>792</v>
@@ -15185,13 +15185,13 @@
         <v>818</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>3883</v>
+        <v>3871</v>
       </c>
       <c r="X34" s="1" t="s">
-        <v>3884</v>
+        <v>3872</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>3885</v>
+        <v>3873</v>
       </c>
       <c r="Z34" s="1" t="s">
         <v>819</v>
@@ -15283,7 +15283,7 @@
         <v>847</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>3878</v>
+        <v>3866</v>
       </c>
       <c r="Z35" s="1" t="s">
         <v>848</v>
@@ -15375,7 +15375,7 @@
         <v>876</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>3879</v>
+        <v>3867</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>877</v>
@@ -15467,7 +15467,7 @@
         <v>905</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>3880</v>
+        <v>3868</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>906</v>
@@ -15559,7 +15559,7 @@
         <v>934</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>3881</v>
+        <v>3869</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>935</v>
@@ -15651,7 +15651,7 @@
         <v>963</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>3882</v>
+        <v>3870</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>964</v>
@@ -15743,7 +15743,7 @@
         <v>934</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>3881</v>
+        <v>3869</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>991</v>
@@ -16282,85 +16282,85 @@
         <v>1782</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3427</v>
+        <v>3415</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>3433</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>3445</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>3457</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>3469</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>3481</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>3493</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>3505</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>3517</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>3529</v>
       </c>
-      <c r="K47" s="1" t="s">
+      <c r="L47" s="1" t="s">
         <v>3541</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="M47" s="1" t="s">
         <v>3553</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="N47" s="1" t="s">
         <v>3565</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="O47" s="1" t="s">
         <v>3577</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="P47" s="1" t="s">
         <v>3589</v>
       </c>
-      <c r="P47" s="1" t="s">
-        <v>3601</v>
-      </c>
       <c r="Q47" s="1" t="s">
-        <v>3619</v>
+        <v>3607</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>3620</v>
+        <v>3608</v>
       </c>
       <c r="S47" s="1" t="s">
+        <v>3625</v>
+      </c>
+      <c r="T47" s="1" t="s">
         <v>3637</v>
       </c>
-      <c r="T47" s="1" t="s">
+      <c r="U47" s="1" t="s">
         <v>3649</v>
       </c>
-      <c r="U47" s="1" t="s">
+      <c r="V47" s="1" t="s">
         <v>3661</v>
-      </c>
-      <c r="V47" s="1" t="s">
-        <v>3673</v>
       </c>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1" t="s">
+        <v>3673</v>
+      </c>
+      <c r="AA47" s="1" t="s">
         <v>3685</v>
       </c>
-      <c r="AA47" s="1" t="s">
-        <v>3697</v>
-      </c>
       <c r="AB47" s="1" t="s">
-        <v>3733</v>
+        <v>3721</v>
       </c>
       <c r="AC47" s="1" t="s">
-        <v>3715</v>
+        <v>3703</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>3716</v>
+        <v>3704</v>
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
@@ -16368,85 +16368,85 @@
         <v>1783</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3428</v>
+        <v>3416</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>3446</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>3458</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>3470</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>3482</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>3494</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>3506</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="J48" s="1" t="s">
         <v>3518</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>3530</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="L48" s="1" t="s">
         <v>3542</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="M48" s="1" t="s">
         <v>3554</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="N48" s="1" t="s">
         <v>3566</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="O48" s="1" t="s">
         <v>3578</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="P48" s="1" t="s">
         <v>3590</v>
       </c>
-      <c r="P48" s="1" t="s">
-        <v>3602</v>
-      </c>
       <c r="Q48" s="1" t="s">
-        <v>3621</v>
+        <v>3609</v>
       </c>
       <c r="R48" s="1" t="s">
-        <v>3622</v>
+        <v>3610</v>
       </c>
       <c r="S48" s="1" t="s">
+        <v>3626</v>
+      </c>
+      <c r="T48" s="1" t="s">
         <v>3638</v>
       </c>
-      <c r="T48" s="1" t="s">
+      <c r="U48" s="1" t="s">
         <v>3650</v>
       </c>
-      <c r="U48" s="1" t="s">
+      <c r="V48" s="1" t="s">
         <v>3662</v>
-      </c>
-      <c r="V48" s="1" t="s">
-        <v>3674</v>
       </c>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1" t="s">
+        <v>3674</v>
+      </c>
+      <c r="AA48" s="1" t="s">
         <v>3686</v>
       </c>
-      <c r="AA48" s="1" t="s">
-        <v>3698</v>
-      </c>
       <c r="AB48" s="1" t="s">
-        <v>3734</v>
+        <v>3722</v>
       </c>
       <c r="AC48" s="1" t="s">
-        <v>3717</v>
+        <v>3705</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>3718</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
@@ -16454,85 +16454,85 @@
         <v>1784</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3429</v>
+        <v>3417</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>3447</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>3459</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>3471</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>3483</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>3495</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>3507</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>3519</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="K49" s="1" t="s">
         <v>3531</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>3543</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="M49" s="1" t="s">
         <v>3555</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>3567</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>3579</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="P49" s="1" t="s">
         <v>3591</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>3603</v>
-      </c>
       <c r="Q49" s="1" t="s">
-        <v>3623</v>
+        <v>3611</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>3624</v>
+        <v>3612</v>
       </c>
       <c r="S49" s="1" t="s">
+        <v>3627</v>
+      </c>
+      <c r="T49" s="1" t="s">
         <v>3639</v>
       </c>
-      <c r="T49" s="1" t="s">
+      <c r="U49" s="1" t="s">
         <v>3651</v>
       </c>
-      <c r="U49" s="1" t="s">
+      <c r="V49" s="1" t="s">
         <v>3663</v>
-      </c>
-      <c r="V49" s="1" t="s">
-        <v>3675</v>
       </c>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1" t="s">
+        <v>3675</v>
+      </c>
+      <c r="AA49" s="1" t="s">
         <v>3687</v>
       </c>
-      <c r="AA49" s="1" t="s">
-        <v>3699</v>
-      </c>
       <c r="AB49" s="1" t="s">
-        <v>3735</v>
+        <v>3723</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>3719</v>
+        <v>3707</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>3720</v>
+        <v>3708</v>
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
@@ -16540,85 +16540,85 @@
         <v>1785</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3430</v>
+        <v>3418</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>3436</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>3448</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>3460</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>3472</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>3484</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>3496</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>3508</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>3520</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="K50" s="1" t="s">
         <v>3532</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="L50" s="1" t="s">
         <v>3544</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="M50" s="1" t="s">
         <v>3556</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="N50" s="1" t="s">
         <v>3568</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="O50" s="1" t="s">
         <v>3580</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="P50" s="1" t="s">
         <v>3592</v>
       </c>
-      <c r="P50" s="1" t="s">
-        <v>3604</v>
-      </c>
       <c r="Q50" s="1" t="s">
-        <v>3625</v>
+        <v>3613</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>3626</v>
+        <v>3614</v>
       </c>
       <c r="S50" s="1" t="s">
+        <v>3628</v>
+      </c>
+      <c r="T50" s="1" t="s">
         <v>3640</v>
       </c>
-      <c r="T50" s="1" t="s">
+      <c r="U50" s="1" t="s">
         <v>3652</v>
       </c>
-      <c r="U50" s="1" t="s">
+      <c r="V50" s="1" t="s">
         <v>3664</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>3676</v>
       </c>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
       <c r="Z50" s="1" t="s">
+        <v>3676</v>
+      </c>
+      <c r="AA50" s="1" t="s">
         <v>3688</v>
       </c>
-      <c r="AA50" s="1" t="s">
-        <v>3700</v>
-      </c>
       <c r="AB50" s="1" t="s">
-        <v>3736</v>
+        <v>3724</v>
       </c>
       <c r="AC50" s="1" t="s">
-        <v>3721</v>
+        <v>3709</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>3722</v>
+        <v>3710</v>
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
@@ -16626,85 +16626,85 @@
         <v>1786</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>3431</v>
+        <v>3419</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>3437</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>3449</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>3461</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>3473</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>3485</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>3497</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>3509</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>3521</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>3533</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="L51" s="1" t="s">
         <v>3545</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="M51" s="1" t="s">
         <v>3557</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="N51" s="1" t="s">
         <v>3569</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="O51" s="1" t="s">
         <v>3581</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="P51" s="1" t="s">
         <v>3593</v>
       </c>
-      <c r="P51" s="1" t="s">
-        <v>3605</v>
-      </c>
       <c r="Q51" s="1" t="s">
-        <v>3627</v>
+        <v>3615</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>3628</v>
+        <v>3616</v>
       </c>
       <c r="S51" s="1" t="s">
+        <v>3629</v>
+      </c>
+      <c r="T51" s="1" t="s">
         <v>3641</v>
       </c>
-      <c r="T51" s="1" t="s">
+      <c r="U51" s="1" t="s">
         <v>3653</v>
       </c>
-      <c r="U51" s="1" t="s">
+      <c r="V51" s="1" t="s">
         <v>3665</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>3677</v>
       </c>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1" t="s">
+        <v>3677</v>
+      </c>
+      <c r="AA51" s="1" t="s">
         <v>3689</v>
       </c>
-      <c r="AA51" s="1" t="s">
-        <v>3701</v>
-      </c>
       <c r="AB51" s="1" t="s">
-        <v>3737</v>
+        <v>3725</v>
       </c>
       <c r="AC51" s="1" t="s">
-        <v>3723</v>
+        <v>3711</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>3724</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
@@ -16712,85 +16712,85 @@
         <v>1787</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3432</v>
+        <v>3420</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>3450</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>3462</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>3474</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>3486</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>3498</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>3510</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>3522</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="K52" s="1" t="s">
         <v>3534</v>
       </c>
-      <c r="K52" s="1" t="s">
+      <c r="L52" s="1" t="s">
         <v>3546</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="M52" s="1" t="s">
         <v>3558</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="N52" s="1" t="s">
         <v>3570</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="O52" s="1" t="s">
         <v>3582</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="P52" s="1" t="s">
         <v>3594</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>3606</v>
-      </c>
       <c r="Q52" s="1" t="s">
-        <v>3629</v>
+        <v>3617</v>
       </c>
       <c r="R52" s="1" t="s">
+        <v>3618</v>
+      </c>
+      <c r="S52" s="1" t="s">
         <v>3630</v>
       </c>
-      <c r="S52" s="1" t="s">
+      <c r="T52" s="1" t="s">
         <v>3642</v>
       </c>
-      <c r="T52" s="1" t="s">
+      <c r="U52" s="1" t="s">
         <v>3654</v>
       </c>
-      <c r="U52" s="1" t="s">
+      <c r="V52" s="1" t="s">
         <v>3666</v>
-      </c>
-      <c r="V52" s="1" t="s">
-        <v>3678</v>
       </c>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1" t="s">
+        <v>3678</v>
+      </c>
+      <c r="AA52" s="1" t="s">
         <v>3690</v>
       </c>
-      <c r="AA52" s="1" t="s">
-        <v>3702</v>
-      </c>
       <c r="AB52" s="1" t="s">
-        <v>3738</v>
+        <v>3726</v>
       </c>
       <c r="AC52" s="1" t="s">
-        <v>3725</v>
+        <v>3713</v>
       </c>
       <c r="AD52" s="1" t="s">
-        <v>3726</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
@@ -17314,85 +17314,85 @@
         <v>1872</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>3433</v>
+        <v>3421</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>3427</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>3439</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>3451</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>3463</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>3475</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>3487</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" s="1" t="s">
         <v>3499</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="J59" s="1" t="s">
         <v>3511</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="K59" s="1" t="s">
         <v>3523</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>3535</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>3547</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>3559</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>3571</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="P59" s="1" t="s">
         <v>3583</v>
       </c>
-      <c r="P59" s="1" t="s">
+      <c r="Q59" s="1" t="s">
         <v>3595</v>
       </c>
-      <c r="Q59" s="1" t="s">
-        <v>3607</v>
-      </c>
       <c r="R59" s="1" t="s">
-        <v>3608</v>
+        <v>3596</v>
       </c>
       <c r="S59" s="1" t="s">
+        <v>3619</v>
+      </c>
+      <c r="T59" s="1" t="s">
         <v>3631</v>
       </c>
-      <c r="T59" s="1" t="s">
+      <c r="U59" s="1" t="s">
         <v>3643</v>
       </c>
-      <c r="U59" s="1" t="s">
+      <c r="V59" s="1" t="s">
         <v>3655</v>
-      </c>
-      <c r="V59" s="1" t="s">
-        <v>3667</v>
       </c>
       <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1" t="s">
+        <v>3667</v>
+      </c>
+      <c r="AA59" s="1" t="s">
         <v>3679</v>
       </c>
-      <c r="AA59" s="1" t="s">
+      <c r="AB59" s="1" t="s">
+        <v>3715</v>
+      </c>
+      <c r="AC59" s="1" t="s">
         <v>3691</v>
       </c>
-      <c r="AB59" s="1" t="s">
-        <v>3727</v>
-      </c>
-      <c r="AC59" s="1" t="s">
-        <v>3703</v>
-      </c>
       <c r="AD59" s="1" t="s">
-        <v>3704</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.2">
@@ -17400,85 +17400,85 @@
         <v>1873</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>3434</v>
+        <v>3422</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>3428</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>3440</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>3452</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>3464</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>3476</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>3488</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>3500</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="J60" s="1" t="s">
         <v>3512</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="K60" s="1" t="s">
         <v>3524</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>3536</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="M60" s="1" t="s">
         <v>3548</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="N60" s="1" t="s">
         <v>3560</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>3572</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="P60" s="1" t="s">
         <v>3584</v>
       </c>
-      <c r="P60" s="1" t="s">
-        <v>3596</v>
-      </c>
       <c r="Q60" s="1" t="s">
-        <v>3609</v>
+        <v>3597</v>
       </c>
       <c r="R60" s="1" t="s">
-        <v>3610</v>
+        <v>3598</v>
       </c>
       <c r="S60" s="1" t="s">
+        <v>3620</v>
+      </c>
+      <c r="T60" s="1" t="s">
         <v>3632</v>
       </c>
-      <c r="T60" s="1" t="s">
+      <c r="U60" s="1" t="s">
         <v>3644</v>
       </c>
-      <c r="U60" s="1" t="s">
+      <c r="V60" s="1" t="s">
         <v>3656</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>3668</v>
       </c>
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1" t="s">
+        <v>3668</v>
+      </c>
+      <c r="AA60" s="1" t="s">
         <v>3680</v>
       </c>
-      <c r="AA60" s="1" t="s">
-        <v>3692</v>
-      </c>
       <c r="AB60" s="1" t="s">
-        <v>3728</v>
+        <v>3716</v>
       </c>
       <c r="AC60" s="1" t="s">
-        <v>3705</v>
+        <v>3693</v>
       </c>
       <c r="AD60" s="1" t="s">
-        <v>3706</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
@@ -17486,85 +17486,85 @@
         <v>1874</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>3435</v>
+        <v>3423</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>3441</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>3453</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>3465</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>3477</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>3489</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>3501</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="J61" s="1" t="s">
         <v>3513</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="K61" s="1" t="s">
         <v>3525</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>3537</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>3549</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="N61" s="1" t="s">
         <v>3561</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="O61" s="1" t="s">
         <v>3573</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="P61" s="1" t="s">
         <v>3585</v>
       </c>
-      <c r="P61" s="1" t="s">
-        <v>3597</v>
-      </c>
       <c r="Q61" s="1" t="s">
-        <v>3611</v>
+        <v>3599</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>3612</v>
+        <v>3600</v>
       </c>
       <c r="S61" s="1" t="s">
+        <v>3621</v>
+      </c>
+      <c r="T61" s="1" t="s">
         <v>3633</v>
       </c>
-      <c r="T61" s="1" t="s">
+      <c r="U61" s="1" t="s">
         <v>3645</v>
       </c>
-      <c r="U61" s="1" t="s">
+      <c r="V61" s="1" t="s">
         <v>3657</v>
-      </c>
-      <c r="V61" s="1" t="s">
-        <v>3669</v>
       </c>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1" t="s">
+        <v>3669</v>
+      </c>
+      <c r="AA61" s="1" t="s">
         <v>3681</v>
       </c>
-      <c r="AA61" s="1" t="s">
-        <v>3693</v>
-      </c>
       <c r="AB61" s="1" t="s">
-        <v>3729</v>
+        <v>3717</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>3707</v>
+        <v>3695</v>
       </c>
       <c r="AD61" s="1" t="s">
-        <v>3708</v>
+        <v>3696</v>
       </c>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.2">
@@ -17572,85 +17572,85 @@
         <v>1875</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>3436</v>
+        <v>3424</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>3442</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>3454</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>3466</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>3478</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>3490</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" s="1" t="s">
         <v>3502</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="J62" s="1" t="s">
         <v>3514</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="K62" s="1" t="s">
         <v>3526</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>3538</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>3550</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="N62" s="1" t="s">
         <v>3562</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="O62" s="1" t="s">
         <v>3574</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="P62" s="1" t="s">
         <v>3586</v>
       </c>
-      <c r="P62" s="1" t="s">
-        <v>3598</v>
-      </c>
       <c r="Q62" s="1" t="s">
-        <v>3613</v>
+        <v>3601</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>3614</v>
+        <v>3602</v>
       </c>
       <c r="S62" s="1" t="s">
+        <v>3622</v>
+      </c>
+      <c r="T62" s="1" t="s">
         <v>3634</v>
       </c>
-      <c r="T62" s="1" t="s">
+      <c r="U62" s="1" t="s">
         <v>3646</v>
       </c>
-      <c r="U62" s="1" t="s">
+      <c r="V62" s="1" t="s">
         <v>3658</v>
-      </c>
-      <c r="V62" s="1" t="s">
-        <v>3670</v>
       </c>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1" t="s">
+        <v>3670</v>
+      </c>
+      <c r="AA62" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="AA62" s="1" t="s">
-        <v>3694</v>
-      </c>
       <c r="AB62" s="1" t="s">
-        <v>3730</v>
+        <v>3718</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>3709</v>
+        <v>3697</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>3710</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.2">
@@ -17658,85 +17658,85 @@
         <v>1876</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>3437</v>
+        <v>3425</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>3443</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>3455</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>3467</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>3479</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>3491</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" s="1" t="s">
         <v>3503</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="J63" s="1" t="s">
         <v>3515</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="K63" s="1" t="s">
         <v>3527</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>3539</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>3551</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="N63" s="1" t="s">
         <v>3563</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="O63" s="1" t="s">
         <v>3575</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="P63" s="1" t="s">
         <v>3587</v>
       </c>
-      <c r="P63" s="1" t="s">
-        <v>3599</v>
-      </c>
       <c r="Q63" s="1" t="s">
-        <v>3615</v>
+        <v>3603</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>3616</v>
+        <v>3604</v>
       </c>
       <c r="S63" s="1" t="s">
+        <v>3623</v>
+      </c>
+      <c r="T63" s="1" t="s">
         <v>3635</v>
       </c>
-      <c r="T63" s="1" t="s">
+      <c r="U63" s="1" t="s">
         <v>3647</v>
       </c>
-      <c r="U63" s="1" t="s">
+      <c r="V63" s="1" t="s">
         <v>3659</v>
-      </c>
-      <c r="V63" s="1" t="s">
-        <v>3671</v>
       </c>
       <c r="W63" s="1"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1" t="s">
+        <v>3671</v>
+      </c>
+      <c r="AA63" s="1" t="s">
         <v>3683</v>
       </c>
-      <c r="AA63" s="1" t="s">
-        <v>3695</v>
-      </c>
       <c r="AB63" s="1" t="s">
-        <v>3731</v>
+        <v>3719</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>3711</v>
+        <v>3699</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>3712</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
@@ -17744,85 +17744,85 @@
         <v>1877</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>3438</v>
+        <v>3426</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>3444</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>3456</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>3468</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>3480</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>3492</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="I64" s="1" t="s">
         <v>3504</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="J64" s="1" t="s">
         <v>3516</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="K64" s="1" t="s">
         <v>3528</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="L64" s="1" t="s">
         <v>3540</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="M64" s="1" t="s">
         <v>3552</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="N64" s="1" t="s">
         <v>3564</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="O64" s="1" t="s">
         <v>3576</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="P64" s="1" t="s">
         <v>3588</v>
       </c>
-      <c r="P64" s="1" t="s">
-        <v>3600</v>
-      </c>
       <c r="Q64" s="1" t="s">
-        <v>3617</v>
+        <v>3605</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>3618</v>
+        <v>3606</v>
       </c>
       <c r="S64" s="1" t="s">
+        <v>3624</v>
+      </c>
+      <c r="T64" s="1" t="s">
         <v>3636</v>
       </c>
-      <c r="T64" s="1" t="s">
+      <c r="U64" s="1" t="s">
         <v>3648</v>
       </c>
-      <c r="U64" s="1" t="s">
+      <c r="V64" s="1" t="s">
         <v>3660</v>
-      </c>
-      <c r="V64" s="1" t="s">
-        <v>3672</v>
       </c>
       <c r="W64" s="1"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1" t="s">
+        <v>3672</v>
+      </c>
+      <c r="AA64" s="1" t="s">
         <v>3684</v>
       </c>
-      <c r="AA64" s="1" t="s">
-        <v>3696</v>
-      </c>
       <c r="AB64" s="1" t="s">
-        <v>3732</v>
+        <v>3720</v>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>3713</v>
+        <v>3701</v>
       </c>
       <c r="AD64" s="1" t="s">
-        <v>3714</v>
+        <v>3702</v>
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.2">
@@ -19891,1039 +19891,1039 @@
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>3910</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>2500</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>2501</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>2503</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>2507</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="J89" s="1" t="s">
         <v>2508</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="K89" s="1" t="s">
         <v>2509</v>
       </c>
-      <c r="K89" s="1" t="s">
+      <c r="L89" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>2511</v>
       </c>
-      <c r="M89" s="1" t="s">
+      <c r="N89" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="N89" s="1" t="s">
+      <c r="O89" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="O89" s="1" t="s">
+      <c r="P89" s="1" t="s">
         <v>2514</v>
       </c>
-      <c r="P89" s="1" t="s">
+      <c r="Q89" s="1" t="s">
         <v>2515</v>
       </c>
-      <c r="Q89" s="1" t="s">
+      <c r="R89" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="R89" s="1" t="s">
+      <c r="S89" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="S89" s="1" t="s">
+      <c r="T89" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="T89" s="1" t="s">
+      <c r="U89" s="1" t="s">
         <v>2519</v>
       </c>
-      <c r="U89" s="1" t="s">
+      <c r="V89" s="1" t="s">
         <v>2520</v>
-      </c>
-      <c r="V89" s="1" t="s">
-        <v>2521</v>
       </c>
       <c r="W89" s="1"/>
       <c r="X89" s="1"/>
       <c r="Y89" s="1"/>
       <c r="Z89" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="AA89" s="1" t="s">
         <v>2522</v>
       </c>
-      <c r="AA89" s="1" t="s">
+      <c r="AB89" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="AB89" s="1" t="s">
+      <c r="AC89" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="AC89" s="1" t="s">
+      <c r="AD89" s="1" t="s">
         <v>2525</v>
-      </c>
-      <c r="AD89" s="1" t="s">
-        <v>2526</v>
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="D90" s="1" t="s">
         <v>2528</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>2530</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>2531</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>2532</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="I90" s="1" t="s">
         <v>2533</v>
       </c>
-      <c r="H90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>2534</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="K90" s="1" t="s">
         <v>2535</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="L90" s="1" t="s">
         <v>2536</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="N90" s="1" t="s">
         <v>2538</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="O90" s="1" t="s">
         <v>2539</v>
       </c>
-      <c r="N90" s="1" t="s">
+      <c r="P90" s="1" t="s">
         <v>2540</v>
       </c>
-      <c r="O90" s="1" t="s">
+      <c r="Q90" s="1" t="s">
         <v>2541</v>
       </c>
-      <c r="P90" s="1" t="s">
+      <c r="R90" s="1" t="s">
         <v>2542</v>
       </c>
-      <c r="Q90" s="1" t="s">
+      <c r="S90" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="R90" s="1" t="s">
+      <c r="T90" s="1" t="s">
         <v>2544</v>
       </c>
-      <c r="S90" s="1" t="s">
+      <c r="U90" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="T90" s="1" t="s">
+      <c r="V90" s="1" t="s">
         <v>2546</v>
-      </c>
-      <c r="U90" s="1" t="s">
-        <v>2547</v>
-      </c>
-      <c r="V90" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="W90" s="1"/>
       <c r="X90" s="1"/>
       <c r="Y90" s="1"/>
       <c r="Z90" s="1" t="s">
+        <v>2547</v>
+      </c>
+      <c r="AA90" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="AB90" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="AA90" s="1" t="s">
+      <c r="AC90" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="AB90" s="1" t="s">
+      <c r="AD90" s="1" t="s">
         <v>2551</v>
-      </c>
-      <c r="AC90" s="1" t="s">
-        <v>2552</v>
-      </c>
-      <c r="AD90" s="1" t="s">
-        <v>2553</v>
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>3912</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>2554</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>2555</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>2556</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>2557</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>2558</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="I91" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="J91" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="K91" s="1" t="s">
         <v>2561</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="L91" s="1" t="s">
         <v>2562</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="M91" s="1" t="s">
         <v>2563</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="N91" s="1" t="s">
         <v>2564</v>
       </c>
-      <c r="L91" s="1" t="s">
+      <c r="O91" s="1" t="s">
         <v>2565</v>
       </c>
-      <c r="M91" s="1" t="s">
+      <c r="P91" s="1" t="s">
         <v>2566</v>
       </c>
-      <c r="N91" s="1" t="s">
+      <c r="Q91" s="1" t="s">
         <v>2567</v>
       </c>
-      <c r="O91" s="1" t="s">
+      <c r="R91" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="P91" s="1" t="s">
+      <c r="S91" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="Q91" s="1" t="s">
+      <c r="T91" s="1" t="s">
         <v>2570</v>
       </c>
-      <c r="R91" s="1" t="s">
+      <c r="U91" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="S91" s="1" t="s">
+      <c r="V91" s="1" t="s">
         <v>2572</v>
-      </c>
-      <c r="T91" s="1" t="s">
-        <v>2573</v>
-      </c>
-      <c r="U91" s="1" t="s">
-        <v>2574</v>
-      </c>
-      <c r="V91" s="1" t="s">
-        <v>2575</v>
       </c>
       <c r="W91" s="1"/>
       <c r="X91" s="1"/>
       <c r="Y91" s="1"/>
       <c r="Z91" s="1" t="s">
+        <v>2573</v>
+      </c>
+      <c r="AA91" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="AB91" s="1" t="s">
+        <v>2575</v>
+      </c>
+      <c r="AC91" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="AA91" s="1" t="s">
+      <c r="AD91" s="1" t="s">
         <v>2577</v>
-      </c>
-      <c r="AB91" s="1" t="s">
-        <v>2578</v>
-      </c>
-      <c r="AC91" s="1" t="s">
-        <v>2579</v>
-      </c>
-      <c r="AD91" s="1" t="s">
-        <v>2580</v>
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>2581</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>2582</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>2583</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>2584</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="I92" s="1" t="s">
         <v>2585</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>2586</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="K92" s="1" t="s">
         <v>2587</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="L92" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="M92" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="N92" s="1" t="s">
         <v>2590</v>
       </c>
-      <c r="K92" s="1" t="s">
+      <c r="O92" s="1" t="s">
         <v>2591</v>
       </c>
-      <c r="L92" s="1" t="s">
+      <c r="P92" s="1" t="s">
         <v>2592</v>
       </c>
-      <c r="M92" s="1" t="s">
+      <c r="Q92" s="1" t="s">
         <v>2593</v>
       </c>
-      <c r="N92" s="1" t="s">
+      <c r="R92" s="1" t="s">
         <v>2594</v>
       </c>
-      <c r="O92" s="1" t="s">
+      <c r="S92" s="1" t="s">
         <v>2595</v>
       </c>
-      <c r="P92" s="1" t="s">
+      <c r="T92" s="1" t="s">
         <v>2596</v>
       </c>
-      <c r="Q92" s="1" t="s">
+      <c r="U92" s="1" t="s">
         <v>2597</v>
       </c>
-      <c r="R92" s="1" t="s">
+      <c r="V92" s="1" t="s">
         <v>2598</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>2599</v>
-      </c>
-      <c r="T92" s="1" t="s">
-        <v>2600</v>
-      </c>
-      <c r="U92" s="1" t="s">
-        <v>2601</v>
-      </c>
-      <c r="V92" s="1" t="s">
-        <v>2602</v>
       </c>
       <c r="W92" s="1"/>
       <c r="X92" s="1"/>
       <c r="Y92" s="1"/>
       <c r="Z92" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="AA92" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="AB92" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="AC92" s="1" t="s">
+        <v>2602</v>
+      </c>
+      <c r="AD92" s="1" t="s">
         <v>2603</v>
-      </c>
-      <c r="AA92" s="1" t="s">
-        <v>2604</v>
-      </c>
-      <c r="AB92" s="1" t="s">
-        <v>2605</v>
-      </c>
-      <c r="AC92" s="1" t="s">
-        <v>2606</v>
-      </c>
-      <c r="AD92" s="1" t="s">
-        <v>2607</v>
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>3914</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>2607</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>2608</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>2610</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="I93" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="J93" s="1" t="s">
         <v>2612</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="K93" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="L93" s="1" t="s">
         <v>2614</v>
       </c>
-      <c r="H93" s="1" t="s">
+      <c r="M93" s="1" t="s">
         <v>2615</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="N93" s="1" t="s">
         <v>2616</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="O93" s="1" t="s">
         <v>2617</v>
       </c>
-      <c r="K93" s="1" t="s">
+      <c r="P93" s="1" t="s">
         <v>2618</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="Q93" s="1" t="s">
         <v>2619</v>
       </c>
-      <c r="M93" s="1" t="s">
+      <c r="R93" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="S93" s="1" t="s">
         <v>2621</v>
       </c>
-      <c r="O93" s="1" t="s">
+      <c r="T93" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="P93" s="1" t="s">
+      <c r="U93" s="1" t="s">
         <v>2623</v>
       </c>
-      <c r="Q93" s="1" t="s">
+      <c r="V93" s="1" t="s">
         <v>2624</v>
-      </c>
-      <c r="R93" s="1" t="s">
-        <v>2625</v>
-      </c>
-      <c r="S93" s="1" t="s">
-        <v>2626</v>
-      </c>
-      <c r="T93" s="1" t="s">
-        <v>2627</v>
-      </c>
-      <c r="U93" s="1" t="s">
-        <v>2628</v>
-      </c>
-      <c r="V93" s="1" t="s">
-        <v>2629</v>
       </c>
       <c r="W93" s="1"/>
       <c r="X93" s="1"/>
       <c r="Y93" s="1"/>
       <c r="Z93" s="1" t="s">
-        <v>2630</v>
+        <v>2625</v>
       </c>
       <c r="AA93" s="1" t="s">
-        <v>2631</v>
+        <v>2626</v>
       </c>
       <c r="AB93" s="1" t="s">
-        <v>2632</v>
+        <v>2627</v>
       </c>
       <c r="AC93" s="1" t="s">
-        <v>2633</v>
+        <v>2628</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>2634</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>2630</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>2634</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>2635</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>2637</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="J94" s="1" t="s">
         <v>2638</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="K94" s="1" t="s">
         <v>2639</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="L94" s="1" t="s">
         <v>2640</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="M94" s="1" t="s">
         <v>2641</v>
       </c>
-      <c r="H94" s="1" t="s">
+      <c r="N94" s="1" t="s">
         <v>2642</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="O94" s="1" t="s">
         <v>2643</v>
       </c>
-      <c r="J94" s="1" t="s">
+      <c r="P94" s="1" t="s">
         <v>2644</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="Q94" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="L94" s="1" t="s">
+      <c r="R94" s="1" t="s">
         <v>2646</v>
       </c>
-      <c r="M94" s="1" t="s">
+      <c r="S94" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="N94" s="1" t="s">
+      <c r="T94" s="1" t="s">
         <v>2648</v>
       </c>
-      <c r="O94" s="1" t="s">
+      <c r="U94" s="1" t="s">
         <v>2649</v>
       </c>
-      <c r="P94" s="1" t="s">
+      <c r="V94" s="1" t="s">
         <v>2650</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>2651</v>
-      </c>
-      <c r="R94" s="1" t="s">
-        <v>2652</v>
-      </c>
-      <c r="S94" s="1" t="s">
-        <v>2653</v>
-      </c>
-      <c r="T94" s="1" t="s">
-        <v>2654</v>
-      </c>
-      <c r="U94" s="1" t="s">
-        <v>2655</v>
-      </c>
-      <c r="V94" s="1" t="s">
-        <v>2656</v>
       </c>
       <c r="W94" s="1"/>
       <c r="X94" s="1"/>
       <c r="Y94" s="1"/>
       <c r="Z94" s="1" t="s">
-        <v>2657</v>
+        <v>2651</v>
       </c>
       <c r="AA94" s="1" t="s">
-        <v>2658</v>
+        <v>2652</v>
       </c>
       <c r="AB94" s="1" t="s">
-        <v>2659</v>
+        <v>2653</v>
       </c>
       <c r="AC94" s="1" t="s">
-        <v>2660</v>
+        <v>2654</v>
       </c>
       <c r="AD94" s="1" t="s">
-        <v>2661</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>2662</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="I95" s="1" t="s">
         <v>2663</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="J95" s="1" t="s">
         <v>2664</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="K95" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="L95" s="1" t="s">
         <v>2666</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="M95" s="1" t="s">
         <v>2667</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="N95" s="1" t="s">
         <v>2668</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="O95" s="1" t="s">
         <v>2669</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="P95" s="1" t="s">
         <v>2670</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="Q95" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="R95" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="L95" s="1" t="s">
+      <c r="S95" s="1" t="s">
         <v>2673</v>
       </c>
-      <c r="M95" s="1" t="s">
+      <c r="T95" s="1" t="s">
         <v>2674</v>
       </c>
-      <c r="N95" s="1" t="s">
+      <c r="U95" s="1" t="s">
         <v>2675</v>
       </c>
-      <c r="O95" s="1" t="s">
+      <c r="V95" s="1" t="s">
         <v>2676</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>2677</v>
-      </c>
-      <c r="Q95" s="1" t="s">
-        <v>2678</v>
-      </c>
-      <c r="R95" s="1" t="s">
-        <v>2679</v>
-      </c>
-      <c r="S95" s="1" t="s">
-        <v>2680</v>
-      </c>
-      <c r="T95" s="1" t="s">
-        <v>2681</v>
-      </c>
-      <c r="U95" s="1" t="s">
-        <v>2682</v>
-      </c>
-      <c r="V95" s="1" t="s">
-        <v>2683</v>
       </c>
       <c r="W95" s="1"/>
       <c r="X95" s="1"/>
       <c r="Y95" s="1"/>
       <c r="Z95" s="1" t="s">
-        <v>2684</v>
+        <v>2677</v>
       </c>
       <c r="AA95" s="1" t="s">
-        <v>2685</v>
+        <v>2678</v>
       </c>
       <c r="AB95" s="1" t="s">
-        <v>2686</v>
+        <v>2679</v>
       </c>
       <c r="AC95" s="1" t="s">
-        <v>2687</v>
+        <v>2680</v>
       </c>
       <c r="AD95" s="1" t="s">
-        <v>2688</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>3917</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>2687</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="I96" s="1" t="s">
         <v>2689</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="J96" s="1" t="s">
         <v>2690</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="K96" s="1" t="s">
         <v>2691</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="L96" s="1" t="s">
         <v>2692</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="N96" s="1" t="s">
         <v>2694</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="O96" s="1" t="s">
         <v>2695</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="P96" s="1" t="s">
         <v>2696</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="Q96" s="1" t="s">
         <v>2697</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="R96" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="S96" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="T96" s="1" t="s">
         <v>2700</v>
       </c>
-      <c r="M96" s="1" t="s">
+      <c r="U96" s="1" t="s">
         <v>2701</v>
       </c>
-      <c r="N96" s="1" t="s">
+      <c r="V96" s="1" t="s">
         <v>2702</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>2703</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>2704</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>2705</v>
-      </c>
-      <c r="R96" s="1" t="s">
-        <v>2706</v>
-      </c>
-      <c r="S96" s="1" t="s">
-        <v>2707</v>
-      </c>
-      <c r="T96" s="1" t="s">
-        <v>2708</v>
-      </c>
-      <c r="U96" s="1" t="s">
-        <v>2709</v>
-      </c>
-      <c r="V96" s="1" t="s">
-        <v>2710</v>
       </c>
       <c r="W96" s="1"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="1"/>
       <c r="Z96" s="1" t="s">
-        <v>2711</v>
+        <v>2703</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>2712</v>
+        <v>2704</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>2713</v>
+        <v>2705</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>2714</v>
+        <v>2706</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>2715</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>3918</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>2708</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>2710</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>2714</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="K97" s="1" t="s">
         <v>2717</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="L97" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="M97" s="1" t="s">
         <v>2719</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="N97" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="O97" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="P97" s="1" t="s">
         <v>2722</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="Q97" s="1" t="s">
         <v>2723</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="R97" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="S97" s="1" t="s">
         <v>2725</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="T97" s="1" t="s">
         <v>2726</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="U97" s="1" t="s">
         <v>2727</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="V97" s="1" t="s">
         <v>2728</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>2729</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>2730</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>2731</v>
-      </c>
-      <c r="Q97" s="1" t="s">
-        <v>2732</v>
-      </c>
-      <c r="R97" s="1" t="s">
-        <v>2733</v>
-      </c>
-      <c r="S97" s="1" t="s">
-        <v>2734</v>
-      </c>
-      <c r="T97" s="1" t="s">
-        <v>2735</v>
-      </c>
-      <c r="U97" s="1" t="s">
-        <v>2736</v>
-      </c>
-      <c r="V97" s="1" t="s">
-        <v>2737</v>
       </c>
       <c r="W97" s="1"/>
       <c r="X97" s="1"/>
       <c r="Y97" s="1"/>
       <c r="Z97" s="1" t="s">
-        <v>2738</v>
+        <v>2729</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>2739</v>
+        <v>2730</v>
       </c>
       <c r="AB97" s="1" t="s">
-        <v>2740</v>
+        <v>2731</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>2741</v>
+        <v>2732</v>
       </c>
       <c r="AD97" s="1" t="s">
-        <v>2742</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>3919</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>2737</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>2741</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="K98" s="1" t="s">
         <v>2743</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="L98" s="1" t="s">
         <v>2744</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="M98" s="1" t="s">
         <v>2745</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="N98" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="O98" s="1" t="s">
         <v>2747</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="P98" s="1" t="s">
         <v>2748</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="Q98" s="1" t="s">
         <v>2749</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="R98" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="S98" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="T98" s="1" t="s">
         <v>2752</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="U98" s="1" t="s">
         <v>2753</v>
       </c>
-      <c r="L98" s="1" t="s">
+      <c r="V98" s="1" t="s">
         <v>2754</v>
-      </c>
-      <c r="M98" s="1" t="s">
-        <v>2755</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>2756</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>2757</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>2758</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>2759</v>
-      </c>
-      <c r="R98" s="1" t="s">
-        <v>2760</v>
-      </c>
-      <c r="S98" s="1" t="s">
-        <v>2761</v>
-      </c>
-      <c r="T98" s="1" t="s">
-        <v>2762</v>
-      </c>
-      <c r="U98" s="1" t="s">
-        <v>2763</v>
-      </c>
-      <c r="V98" s="1" t="s">
-        <v>2764</v>
       </c>
       <c r="W98" s="1"/>
       <c r="X98" s="1"/>
       <c r="Y98" s="1"/>
       <c r="Z98" s="1" t="s">
-        <v>2765</v>
+        <v>2755</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>2766</v>
+        <v>2756</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>2767</v>
+        <v>2757</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>2768</v>
+        <v>2758</v>
       </c>
       <c r="AD98" s="1" t="s">
-        <v>2769</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>3920</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>2762</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>2767</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>2768</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="L99" s="1" t="s">
         <v>2770</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="M99" s="1" t="s">
         <v>2771</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="N99" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="O99" s="1" t="s">
         <v>2773</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="P99" s="1" t="s">
         <v>2774</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="Q99" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="R99" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="S99" s="1" t="s">
         <v>2777</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="T99" s="1" t="s">
         <v>2778</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="U99" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="K99" s="1" t="s">
+      <c r="V99" s="1" t="s">
         <v>2780</v>
-      </c>
-      <c r="L99" s="1" t="s">
-        <v>2781</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>2782</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>2783</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>2784</v>
-      </c>
-      <c r="P99" s="1" t="s">
-        <v>2785</v>
-      </c>
-      <c r="Q99" s="1" t="s">
-        <v>2786</v>
-      </c>
-      <c r="R99" s="1" t="s">
-        <v>2787</v>
-      </c>
-      <c r="S99" s="1" t="s">
-        <v>2788</v>
-      </c>
-      <c r="T99" s="1" t="s">
-        <v>2789</v>
-      </c>
-      <c r="U99" s="1" t="s">
-        <v>2790</v>
-      </c>
-      <c r="V99" s="1" t="s">
-        <v>2791</v>
       </c>
       <c r="W99" s="1"/>
       <c r="X99" s="1"/>
       <c r="Y99" s="1"/>
       <c r="Z99" s="1" t="s">
-        <v>2792</v>
+        <v>2781</v>
       </c>
       <c r="AA99" s="1" t="s">
-        <v>2793</v>
+        <v>2782</v>
       </c>
       <c r="AB99" s="1" t="s">
-        <v>2794</v>
+        <v>2783</v>
       </c>
       <c r="AC99" s="1" t="s">
-        <v>2795</v>
+        <v>2784</v>
       </c>
       <c r="AD99" s="1" t="s">
-        <v>2796</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>2788</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>2789</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>2791</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>2793</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>2795</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="M100" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="N100" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="O100" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="P100" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="Q100" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="R100" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="S100" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="T100" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="U100" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="V100" s="1" t="s">
         <v>2806</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>2807</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>2808</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>2809</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>2810</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>2811</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>2812</v>
-      </c>
-      <c r="Q100" s="1" t="s">
-        <v>2813</v>
-      </c>
-      <c r="R100" s="1" t="s">
-        <v>2814</v>
-      </c>
-      <c r="S100" s="1" t="s">
-        <v>2815</v>
-      </c>
-      <c r="T100" s="1" t="s">
-        <v>2816</v>
-      </c>
-      <c r="U100" s="1" t="s">
-        <v>2817</v>
-      </c>
-      <c r="V100" s="1" t="s">
-        <v>2818</v>
       </c>
       <c r="W100" s="1"/>
       <c r="X100" s="1"/>
       <c r="Y100" s="1"/>
       <c r="Z100" s="1" t="s">
-        <v>2819</v>
+        <v>2807</v>
       </c>
       <c r="AA100" s="1" t="s">
-        <v>2820</v>
+        <v>2808</v>
       </c>
       <c r="AB100" s="1" t="s">
-        <v>2821</v>
+        <v>2809</v>
       </c>
       <c r="AC100" s="1" t="s">
-        <v>2822</v>
+        <v>2810</v>
       </c>
       <c r="AD100" s="1" t="s">
-        <v>2823</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>3328</v>
+        <v>3316</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>280</v>
@@ -20932,76 +20932,76 @@
         <v>281</v>
       </c>
       <c r="D101" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>3322</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>3323</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>3324</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>3325</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>3326</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>3327</v>
+      </c>
+      <c r="O101" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="P101" s="1" t="s">
         <v>3329</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="Q101" s="1" t="s">
         <v>3330</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="R101" s="1" t="s">
+        <v>2571</v>
+      </c>
+      <c r="S101" s="1" t="s">
         <v>3331</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="T101" s="1" t="s">
         <v>3332</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="U101" s="1" t="s">
         <v>3333</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="V101" s="1" t="s">
         <v>3334</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>3335</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>3336</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>3337</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>3338</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>3339</v>
-      </c>
-      <c r="O101" s="1" t="s">
-        <v>3340</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>3341</v>
-      </c>
-      <c r="Q101" s="1" t="s">
-        <v>3342</v>
-      </c>
-      <c r="R101" s="1" t="s">
-        <v>2574</v>
-      </c>
-      <c r="S101" s="1" t="s">
-        <v>3343</v>
-      </c>
-      <c r="T101" s="1" t="s">
-        <v>3344</v>
-      </c>
-      <c r="U101" s="1" t="s">
-        <v>3345</v>
-      </c>
-      <c r="V101" s="1" t="s">
-        <v>3346</v>
       </c>
       <c r="W101" s="1"/>
       <c r="X101" s="1"/>
       <c r="Y101" s="1"/>
       <c r="Z101" s="1" t="s">
-        <v>3347</v>
+        <v>3335</v>
       </c>
       <c r="AA101" s="1" t="s">
-        <v>3348</v>
+        <v>3336</v>
       </c>
       <c r="AB101" s="1" t="s">
-        <v>3349</v>
+        <v>3337</v>
       </c>
       <c r="AC101" s="1" t="s">
-        <v>3350</v>
+        <v>3338</v>
       </c>
       <c r="AD101" s="1" t="s">
         <v>305</v>
@@ -21009,7 +21009,7 @@
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>3351</v>
+        <v>3339</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>2285</v>
@@ -21018,61 +21018,61 @@
         <v>2286</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>3340</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>3341</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>3342</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>3343</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>3344</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>3348</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>3349</v>
+      </c>
+      <c r="N102" s="1" t="s">
+        <v>3350</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>3351</v>
+      </c>
+      <c r="P102" s="1" t="s">
         <v>3352</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="Q102" s="1" t="s">
         <v>3353</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="R102" s="1" t="s">
         <v>3354</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="S102" s="1" t="s">
         <v>3355</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="T102" s="1" t="s">
         <v>3356</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="U102" s="1" t="s">
         <v>3357</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="V102" s="1" t="s">
         <v>3358</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>3359</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>3360</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>3361</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>3362</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>3363</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>3364</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>3365</v>
-      </c>
-      <c r="R102" s="1" t="s">
-        <v>3366</v>
-      </c>
-      <c r="S102" s="1" t="s">
-        <v>3367</v>
-      </c>
-      <c r="T102" s="1" t="s">
-        <v>3368</v>
-      </c>
-      <c r="U102" s="1" t="s">
-        <v>3369</v>
-      </c>
-      <c r="V102" s="1" t="s">
-        <v>3370</v>
       </c>
       <c r="W102" s="1"/>
       <c r="X102" s="1"/>
@@ -21084,10 +21084,10 @@
         <v>2307</v>
       </c>
       <c r="AB102" s="1" t="s">
-        <v>3371</v>
+        <v>3359</v>
       </c>
       <c r="AC102" s="1" t="s">
-        <v>3372</v>
+        <v>3360</v>
       </c>
       <c r="AD102" s="1" t="s">
         <v>2310</v>
@@ -21095,179 +21095,179 @@
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>3361</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>3364</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>3365</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>3366</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>3367</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>3368</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>3369</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>3370</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>3371</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>3372</v>
+      </c>
+      <c r="M103" s="1" t="s">
         <v>3373</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="N103" s="1" t="s">
         <v>3374</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="O103" s="1" t="s">
         <v>3375</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="P103" s="1" t="s">
         <v>3376</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="Q103" s="1" t="s">
         <v>3377</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="R103" s="1" t="s">
         <v>3378</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="S103" s="1" t="s">
         <v>3379</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="T103" s="1" t="s">
         <v>3380</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="U103" s="1" t="s">
         <v>3381</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="V103" s="1" t="s">
         <v>3382</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>3383</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>3384</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>3385</v>
-      </c>
-      <c r="N103" s="1" t="s">
-        <v>3386</v>
-      </c>
-      <c r="O103" s="1" t="s">
-        <v>3387</v>
-      </c>
-      <c r="P103" s="1" t="s">
-        <v>3388</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>3389</v>
-      </c>
-      <c r="R103" s="1" t="s">
-        <v>3390</v>
-      </c>
-      <c r="S103" s="1" t="s">
-        <v>3391</v>
-      </c>
-      <c r="T103" s="1" t="s">
-        <v>3392</v>
-      </c>
-      <c r="U103" s="1" t="s">
-        <v>3393</v>
-      </c>
-      <c r="V103" s="1" t="s">
-        <v>3394</v>
       </c>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
       <c r="Y103" s="1"/>
       <c r="Z103" s="1" t="s">
-        <v>3395</v>
+        <v>3383</v>
       </c>
       <c r="AA103" s="1" t="s">
-        <v>3396</v>
+        <v>3384</v>
       </c>
       <c r="AB103" s="1" t="s">
-        <v>3397</v>
+        <v>3385</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>3398</v>
+        <v>3386</v>
       </c>
       <c r="AD103" s="1" t="s">
-        <v>3399</v>
+        <v>3387</v>
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
+        <v>3388</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>3389</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>3390</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>3391</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>3392</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>3393</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>3394</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>3395</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>3396</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>3397</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>3398</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>3399</v>
+      </c>
+      <c r="M104" s="1" t="s">
         <v>3400</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="N104" s="1" t="s">
         <v>3401</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="O104" s="1" t="s">
         <v>3402</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="P104" s="1" t="s">
         <v>3403</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="Q104" s="1" t="s">
         <v>3404</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="R104" s="1" t="s">
         <v>3405</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="S104" s="1" t="s">
         <v>3406</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="T104" s="1" t="s">
         <v>3407</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="U104" s="1" t="s">
         <v>3408</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="V104" s="1" t="s">
         <v>3409</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>3410</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>3411</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>3412</v>
-      </c>
-      <c r="N104" s="1" t="s">
-        <v>3413</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>3414</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>3415</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>3416</v>
-      </c>
-      <c r="R104" s="1" t="s">
-        <v>3417</v>
-      </c>
-      <c r="S104" s="1" t="s">
-        <v>3418</v>
-      </c>
-      <c r="T104" s="1" t="s">
-        <v>3419</v>
-      </c>
-      <c r="U104" s="1" t="s">
-        <v>3420</v>
-      </c>
-      <c r="V104" s="1" t="s">
-        <v>3421</v>
       </c>
       <c r="W104" s="1"/>
       <c r="X104" s="1"/>
       <c r="Y104" s="1"/>
       <c r="Z104" s="1" t="s">
-        <v>3422</v>
+        <v>3410</v>
       </c>
       <c r="AA104" s="1" t="s">
-        <v>3423</v>
+        <v>3411</v>
       </c>
       <c r="AB104" s="1" t="s">
-        <v>3424</v>
+        <v>3412</v>
       </c>
       <c r="AC104" s="1" t="s">
-        <v>3425</v>
+        <v>3413</v>
       </c>
       <c r="AD104" s="1" t="s">
-        <v>3426</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>3886</v>
+        <v>3874</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>996</v>
@@ -21353,7 +21353,7 @@
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>3887</v>
+        <v>3875</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>1022</v>
@@ -21439,7 +21439,7 @@
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>3888</v>
+        <v>3876</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>1048</v>
@@ -21525,7 +21525,7 @@
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>3889</v>
+        <v>3877</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>1074</v>
@@ -21611,7 +21611,7 @@
     </row>
     <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>3890</v>
+        <v>3878</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>1100</v>
@@ -21697,7 +21697,7 @@
     </row>
     <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>3891</v>
+        <v>3879</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>1126</v>
@@ -21783,7 +21783,7 @@
     </row>
     <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>3892</v>
+        <v>3880</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>1152</v>
@@ -21869,7 +21869,7 @@
     </row>
     <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>3893</v>
+        <v>3881</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>1178</v>
@@ -21955,7 +21955,7 @@
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>3894</v>
+        <v>3882</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>1204</v>
@@ -22041,7 +22041,7 @@
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>3895</v>
+        <v>3883</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>1230</v>
@@ -22127,7 +22127,7 @@
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>3896</v>
+        <v>3884</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1256</v>
@@ -22213,7 +22213,7 @@
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>3897</v>
+        <v>3885</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>1282</v>
@@ -22299,7 +22299,7 @@
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>3910</v>
+        <v>3922</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1308</v>
@@ -22385,7 +22385,7 @@
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>3911</v>
+        <v>3923</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>1334</v>
@@ -22471,7 +22471,7 @@
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>3912</v>
+        <v>3924</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>1360</v>
@@ -22557,7 +22557,7 @@
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>3913</v>
+        <v>3925</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>1386</v>
@@ -22643,7 +22643,7 @@
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>3914</v>
+        <v>3926</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>1412</v>
@@ -22729,7 +22729,7 @@
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>3915</v>
+        <v>3927</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>1438</v>
@@ -22815,7 +22815,7 @@
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>3916</v>
+        <v>3928</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>1464</v>
@@ -22901,7 +22901,7 @@
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>3917</v>
+        <v>3929</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>1490</v>
@@ -22987,7 +22987,7 @@
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>3918</v>
+        <v>3930</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>1516</v>
@@ -23073,7 +23073,7 @@
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>3919</v>
+        <v>3931</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>1542</v>
@@ -23159,7 +23159,7 @@
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>3920</v>
+        <v>3932</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>1568</v>
@@ -23245,7 +23245,7 @@
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>3921</v>
+        <v>3933</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>1594</v>
@@ -23331,2066 +23331,2066 @@
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>3898</v>
+        <v>3886</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>2824</v>
+        <v>2812</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>3739</v>
+        <v>3727</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>2825</v>
+        <v>2813</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>2826</v>
+        <v>2814</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>3740</v>
+        <v>3728</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>2827</v>
+        <v>2815</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>3741</v>
+        <v>3729</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>2828</v>
+        <v>2816</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>3742</v>
+        <v>3730</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>2829</v>
+        <v>2817</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>3743</v>
+        <v>3731</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>2830</v>
+        <v>2818</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>3744</v>
+        <v>3732</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>2831</v>
+        <v>2819</v>
       </c>
       <c r="P129" s="1" t="s">
-        <v>3745</v>
+        <v>3733</v>
       </c>
       <c r="Q129" s="1" t="s">
-        <v>3746</v>
+        <v>3734</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>2832</v>
+        <v>2820</v>
       </c>
       <c r="S129" s="1" t="s">
-        <v>2833</v>
+        <v>2821</v>
       </c>
       <c r="T129" s="1" t="s">
-        <v>3747</v>
+        <v>3735</v>
       </c>
       <c r="U129" s="1" t="s">
-        <v>2834</v>
+        <v>2822</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>2835</v>
+        <v>2823</v>
       </c>
       <c r="W129" s="1"/>
       <c r="X129" s="1"/>
       <c r="Y129" s="1"/>
       <c r="Z129" s="1" t="s">
-        <v>2836</v>
+        <v>2824</v>
       </c>
       <c r="AA129" s="1" t="s">
-        <v>3748</v>
+        <v>3736</v>
       </c>
       <c r="AB129" s="1" t="s">
-        <v>2837</v>
+        <v>2825</v>
       </c>
       <c r="AC129" s="1" t="s">
-        <v>2838</v>
+        <v>2826</v>
       </c>
       <c r="AD129" s="1" t="s">
-        <v>2839</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>3899</v>
+        <v>3887</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>2840</v>
+        <v>2828</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>3749</v>
+        <v>3737</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>2841</v>
+        <v>2829</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>2842</v>
+        <v>2830</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>3750</v>
+        <v>3738</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>2843</v>
+        <v>2831</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>3751</v>
+        <v>3739</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>2844</v>
+        <v>2832</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>3752</v>
+        <v>3740</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>2845</v>
+        <v>2833</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>3753</v>
+        <v>3741</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>2846</v>
+        <v>2834</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>3754</v>
+        <v>3742</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>2847</v>
+        <v>2835</v>
       </c>
       <c r="P130" s="1" t="s">
-        <v>3755</v>
+        <v>3743</v>
       </c>
       <c r="Q130" s="1" t="s">
-        <v>3756</v>
+        <v>3744</v>
       </c>
       <c r="R130" s="1" t="s">
-        <v>2848</v>
+        <v>2836</v>
       </c>
       <c r="S130" s="1" t="s">
-        <v>2849</v>
+        <v>2837</v>
       </c>
       <c r="T130" s="1" t="s">
-        <v>3757</v>
+        <v>3745</v>
       </c>
       <c r="U130" s="1" t="s">
-        <v>2850</v>
+        <v>2838</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>2851</v>
+        <v>2839</v>
       </c>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
       <c r="Y130" s="1"/>
       <c r="Z130" s="1" t="s">
-        <v>2852</v>
+        <v>2840</v>
       </c>
       <c r="AA130" s="1" t="s">
-        <v>3758</v>
+        <v>3746</v>
       </c>
       <c r="AB130" s="1" t="s">
-        <v>2853</v>
+        <v>2841</v>
       </c>
       <c r="AC130" s="1" t="s">
-        <v>2854</v>
+        <v>2842</v>
       </c>
       <c r="AD130" s="1" t="s">
-        <v>2855</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>3900</v>
+        <v>3888</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>2856</v>
+        <v>2844</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>3759</v>
+        <v>3747</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>2857</v>
+        <v>2845</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>2858</v>
+        <v>2846</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>3760</v>
+        <v>3748</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>2859</v>
+        <v>2847</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>3761</v>
+        <v>3749</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>2860</v>
+        <v>2848</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>3762</v>
+        <v>3750</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>2861</v>
+        <v>2849</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>3763</v>
+        <v>3751</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>2862</v>
+        <v>2850</v>
       </c>
       <c r="N131" s="1" t="s">
-        <v>3764</v>
+        <v>3752</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>2863</v>
+        <v>2851</v>
       </c>
       <c r="P131" s="1" t="s">
-        <v>3765</v>
+        <v>3753</v>
       </c>
       <c r="Q131" s="1" t="s">
-        <v>3766</v>
+        <v>3754</v>
       </c>
       <c r="R131" s="1" t="s">
-        <v>2864</v>
+        <v>2852</v>
       </c>
       <c r="S131" s="1" t="s">
-        <v>2865</v>
+        <v>2853</v>
       </c>
       <c r="T131" s="1" t="s">
-        <v>3767</v>
+        <v>3755</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>2866</v>
+        <v>2854</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>2867</v>
+        <v>2855</v>
       </c>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
       <c r="Y131" s="1"/>
       <c r="Z131" s="1" t="s">
-        <v>2868</v>
+        <v>2856</v>
       </c>
       <c r="AA131" s="1" t="s">
-        <v>3768</v>
+        <v>3756</v>
       </c>
       <c r="AB131" s="1" t="s">
-        <v>2869</v>
+        <v>2857</v>
       </c>
       <c r="AC131" s="1" t="s">
-        <v>2870</v>
+        <v>2858</v>
       </c>
       <c r="AD131" s="1" t="s">
-        <v>2871</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>3901</v>
+        <v>3889</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>2872</v>
+        <v>2860</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>3769</v>
+        <v>3757</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>2873</v>
+        <v>2861</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>2874</v>
+        <v>2862</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>3770</v>
+        <v>3758</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>2875</v>
+        <v>2863</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>3771</v>
+        <v>3759</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>2876</v>
+        <v>2864</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>3772</v>
+        <v>3760</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>2877</v>
+        <v>2865</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>3773</v>
+        <v>3761</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>2878</v>
+        <v>2866</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>3774</v>
+        <v>3762</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>2879</v>
+        <v>2867</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>3775</v>
+        <v>3763</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>3776</v>
+        <v>3764</v>
       </c>
       <c r="R132" s="1" t="s">
-        <v>2880</v>
+        <v>2868</v>
       </c>
       <c r="S132" s="1" t="s">
-        <v>2881</v>
+        <v>2869</v>
       </c>
       <c r="T132" s="1" t="s">
-        <v>3777</v>
+        <v>3765</v>
       </c>
       <c r="U132" s="1" t="s">
-        <v>2882</v>
+        <v>2870</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>2883</v>
+        <v>2871</v>
       </c>
       <c r="W132" s="1"/>
       <c r="X132" s="1"/>
       <c r="Y132" s="1"/>
       <c r="Z132" s="1" t="s">
-        <v>2884</v>
+        <v>2872</v>
       </c>
       <c r="AA132" s="1" t="s">
-        <v>3778</v>
+        <v>3766</v>
       </c>
       <c r="AB132" s="1" t="s">
-        <v>2885</v>
+        <v>2873</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>2886</v>
+        <v>2874</v>
       </c>
       <c r="AD132" s="1" t="s">
-        <v>2887</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>3902</v>
+        <v>3890</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>2888</v>
+        <v>2876</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>3779</v>
+        <v>3767</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>2889</v>
+        <v>2877</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>2890</v>
+        <v>2878</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>3780</v>
+        <v>3768</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>2891</v>
+        <v>2879</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>3781</v>
+        <v>3769</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>2892</v>
+        <v>2880</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>3782</v>
+        <v>3770</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>2893</v>
+        <v>2881</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>3783</v>
+        <v>3771</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>2894</v>
+        <v>2882</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>3784</v>
+        <v>3772</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>2895</v>
+        <v>2883</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>3785</v>
+        <v>3773</v>
       </c>
       <c r="Q133" s="1" t="s">
-        <v>3786</v>
+        <v>3774</v>
       </c>
       <c r="R133" s="1" t="s">
-        <v>2896</v>
+        <v>2884</v>
       </c>
       <c r="S133" s="1" t="s">
-        <v>2897</v>
+        <v>2885</v>
       </c>
       <c r="T133" s="1" t="s">
-        <v>3787</v>
+        <v>3775</v>
       </c>
       <c r="U133" s="1" t="s">
-        <v>2898</v>
+        <v>2886</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>2899</v>
+        <v>2887</v>
       </c>
       <c r="W133" s="1"/>
       <c r="X133" s="1"/>
       <c r="Y133" s="1"/>
       <c r="Z133" s="1" t="s">
-        <v>2900</v>
+        <v>2888</v>
       </c>
       <c r="AA133" s="1" t="s">
-        <v>3788</v>
+        <v>3776</v>
       </c>
       <c r="AB133" s="1" t="s">
-        <v>2901</v>
+        <v>2889</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>2902</v>
+        <v>2890</v>
       </c>
       <c r="AD133" s="1" t="s">
-        <v>2903</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>3903</v>
+        <v>3891</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>2904</v>
+        <v>2892</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>3789</v>
+        <v>3777</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>2905</v>
+        <v>2893</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>2906</v>
+        <v>2894</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>3790</v>
+        <v>3778</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>2907</v>
+        <v>2895</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>3791</v>
+        <v>3779</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>2908</v>
+        <v>2896</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>3792</v>
+        <v>3780</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>2909</v>
+        <v>2897</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>3793</v>
+        <v>3781</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>2910</v>
+        <v>2898</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>3794</v>
+        <v>3782</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>2911</v>
+        <v>2899</v>
       </c>
       <c r="P134" s="1" t="s">
-        <v>3795</v>
+        <v>3783</v>
       </c>
       <c r="Q134" s="1" t="s">
-        <v>3796</v>
+        <v>3784</v>
       </c>
       <c r="R134" s="1" t="s">
-        <v>2912</v>
+        <v>2900</v>
       </c>
       <c r="S134" s="1" t="s">
-        <v>2913</v>
+        <v>2901</v>
       </c>
       <c r="T134" s="1" t="s">
-        <v>3797</v>
+        <v>3785</v>
       </c>
       <c r="U134" s="1" t="s">
-        <v>2914</v>
+        <v>2902</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>2915</v>
+        <v>2903</v>
       </c>
       <c r="W134" s="1"/>
       <c r="X134" s="1"/>
       <c r="Y134" s="1"/>
       <c r="Z134" s="1" t="s">
-        <v>2916</v>
+        <v>2904</v>
       </c>
       <c r="AA134" s="1" t="s">
-        <v>3798</v>
+        <v>3786</v>
       </c>
       <c r="AB134" s="1" t="s">
-        <v>2917</v>
+        <v>2905</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>2918</v>
+        <v>2906</v>
       </c>
       <c r="AD134" s="1" t="s">
-        <v>2919</v>
+        <v>2907</v>
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>3904</v>
+        <v>3892</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>2913</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>2917</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>2918</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="N135" s="1" t="s">
         <v>2920</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="O135" s="1" t="s">
         <v>2921</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="P135" s="1" t="s">
         <v>2922</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="Q135" s="1" t="s">
         <v>2923</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="R135" s="1" t="s">
         <v>2924</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="S135" s="1" t="s">
         <v>2925</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="T135" s="1" t="s">
         <v>2926</v>
       </c>
-      <c r="I135" s="1" t="s">
+      <c r="U135" s="1" t="s">
         <v>2927</v>
       </c>
-      <c r="J135" s="1" t="s">
+      <c r="V135" s="1" t="s">
         <v>2928</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>2929</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>2930</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>2931</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>2932</v>
-      </c>
-      <c r="O135" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="P135" s="1" t="s">
-        <v>2934</v>
-      </c>
-      <c r="Q135" s="1" t="s">
-        <v>2935</v>
-      </c>
-      <c r="R135" s="1" t="s">
-        <v>2936</v>
-      </c>
-      <c r="S135" s="1" t="s">
-        <v>2937</v>
-      </c>
-      <c r="T135" s="1" t="s">
-        <v>2938</v>
-      </c>
-      <c r="U135" s="1" t="s">
-        <v>2939</v>
-      </c>
-      <c r="V135" s="1" t="s">
-        <v>2940</v>
       </c>
       <c r="W135" s="1"/>
       <c r="X135" s="1"/>
       <c r="Y135" s="1"/>
       <c r="Z135" s="1" t="s">
-        <v>2941</v>
+        <v>2929</v>
       </c>
       <c r="AA135" s="1" t="s">
-        <v>2942</v>
+        <v>2930</v>
       </c>
       <c r="AB135" s="1" t="s">
-        <v>2943</v>
+        <v>2931</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>2944</v>
+        <v>2932</v>
       </c>
       <c r="AD135" s="1" t="s">
-        <v>2945</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>3905</v>
+        <v>3893</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>2935</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>2938</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>2939</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>2940</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>2943</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>2944</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>2945</v>
+      </c>
+      <c r="N136" s="1" t="s">
         <v>2946</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="O136" s="1" t="s">
         <v>2947</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="P136" s="1" t="s">
         <v>2948</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="Q136" s="1" t="s">
         <v>2949</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="R136" s="1" t="s">
         <v>2950</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="S136" s="1" t="s">
         <v>2951</v>
       </c>
-      <c r="H136" s="1" t="s">
+      <c r="T136" s="1" t="s">
         <v>2952</v>
       </c>
-      <c r="I136" s="1" t="s">
+      <c r="U136" s="1" t="s">
         <v>2953</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="V136" s="1" t="s">
         <v>2954</v>
-      </c>
-      <c r="K136" s="1" t="s">
-        <v>2955</v>
-      </c>
-      <c r="L136" s="1" t="s">
-        <v>2956</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>2957</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>2958</v>
-      </c>
-      <c r="O136" s="1" t="s">
-        <v>2959</v>
-      </c>
-      <c r="P136" s="1" t="s">
-        <v>2960</v>
-      </c>
-      <c r="Q136" s="1" t="s">
-        <v>2961</v>
-      </c>
-      <c r="R136" s="1" t="s">
-        <v>2962</v>
-      </c>
-      <c r="S136" s="1" t="s">
-        <v>2963</v>
-      </c>
-      <c r="T136" s="1" t="s">
-        <v>2964</v>
-      </c>
-      <c r="U136" s="1" t="s">
-        <v>2965</v>
-      </c>
-      <c r="V136" s="1" t="s">
-        <v>2966</v>
       </c>
       <c r="W136" s="1"/>
       <c r="X136" s="1"/>
       <c r="Y136" s="1"/>
       <c r="Z136" s="1" t="s">
-        <v>2967</v>
+        <v>2955</v>
       </c>
       <c r="AA136" s="1" t="s">
-        <v>2968</v>
+        <v>2956</v>
       </c>
       <c r="AB136" s="1" t="s">
-        <v>2969</v>
+        <v>2957</v>
       </c>
       <c r="AC136" s="1" t="s">
-        <v>2970</v>
+        <v>2958</v>
       </c>
       <c r="AD136" s="1" t="s">
-        <v>2971</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>3906</v>
+        <v>3894</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>2962</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>2965</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="N137" s="1" t="s">
         <v>2972</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="O137" s="1" t="s">
         <v>2973</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="P137" s="1" t="s">
         <v>2974</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="Q137" s="1" t="s">
         <v>2975</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="R137" s="1" t="s">
         <v>2976</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="S137" s="1" t="s">
         <v>2977</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="T137" s="1" t="s">
         <v>2978</v>
       </c>
-      <c r="I137" s="1" t="s">
+      <c r="U137" s="1" t="s">
         <v>2979</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="V137" s="1" t="s">
         <v>2980</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>2981</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>2982</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>2983</v>
-      </c>
-      <c r="N137" s="1" t="s">
-        <v>2984</v>
-      </c>
-      <c r="O137" s="1" t="s">
-        <v>2985</v>
-      </c>
-      <c r="P137" s="1" t="s">
-        <v>2986</v>
-      </c>
-      <c r="Q137" s="1" t="s">
-        <v>2987</v>
-      </c>
-      <c r="R137" s="1" t="s">
-        <v>2988</v>
-      </c>
-      <c r="S137" s="1" t="s">
-        <v>2989</v>
-      </c>
-      <c r="T137" s="1" t="s">
-        <v>2990</v>
-      </c>
-      <c r="U137" s="1" t="s">
-        <v>2991</v>
-      </c>
-      <c r="V137" s="1" t="s">
-        <v>2992</v>
       </c>
       <c r="W137" s="1"/>
       <c r="X137" s="1"/>
       <c r="Y137" s="1"/>
       <c r="Z137" s="1" t="s">
-        <v>2993</v>
+        <v>2981</v>
       </c>
       <c r="AA137" s="1" t="s">
-        <v>2994</v>
+        <v>2982</v>
       </c>
       <c r="AB137" s="1" t="s">
-        <v>2995</v>
+        <v>2983</v>
       </c>
       <c r="AC137" s="1" t="s">
-        <v>2996</v>
+        <v>2984</v>
       </c>
       <c r="AD137" s="1" t="s">
-        <v>2997</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>3907</v>
+        <v>3895</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>2986</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>2988</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>2989</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>2990</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>2991</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>2992</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>2993</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>2994</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>2995</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>2996</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>2997</v>
+      </c>
+      <c r="N138" s="1" t="s">
         <v>2998</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="O138" s="1" t="s">
         <v>2999</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="P138" s="1" t="s">
         <v>3000</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="Q138" s="1" t="s">
         <v>3001</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="R138" s="1" t="s">
         <v>3002</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="S138" s="1" t="s">
         <v>3003</v>
       </c>
-      <c r="H138" s="1" t="s">
+      <c r="T138" s="1" t="s">
         <v>3004</v>
       </c>
-      <c r="I138" s="1" t="s">
+      <c r="U138" s="1" t="s">
         <v>3005</v>
       </c>
-      <c r="J138" s="1" t="s">
+      <c r="V138" s="1" t="s">
         <v>3006</v>
-      </c>
-      <c r="K138" s="1" t="s">
-        <v>3007</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>3008</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>3009</v>
-      </c>
-      <c r="N138" s="1" t="s">
-        <v>3010</v>
-      </c>
-      <c r="O138" s="1" t="s">
-        <v>3011</v>
-      </c>
-      <c r="P138" s="1" t="s">
-        <v>3012</v>
-      </c>
-      <c r="Q138" s="1" t="s">
-        <v>3013</v>
-      </c>
-      <c r="R138" s="1" t="s">
-        <v>3014</v>
-      </c>
-      <c r="S138" s="1" t="s">
-        <v>3015</v>
-      </c>
-      <c r="T138" s="1" t="s">
-        <v>3016</v>
-      </c>
-      <c r="U138" s="1" t="s">
-        <v>3017</v>
-      </c>
-      <c r="V138" s="1" t="s">
-        <v>3018</v>
       </c>
       <c r="W138" s="1"/>
       <c r="X138" s="1"/>
       <c r="Y138" s="1"/>
       <c r="Z138" s="1" t="s">
-        <v>3019</v>
+        <v>3007</v>
       </c>
       <c r="AA138" s="1" t="s">
-        <v>3020</v>
+        <v>3008</v>
       </c>
       <c r="AB138" s="1" t="s">
-        <v>3021</v>
+        <v>3009</v>
       </c>
       <c r="AC138" s="1" t="s">
-        <v>3022</v>
+        <v>3010</v>
       </c>
       <c r="AD138" s="1" t="s">
-        <v>3023</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>3908</v>
+        <v>3896</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>3016</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>3017</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>3018</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>3019</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>3020</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>3021</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="N139" s="1" t="s">
         <v>3024</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="O139" s="1" t="s">
         <v>3025</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="P139" s="1" t="s">
         <v>3026</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="Q139" s="1" t="s">
         <v>3027</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="R139" s="1" t="s">
         <v>3028</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="S139" s="1" t="s">
         <v>3029</v>
       </c>
-      <c r="H139" s="1" t="s">
+      <c r="T139" s="1" t="s">
         <v>3030</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="U139" s="1" t="s">
         <v>3031</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="V139" s="1" t="s">
         <v>3032</v>
-      </c>
-      <c r="K139" s="1" t="s">
-        <v>3033</v>
-      </c>
-      <c r="L139" s="1" t="s">
-        <v>3034</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>3035</v>
-      </c>
-      <c r="N139" s="1" t="s">
-        <v>3036</v>
-      </c>
-      <c r="O139" s="1" t="s">
-        <v>3037</v>
-      </c>
-      <c r="P139" s="1" t="s">
-        <v>3038</v>
-      </c>
-      <c r="Q139" s="1" t="s">
-        <v>3039</v>
-      </c>
-      <c r="R139" s="1" t="s">
-        <v>3040</v>
-      </c>
-      <c r="S139" s="1" t="s">
-        <v>3041</v>
-      </c>
-      <c r="T139" s="1" t="s">
-        <v>3042</v>
-      </c>
-      <c r="U139" s="1" t="s">
-        <v>3043</v>
-      </c>
-      <c r="V139" s="1" t="s">
-        <v>3044</v>
       </c>
       <c r="W139" s="1"/>
       <c r="X139" s="1"/>
       <c r="Y139" s="1"/>
       <c r="Z139" s="1" t="s">
-        <v>3045</v>
+        <v>3033</v>
       </c>
       <c r="AA139" s="1" t="s">
-        <v>3046</v>
+        <v>3034</v>
       </c>
       <c r="AB139" s="1" t="s">
-        <v>3047</v>
+        <v>3035</v>
       </c>
       <c r="AC139" s="1" t="s">
-        <v>3048</v>
+        <v>3036</v>
       </c>
       <c r="AD139" s="1" t="s">
-        <v>3049</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>3909</v>
+        <v>3897</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>3040</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>3041</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>3042</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>3043</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>3049</v>
+      </c>
+      <c r="N140" s="1" t="s">
         <v>3050</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="O140" s="1" t="s">
         <v>3051</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="P140" s="1" t="s">
         <v>3052</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="Q140" s="1" t="s">
         <v>3053</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="R140" s="1" t="s">
         <v>3054</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="S140" s="1" t="s">
         <v>3055</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="T140" s="1" t="s">
         <v>3056</v>
       </c>
-      <c r="I140" s="1" t="s">
+      <c r="U140" s="1" t="s">
         <v>3057</v>
       </c>
-      <c r="J140" s="1" t="s">
+      <c r="V140" s="1" t="s">
         <v>3058</v>
-      </c>
-      <c r="K140" s="1" t="s">
-        <v>3059</v>
-      </c>
-      <c r="L140" s="1" t="s">
-        <v>3060</v>
-      </c>
-      <c r="M140" s="1" t="s">
-        <v>3061</v>
-      </c>
-      <c r="N140" s="1" t="s">
-        <v>3062</v>
-      </c>
-      <c r="O140" s="1" t="s">
-        <v>3063</v>
-      </c>
-      <c r="P140" s="1" t="s">
-        <v>3064</v>
-      </c>
-      <c r="Q140" s="1" t="s">
-        <v>3065</v>
-      </c>
-      <c r="R140" s="1" t="s">
-        <v>3066</v>
-      </c>
-      <c r="S140" s="1" t="s">
-        <v>3067</v>
-      </c>
-      <c r="T140" s="1" t="s">
-        <v>3068</v>
-      </c>
-      <c r="U140" s="1" t="s">
-        <v>3069</v>
-      </c>
-      <c r="V140" s="1" t="s">
-        <v>3070</v>
       </c>
       <c r="W140" s="1"/>
       <c r="X140" s="1"/>
       <c r="Y140" s="1"/>
       <c r="Z140" s="1" t="s">
-        <v>3071</v>
+        <v>3059</v>
       </c>
       <c r="AA140" s="1" t="s">
-        <v>3072</v>
+        <v>3060</v>
       </c>
       <c r="AB140" s="1" t="s">
-        <v>3073</v>
+        <v>3061</v>
       </c>
       <c r="AC140" s="1" t="s">
-        <v>3074</v>
+        <v>3062</v>
       </c>
       <c r="AD140" s="1" t="s">
-        <v>3075</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>3922</v>
+        <v>3898</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>3076</v>
+        <v>3064</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>3799</v>
+        <v>3787</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>3077</v>
+        <v>3065</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>3078</v>
+        <v>3066</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>3800</v>
+        <v>3788</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>3079</v>
+        <v>3067</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>3801</v>
+        <v>3789</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>3080</v>
+        <v>3068</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>3802</v>
+        <v>3790</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>3081</v>
+        <v>3069</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>3803</v>
+        <v>3791</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>3082</v>
+        <v>3070</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>3804</v>
+        <v>3792</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>3083</v>
+        <v>3071</v>
       </c>
       <c r="P141" s="1" t="s">
-        <v>3805</v>
+        <v>3793</v>
       </c>
       <c r="Q141" s="1" t="s">
-        <v>3806</v>
+        <v>3794</v>
       </c>
       <c r="R141" s="1" t="s">
-        <v>3084</v>
+        <v>3072</v>
       </c>
       <c r="S141" s="1" t="s">
-        <v>3085</v>
+        <v>3073</v>
       </c>
       <c r="T141" s="1" t="s">
-        <v>3807</v>
+        <v>3795</v>
       </c>
       <c r="U141" s="1" t="s">
-        <v>3086</v>
+        <v>3074</v>
       </c>
       <c r="V141" s="1" t="s">
-        <v>3087</v>
+        <v>3075</v>
       </c>
       <c r="W141" s="1"/>
       <c r="X141" s="1"/>
       <c r="Y141" s="1"/>
       <c r="Z141" s="1" t="s">
-        <v>3088</v>
+        <v>3076</v>
       </c>
       <c r="AA141" s="1" t="s">
-        <v>3808</v>
+        <v>3796</v>
       </c>
       <c r="AB141" s="1" t="s">
-        <v>3089</v>
+        <v>3077</v>
       </c>
       <c r="AC141" s="1" t="s">
-        <v>3090</v>
+        <v>3078</v>
       </c>
       <c r="AD141" s="1" t="s">
-        <v>3091</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>3923</v>
+        <v>3899</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>3092</v>
+        <v>3080</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>3809</v>
+        <v>3797</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>3093</v>
+        <v>3081</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>3094</v>
+        <v>3082</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>3810</v>
+        <v>3798</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>3095</v>
+        <v>3083</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>3811</v>
+        <v>3799</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>3096</v>
+        <v>3084</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>3812</v>
+        <v>3800</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>3097</v>
+        <v>3085</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>3813</v>
+        <v>3801</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>3098</v>
+        <v>3086</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>3814</v>
+        <v>3802</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>3099</v>
+        <v>3087</v>
       </c>
       <c r="P142" s="1" t="s">
-        <v>3815</v>
+        <v>3803</v>
       </c>
       <c r="Q142" s="1" t="s">
-        <v>3816</v>
+        <v>3804</v>
       </c>
       <c r="R142" s="1" t="s">
-        <v>3100</v>
+        <v>3088</v>
       </c>
       <c r="S142" s="1" t="s">
-        <v>3101</v>
+        <v>3089</v>
       </c>
       <c r="T142" s="1" t="s">
-        <v>3817</v>
+        <v>3805</v>
       </c>
       <c r="U142" s="1" t="s">
-        <v>3102</v>
+        <v>3090</v>
       </c>
       <c r="V142" s="1" t="s">
-        <v>3103</v>
+        <v>3091</v>
       </c>
       <c r="W142" s="1"/>
       <c r="X142" s="1"/>
       <c r="Y142" s="1"/>
       <c r="Z142" s="1" t="s">
-        <v>3104</v>
+        <v>3092</v>
       </c>
       <c r="AA142" s="1" t="s">
-        <v>3818</v>
+        <v>3806</v>
       </c>
       <c r="AB142" s="1" t="s">
-        <v>3105</v>
+        <v>3093</v>
       </c>
       <c r="AC142" s="1" t="s">
-        <v>3106</v>
+        <v>3094</v>
       </c>
       <c r="AD142" s="1" t="s">
-        <v>3107</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>3924</v>
+        <v>3900</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>3108</v>
+        <v>3096</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>3819</v>
+        <v>3807</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>3109</v>
+        <v>3097</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>3110</v>
+        <v>3098</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>3820</v>
+        <v>3808</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>3111</v>
+        <v>3099</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>3821</v>
+        <v>3809</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>3112</v>
+        <v>3100</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>3822</v>
+        <v>3810</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>3113</v>
+        <v>3101</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>3823</v>
+        <v>3811</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>3114</v>
+        <v>3102</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>3824</v>
+        <v>3812</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>3115</v>
+        <v>3103</v>
       </c>
       <c r="P143" s="1" t="s">
-        <v>3825</v>
+        <v>3813</v>
       </c>
       <c r="Q143" s="1" t="s">
-        <v>3826</v>
+        <v>3814</v>
       </c>
       <c r="R143" s="1" t="s">
-        <v>3116</v>
+        <v>3104</v>
       </c>
       <c r="S143" s="1" t="s">
-        <v>3117</v>
+        <v>3105</v>
       </c>
       <c r="T143" s="1" t="s">
-        <v>3827</v>
+        <v>3815</v>
       </c>
       <c r="U143" s="1" t="s">
-        <v>3118</v>
+        <v>3106</v>
       </c>
       <c r="V143" s="1" t="s">
-        <v>3119</v>
+        <v>3107</v>
       </c>
       <c r="W143" s="1"/>
       <c r="X143" s="1"/>
       <c r="Y143" s="1"/>
       <c r="Z143" s="1" t="s">
-        <v>3120</v>
+        <v>3108</v>
       </c>
       <c r="AA143" s="1" t="s">
-        <v>3828</v>
+        <v>3816</v>
       </c>
       <c r="AB143" s="1" t="s">
-        <v>3121</v>
+        <v>3109</v>
       </c>
       <c r="AC143" s="1" t="s">
-        <v>3122</v>
+        <v>3110</v>
       </c>
       <c r="AD143" s="1" t="s">
-        <v>3123</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>3925</v>
+        <v>3901</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>3124</v>
+        <v>3112</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>3829</v>
+        <v>3817</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>3125</v>
+        <v>3113</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>3126</v>
+        <v>3114</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>3830</v>
+        <v>3818</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>3127</v>
+        <v>3115</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>3831</v>
+        <v>3819</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>3128</v>
+        <v>3116</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>3832</v>
+        <v>3820</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>3129</v>
+        <v>3117</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>3833</v>
+        <v>3821</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>3130</v>
+        <v>3118</v>
       </c>
       <c r="N144" s="1" t="s">
-        <v>3834</v>
+        <v>3822</v>
       </c>
       <c r="O144" s="1" t="s">
-        <v>3131</v>
+        <v>3119</v>
       </c>
       <c r="P144" s="1" t="s">
-        <v>3835</v>
+        <v>3823</v>
       </c>
       <c r="Q144" s="1" t="s">
-        <v>3836</v>
+        <v>3824</v>
       </c>
       <c r="R144" s="1" t="s">
-        <v>3132</v>
+        <v>3120</v>
       </c>
       <c r="S144" s="1" t="s">
-        <v>3133</v>
+        <v>3121</v>
       </c>
       <c r="T144" s="1" t="s">
-        <v>3837</v>
+        <v>3825</v>
       </c>
       <c r="U144" s="1" t="s">
-        <v>3134</v>
+        <v>3122</v>
       </c>
       <c r="V144" s="1" t="s">
-        <v>3135</v>
+        <v>3123</v>
       </c>
       <c r="W144" s="1"/>
       <c r="X144" s="1"/>
       <c r="Y144" s="1"/>
       <c r="Z144" s="1" t="s">
-        <v>3136</v>
+        <v>3124</v>
       </c>
       <c r="AA144" s="1" t="s">
-        <v>3838</v>
+        <v>3826</v>
       </c>
       <c r="AB144" s="1" t="s">
-        <v>3137</v>
+        <v>3125</v>
       </c>
       <c r="AC144" s="1" t="s">
-        <v>3138</v>
+        <v>3126</v>
       </c>
       <c r="AD144" s="1" t="s">
-        <v>3139</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>3926</v>
+        <v>3902</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>3140</v>
+        <v>3128</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>3839</v>
+        <v>3827</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>3141</v>
+        <v>3129</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>3142</v>
+        <v>3130</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>3840</v>
+        <v>3828</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>3143</v>
+        <v>3131</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>3841</v>
+        <v>3829</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>3144</v>
+        <v>3132</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>3842</v>
+        <v>3830</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>3145</v>
+        <v>3133</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>3843</v>
+        <v>3831</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>3146</v>
+        <v>3134</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>3844</v>
+        <v>3832</v>
       </c>
       <c r="O145" s="1" t="s">
-        <v>3147</v>
+        <v>3135</v>
       </c>
       <c r="P145" s="1" t="s">
-        <v>3845</v>
+        <v>3833</v>
       </c>
       <c r="Q145" s="1" t="s">
-        <v>3846</v>
+        <v>3834</v>
       </c>
       <c r="R145" s="1" t="s">
-        <v>3148</v>
+        <v>3136</v>
       </c>
       <c r="S145" s="1" t="s">
-        <v>3149</v>
+        <v>3137</v>
       </c>
       <c r="T145" s="1" t="s">
-        <v>3847</v>
+        <v>3835</v>
       </c>
       <c r="U145" s="1" t="s">
-        <v>3150</v>
+        <v>3138</v>
       </c>
       <c r="V145" s="1" t="s">
-        <v>3151</v>
+        <v>3139</v>
       </c>
       <c r="W145" s="1"/>
       <c r="X145" s="1"/>
       <c r="Y145" s="1"/>
       <c r="Z145" s="1" t="s">
-        <v>3152</v>
+        <v>3140</v>
       </c>
       <c r="AA145" s="1" t="s">
-        <v>3848</v>
+        <v>3836</v>
       </c>
       <c r="AB145" s="1" t="s">
-        <v>3153</v>
+        <v>3141</v>
       </c>
       <c r="AC145" s="1" t="s">
-        <v>3154</v>
+        <v>3142</v>
       </c>
       <c r="AD145" s="1" t="s">
-        <v>3155</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>3927</v>
+        <v>3903</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>3156</v>
+        <v>3144</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>3849</v>
+        <v>3837</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>3157</v>
+        <v>3145</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>3158</v>
+        <v>3146</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>3850</v>
+        <v>3838</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>3159</v>
+        <v>3147</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>3851</v>
+        <v>3839</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>3160</v>
+        <v>3148</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>3852</v>
+        <v>3840</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>3161</v>
+        <v>3149</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>3853</v>
+        <v>3841</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>3162</v>
+        <v>3150</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>3854</v>
+        <v>3842</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>3163</v>
+        <v>3151</v>
       </c>
       <c r="P146" s="1" t="s">
-        <v>3855</v>
+        <v>3843</v>
       </c>
       <c r="Q146" s="1" t="s">
-        <v>3856</v>
+        <v>3844</v>
       </c>
       <c r="R146" s="1" t="s">
-        <v>3164</v>
+        <v>3152</v>
       </c>
       <c r="S146" s="1" t="s">
-        <v>3165</v>
+        <v>3153</v>
       </c>
       <c r="T146" s="1" t="s">
-        <v>3857</v>
+        <v>3845</v>
       </c>
       <c r="U146" s="1" t="s">
-        <v>3166</v>
+        <v>3154</v>
       </c>
       <c r="V146" s="1" t="s">
-        <v>3167</v>
+        <v>3155</v>
       </c>
       <c r="W146" s="1"/>
       <c r="X146" s="1"/>
       <c r="Y146" s="1"/>
       <c r="Z146" s="1" t="s">
-        <v>3168</v>
+        <v>3156</v>
       </c>
       <c r="AA146" s="1" t="s">
-        <v>3858</v>
+        <v>3846</v>
       </c>
       <c r="AB146" s="1" t="s">
-        <v>3169</v>
+        <v>3157</v>
       </c>
       <c r="AC146" s="1" t="s">
-        <v>3170</v>
+        <v>3158</v>
       </c>
       <c r="AD146" s="1" t="s">
-        <v>3171</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>3928</v>
+        <v>3904</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>3161</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>3162</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>3163</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>3164</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>3165</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>3166</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>3167</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>3168</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>3169</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="N147" s="1" t="s">
         <v>3172</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="O147" s="1" t="s">
         <v>3173</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="P147" s="1" t="s">
         <v>3174</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="Q147" s="1" t="s">
         <v>3175</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="R147" s="1" t="s">
         <v>3176</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="S147" s="1" t="s">
         <v>3177</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="T147" s="1" t="s">
         <v>3178</v>
       </c>
-      <c r="I147" s="1" t="s">
+      <c r="U147" s="1" t="s">
         <v>3179</v>
       </c>
-      <c r="J147" s="1" t="s">
+      <c r="V147" s="1" t="s">
         <v>3180</v>
-      </c>
-      <c r="K147" s="1" t="s">
-        <v>3181</v>
-      </c>
-      <c r="L147" s="1" t="s">
-        <v>3182</v>
-      </c>
-      <c r="M147" s="1" t="s">
-        <v>3183</v>
-      </c>
-      <c r="N147" s="1" t="s">
-        <v>3184</v>
-      </c>
-      <c r="O147" s="1" t="s">
-        <v>3185</v>
-      </c>
-      <c r="P147" s="1" t="s">
-        <v>3186</v>
-      </c>
-      <c r="Q147" s="1" t="s">
-        <v>3187</v>
-      </c>
-      <c r="R147" s="1" t="s">
-        <v>3188</v>
-      </c>
-      <c r="S147" s="1" t="s">
-        <v>3189</v>
-      </c>
-      <c r="T147" s="1" t="s">
-        <v>3190</v>
-      </c>
-      <c r="U147" s="1" t="s">
-        <v>3191</v>
-      </c>
-      <c r="V147" s="1" t="s">
-        <v>3192</v>
       </c>
       <c r="W147" s="1"/>
       <c r="X147" s="1"/>
       <c r="Y147" s="1"/>
       <c r="Z147" s="1" t="s">
-        <v>3193</v>
+        <v>3181</v>
       </c>
       <c r="AA147" s="1" t="s">
-        <v>3194</v>
+        <v>3182</v>
       </c>
       <c r="AB147" s="1" t="s">
-        <v>3195</v>
+        <v>3183</v>
       </c>
       <c r="AC147" s="1" t="s">
-        <v>3196</v>
+        <v>3184</v>
       </c>
       <c r="AD147" s="1" t="s">
-        <v>3197</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>3929</v>
+        <v>3905</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>3189</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>3190</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>3191</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>3192</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>3193</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>3194</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>3195</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>3196</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>3197</v>
+      </c>
+      <c r="N148" s="1" t="s">
         <v>3198</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="O148" s="1" t="s">
         <v>3199</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="P148" s="1" t="s">
         <v>3200</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="Q148" s="1" t="s">
         <v>3201</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="R148" s="1" t="s">
         <v>3202</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="S148" s="1" t="s">
         <v>3203</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="T148" s="1" t="s">
         <v>3204</v>
       </c>
-      <c r="I148" s="1" t="s">
+      <c r="U148" s="1" t="s">
         <v>3205</v>
       </c>
-      <c r="J148" s="1" t="s">
+      <c r="V148" s="1" t="s">
         <v>3206</v>
-      </c>
-      <c r="K148" s="1" t="s">
-        <v>3207</v>
-      </c>
-      <c r="L148" s="1" t="s">
-        <v>3208</v>
-      </c>
-      <c r="M148" s="1" t="s">
-        <v>3209</v>
-      </c>
-      <c r="N148" s="1" t="s">
-        <v>3210</v>
-      </c>
-      <c r="O148" s="1" t="s">
-        <v>3211</v>
-      </c>
-      <c r="P148" s="1" t="s">
-        <v>3212</v>
-      </c>
-      <c r="Q148" s="1" t="s">
-        <v>3213</v>
-      </c>
-      <c r="R148" s="1" t="s">
-        <v>3214</v>
-      </c>
-      <c r="S148" s="1" t="s">
-        <v>3215</v>
-      </c>
-      <c r="T148" s="1" t="s">
-        <v>3216</v>
-      </c>
-      <c r="U148" s="1" t="s">
-        <v>3217</v>
-      </c>
-      <c r="V148" s="1" t="s">
-        <v>3218</v>
       </c>
       <c r="W148" s="1"/>
       <c r="X148" s="1"/>
       <c r="Y148" s="1"/>
       <c r="Z148" s="1" t="s">
-        <v>3219</v>
+        <v>3207</v>
       </c>
       <c r="AA148" s="1" t="s">
-        <v>3220</v>
+        <v>3208</v>
       </c>
       <c r="AB148" s="1" t="s">
-        <v>3221</v>
+        <v>3209</v>
       </c>
       <c r="AC148" s="1" t="s">
-        <v>3222</v>
+        <v>3210</v>
       </c>
       <c r="AD148" s="1" t="s">
-        <v>3223</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>3930</v>
+        <v>3906</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>3213</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>3214</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>3215</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>3216</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>3217</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>3218</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>3219</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>3220</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>3221</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="N149" s="1" t="s">
         <v>3224</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="O149" s="1" t="s">
         <v>3225</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="P149" s="1" t="s">
         <v>3226</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="Q149" s="1" t="s">
         <v>3227</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="R149" s="1" t="s">
         <v>3228</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="S149" s="1" t="s">
         <v>3229</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="T149" s="1" t="s">
         <v>3230</v>
       </c>
-      <c r="I149" s="1" t="s">
+      <c r="U149" s="1" t="s">
         <v>3231</v>
       </c>
-      <c r="J149" s="1" t="s">
+      <c r="V149" s="1" t="s">
         <v>3232</v>
-      </c>
-      <c r="K149" s="1" t="s">
-        <v>3233</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>3234</v>
-      </c>
-      <c r="M149" s="1" t="s">
-        <v>3235</v>
-      </c>
-      <c r="N149" s="1" t="s">
-        <v>3236</v>
-      </c>
-      <c r="O149" s="1" t="s">
-        <v>3237</v>
-      </c>
-      <c r="P149" s="1" t="s">
-        <v>3238</v>
-      </c>
-      <c r="Q149" s="1" t="s">
-        <v>3239</v>
-      </c>
-      <c r="R149" s="1" t="s">
-        <v>3240</v>
-      </c>
-      <c r="S149" s="1" t="s">
-        <v>3241</v>
-      </c>
-      <c r="T149" s="1" t="s">
-        <v>3242</v>
-      </c>
-      <c r="U149" s="1" t="s">
-        <v>3243</v>
-      </c>
-      <c r="V149" s="1" t="s">
-        <v>3244</v>
       </c>
       <c r="W149" s="1"/>
       <c r="X149" s="1"/>
       <c r="Y149" s="1"/>
       <c r="Z149" s="1" t="s">
-        <v>3245</v>
+        <v>3233</v>
       </c>
       <c r="AA149" s="1" t="s">
-        <v>3246</v>
+        <v>3234</v>
       </c>
       <c r="AB149" s="1" t="s">
-        <v>3247</v>
+        <v>3235</v>
       </c>
       <c r="AC149" s="1" t="s">
-        <v>3248</v>
+        <v>3236</v>
       </c>
       <c r="AD149" s="1" t="s">
-        <v>3249</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>3931</v>
+        <v>3907</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>3239</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>3240</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>3241</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>3242</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>3243</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>3245</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>3249</v>
+      </c>
+      <c r="N150" s="1" t="s">
         <v>3250</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="O150" s="1" t="s">
         <v>3251</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="P150" s="1" t="s">
         <v>3252</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="Q150" s="1" t="s">
         <v>3253</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="R150" s="1" t="s">
         <v>3254</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="S150" s="1" t="s">
         <v>3255</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="T150" s="1" t="s">
         <v>3256</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="U150" s="1" t="s">
         <v>3257</v>
       </c>
-      <c r="J150" s="1" t="s">
+      <c r="V150" s="1" t="s">
         <v>3258</v>
-      </c>
-      <c r="K150" s="1" t="s">
-        <v>3259</v>
-      </c>
-      <c r="L150" s="1" t="s">
-        <v>3260</v>
-      </c>
-      <c r="M150" s="1" t="s">
-        <v>3261</v>
-      </c>
-      <c r="N150" s="1" t="s">
-        <v>3262</v>
-      </c>
-      <c r="O150" s="1" t="s">
-        <v>3263</v>
-      </c>
-      <c r="P150" s="1" t="s">
-        <v>3264</v>
-      </c>
-      <c r="Q150" s="1" t="s">
-        <v>3265</v>
-      </c>
-      <c r="R150" s="1" t="s">
-        <v>3266</v>
-      </c>
-      <c r="S150" s="1" t="s">
-        <v>3267</v>
-      </c>
-      <c r="T150" s="1" t="s">
-        <v>3268</v>
-      </c>
-      <c r="U150" s="1" t="s">
-        <v>3269</v>
-      </c>
-      <c r="V150" s="1" t="s">
-        <v>3270</v>
       </c>
       <c r="W150" s="1"/>
       <c r="X150" s="1"/>
       <c r="Y150" s="1"/>
       <c r="Z150" s="1" t="s">
-        <v>3271</v>
+        <v>3259</v>
       </c>
       <c r="AA150" s="1" t="s">
-        <v>3272</v>
+        <v>3260</v>
       </c>
       <c r="AB150" s="1" t="s">
-        <v>3273</v>
+        <v>3261</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>3274</v>
+        <v>3262</v>
       </c>
       <c r="AD150" s="1" t="s">
-        <v>3275</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>3932</v>
+        <v>3908</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>3264</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>3266</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>3267</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>3268</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>3269</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>3273</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>3274</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>3275</v>
+      </c>
+      <c r="N151" s="1" t="s">
         <v>3276</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="O151" s="1" t="s">
         <v>3277</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="P151" s="1" t="s">
         <v>3278</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="Q151" s="1" t="s">
         <v>3279</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="R151" s="1" t="s">
         <v>3280</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="S151" s="1" t="s">
         <v>3281</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="T151" s="1" t="s">
         <v>3282</v>
       </c>
-      <c r="I151" s="1" t="s">
+      <c r="U151" s="1" t="s">
         <v>3283</v>
       </c>
-      <c r="J151" s="1" t="s">
+      <c r="V151" s="1" t="s">
         <v>3284</v>
-      </c>
-      <c r="K151" s="1" t="s">
-        <v>3285</v>
-      </c>
-      <c r="L151" s="1" t="s">
-        <v>3286</v>
-      </c>
-      <c r="M151" s="1" t="s">
-        <v>3287</v>
-      </c>
-      <c r="N151" s="1" t="s">
-        <v>3288</v>
-      </c>
-      <c r="O151" s="1" t="s">
-        <v>3289</v>
-      </c>
-      <c r="P151" s="1" t="s">
-        <v>3290</v>
-      </c>
-      <c r="Q151" s="1" t="s">
-        <v>3291</v>
-      </c>
-      <c r="R151" s="1" t="s">
-        <v>3292</v>
-      </c>
-      <c r="S151" s="1" t="s">
-        <v>3293</v>
-      </c>
-      <c r="T151" s="1" t="s">
-        <v>3294</v>
-      </c>
-      <c r="U151" s="1" t="s">
-        <v>3295</v>
-      </c>
-      <c r="V151" s="1" t="s">
-        <v>3296</v>
       </c>
       <c r="W151" s="1"/>
       <c r="X151" s="1"/>
       <c r="Y151" s="1"/>
       <c r="Z151" s="1" t="s">
-        <v>3297</v>
+        <v>3285</v>
       </c>
       <c r="AA151" s="1" t="s">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="AB151" s="1" t="s">
-        <v>3299</v>
+        <v>3287</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>3300</v>
+        <v>3288</v>
       </c>
       <c r="AD151" s="1" t="s">
-        <v>3301</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>3933</v>
+        <v>3909</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>3291</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>3292</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>3293</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>3297</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>3298</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>3299</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>3300</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>3301</v>
+      </c>
+      <c r="N152" s="1" t="s">
         <v>3302</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="O152" s="1" t="s">
         <v>3303</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="P152" s="1" t="s">
         <v>3304</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="Q152" s="1" t="s">
         <v>3305</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="R152" s="1" t="s">
         <v>3306</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="S152" s="1" t="s">
         <v>3307</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="T152" s="1" t="s">
         <v>3308</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="U152" s="1" t="s">
         <v>3309</v>
       </c>
-      <c r="J152" s="1" t="s">
+      <c r="V152" s="1" t="s">
         <v>3310</v>
-      </c>
-      <c r="K152" s="1" t="s">
-        <v>3311</v>
-      </c>
-      <c r="L152" s="1" t="s">
-        <v>3312</v>
-      </c>
-      <c r="M152" s="1" t="s">
-        <v>3313</v>
-      </c>
-      <c r="N152" s="1" t="s">
-        <v>3314</v>
-      </c>
-      <c r="O152" s="1" t="s">
-        <v>3315</v>
-      </c>
-      <c r="P152" s="1" t="s">
-        <v>3316</v>
-      </c>
-      <c r="Q152" s="1" t="s">
-        <v>3317</v>
-      </c>
-      <c r="R152" s="1" t="s">
-        <v>3318</v>
-      </c>
-      <c r="S152" s="1" t="s">
-        <v>3319</v>
-      </c>
-      <c r="T152" s="1" t="s">
-        <v>3320</v>
-      </c>
-      <c r="U152" s="1" t="s">
-        <v>3321</v>
-      </c>
-      <c r="V152" s="1" t="s">
-        <v>3322</v>
       </c>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
       <c r="Y152" s="1"/>
       <c r="Z152" s="1" t="s">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="AA152" s="1" t="s">
-        <v>3324</v>
+        <v>3312</v>
       </c>
       <c r="AB152" s="1" t="s">
-        <v>3325</v>
+        <v>3313</v>
       </c>
       <c r="AC152" s="1" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="AD152" s="1" t="s">
-        <v>3327</v>
+        <v>3315</v>
       </c>
     </row>
   </sheetData>
